--- a/2017/LUONG - 17.xlsx
+++ b/2017/LUONG - 17.xlsx
@@ -2981,7 +2981,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="284">
+  <cellXfs count="285">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="96" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3615,6 +3615,12 @@
     <xf numFmtId="0" fontId="122" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="169" fontId="77" fillId="26" borderId="13" xfId="337" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="77" fillId="26" borderId="27" xfId="337" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="102" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3645,26 +3651,8 @@
     <xf numFmtId="169" fontId="77" fillId="26" borderId="12" xfId="337" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="77" fillId="26" borderId="13" xfId="337" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="169" fontId="77" fillId="26" borderId="8" xfId="337" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="77" fillId="26" borderId="27" xfId="337" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="237" fontId="99" fillId="28" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="99" fillId="28" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="238" fontId="99" fillId="28" borderId="14" xfId="337" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="238" fontId="99" fillId="28" borderId="28" xfId="337" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="98" fillId="0" borderId="14" xfId="337" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3672,10 +3660,10 @@
     <xf numFmtId="43" fontId="98" fillId="0" borderId="28" xfId="337" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="238" fontId="98" fillId="0" borderId="14" xfId="337" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="30" fillId="0" borderId="14" xfId="337" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="238" fontId="98" fillId="0" borderId="28" xfId="337" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="30" fillId="0" borderId="28" xfId="337" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="98" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3690,28 +3678,28 @@
     <xf numFmtId="0" fontId="98" fillId="0" borderId="28" xfId="421" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="238" fontId="99" fillId="28" borderId="14" xfId="337" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="238" fontId="99" fillId="28" borderId="28" xfId="337" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="238" fontId="98" fillId="0" borderId="14" xfId="337" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="238" fontId="98" fillId="0" borderId="28" xfId="337" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="237" fontId="99" fillId="28" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="99" fillId="28" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="98" fillId="0" borderId="14" xfId="421" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="98" fillId="0" borderId="28" xfId="421" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="100" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="30" fillId="0" borderId="14" xfId="337" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="30" fillId="0" borderId="28" xfId="337" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="100" fillId="26" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="100" fillId="26" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="100" fillId="26" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="43" fontId="95" fillId="0" borderId="13" xfId="337" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3738,13 +3726,31 @@
     <xf numFmtId="43" fontId="100" fillId="26" borderId="23" xfId="337" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="100" fillId="26" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="100" fillId="26" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="100" fillId="26" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="100" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="77" fillId="26" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="77" fillId="26" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="77" fillId="26" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="77" fillId="26" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="77" fillId="26" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="77" fillId="26" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="77" fillId="26" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3780,11 +3786,8 @@
     <xf numFmtId="43" fontId="77" fillId="26" borderId="23" xfId="337" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="77" fillId="26" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="77" fillId="26" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="30" fillId="26" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="607">
@@ -4396,161 +4399,7 @@
     <cellStyle name="通貨 [0.00]_List-dwgwg" xfId="602"/>
     <cellStyle name="通貨_List-dwgis" xfId="603"/>
   </cellStyles>
-  <dxfs count="121">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="35"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="35"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="35"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="35"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="35"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="35"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="35"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="35"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="35"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="35"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="35"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="35"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="35"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="35"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="35"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="35"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="35"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="35"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="35"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="35"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="35"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="35"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="99">
     <dxf>
       <fill>
         <patternFill>
@@ -5839,92 +5688,92 @@
       <c r="AL6" s="114"/>
     </row>
     <row r="7" spans="1:38" s="1" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A7" s="233" t="s">
+      <c r="A7" s="235" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="233" t="s">
+      <c r="B7" s="235" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="233" t="s">
+      <c r="C7" s="235" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="233" t="s">
+      <c r="D7" s="235" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="237" t="s">
+      <c r="E7" s="227" t="s">
         <v>78</v>
       </c>
-      <c r="F7" s="238"/>
-      <c r="G7" s="239"/>
-      <c r="H7" s="236" t="s">
+      <c r="F7" s="239"/>
+      <c r="G7" s="228"/>
+      <c r="H7" s="238" t="s">
         <v>48</v>
       </c>
-      <c r="I7" s="236"/>
-      <c r="J7" s="237" t="s">
+      <c r="I7" s="238"/>
+      <c r="J7" s="227" t="s">
         <v>52</v>
       </c>
-      <c r="K7" s="239"/>
-      <c r="L7" s="237" t="s">
+      <c r="K7" s="228"/>
+      <c r="L7" s="227" t="s">
         <v>53</v>
       </c>
-      <c r="M7" s="239"/>
-      <c r="N7" s="237" t="s">
+      <c r="M7" s="228"/>
+      <c r="N7" s="227" t="s">
         <v>54</v>
       </c>
-      <c r="O7" s="239"/>
-      <c r="P7" s="237" t="s">
+      <c r="O7" s="228"/>
+      <c r="P7" s="227" t="s">
         <v>55</v>
       </c>
-      <c r="Q7" s="239"/>
-      <c r="R7" s="237" t="s">
+      <c r="Q7" s="228"/>
+      <c r="R7" s="227" t="s">
         <v>56</v>
       </c>
-      <c r="S7" s="239"/>
-      <c r="T7" s="237" t="s">
+      <c r="S7" s="228"/>
+      <c r="T7" s="227" t="s">
         <v>57</v>
       </c>
-      <c r="U7" s="239"/>
-      <c r="V7" s="237" t="s">
+      <c r="U7" s="228"/>
+      <c r="V7" s="227" t="s">
         <v>58</v>
       </c>
-      <c r="W7" s="239"/>
-      <c r="X7" s="237" t="s">
+      <c r="W7" s="228"/>
+      <c r="X7" s="227" t="s">
         <v>59</v>
       </c>
-      <c r="Y7" s="239"/>
-      <c r="Z7" s="237" t="s">
+      <c r="Y7" s="228"/>
+      <c r="Z7" s="227" t="s">
         <v>60</v>
       </c>
-      <c r="AA7" s="239"/>
-      <c r="AB7" s="237" t="s">
+      <c r="AA7" s="228"/>
+      <c r="AB7" s="227" t="s">
         <v>61</v>
       </c>
-      <c r="AC7" s="239"/>
-      <c r="AD7" s="237" t="s">
+      <c r="AC7" s="228"/>
+      <c r="AD7" s="227" t="s">
         <v>62</v>
       </c>
-      <c r="AE7" s="239"/>
-      <c r="AF7" s="237" t="s">
+      <c r="AE7" s="228"/>
+      <c r="AF7" s="227" t="s">
         <v>63</v>
       </c>
-      <c r="AG7" s="239"/>
-      <c r="AH7" s="234" t="s">
+      <c r="AG7" s="228"/>
+      <c r="AH7" s="236" t="s">
         <v>83</v>
       </c>
-      <c r="AI7" s="234" t="s">
+      <c r="AI7" s="236" t="s">
         <v>21</v>
       </c>
-      <c r="AJ7" s="234" t="s">
+      <c r="AJ7" s="236" t="s">
         <v>10</v>
       </c>
       <c r="AK7" s="95"/>
       <c r="AL7" s="95"/>
     </row>
     <row r="8" spans="1:38" s="1" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A8" s="233"/>
-      <c r="B8" s="233"/>
-      <c r="C8" s="233"/>
-      <c r="D8" s="233"/>
+      <c r="A8" s="235"/>
+      <c r="B8" s="235"/>
+      <c r="C8" s="235"/>
+      <c r="D8" s="235"/>
       <c r="E8" s="212" t="s">
         <v>79</v>
       </c>
@@ -6010,9 +5859,9 @@
       <c r="AG8" s="212" t="s">
         <v>81</v>
       </c>
-      <c r="AH8" s="235"/>
-      <c r="AI8" s="235"/>
-      <c r="AJ8" s="235"/>
+      <c r="AH8" s="237"/>
+      <c r="AI8" s="237"/>
+      <c r="AJ8" s="237"/>
       <c r="AK8" s="95"/>
       <c r="AL8" s="95"/>
     </row>
@@ -6923,11 +6772,11 @@
       <c r="AL17" s="41"/>
     </row>
     <row r="18" spans="1:38" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A18" s="227" t="s">
+      <c r="A18" s="229" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="228"/>
-      <c r="C18" s="228"/>
+      <c r="B18" s="230"/>
+      <c r="C18" s="230"/>
       <c r="D18" s="140" t="s">
         <v>84</v>
       </c>
@@ -7012,9 +6861,9 @@
       <c r="AL18" s="41"/>
     </row>
     <row r="19" spans="1:38" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A19" s="229"/>
-      <c r="B19" s="230"/>
-      <c r="C19" s="230"/>
+      <c r="A19" s="231"/>
+      <c r="B19" s="232"/>
+      <c r="C19" s="232"/>
       <c r="D19" s="140" t="s">
         <v>64</v>
       </c>
@@ -7090,9 +6939,9 @@
       <c r="AL19" s="41"/>
     </row>
     <row r="20" spans="1:38" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A20" s="231"/>
-      <c r="B20" s="232"/>
-      <c r="C20" s="232"/>
+      <c r="A20" s="233"/>
+      <c r="B20" s="234"/>
+      <c r="C20" s="234"/>
       <c r="D20" s="140" t="s">
         <v>65</v>
       </c>
@@ -7242,12 +7091,6 @@
   </protectedRanges>
   <autoFilter ref="A9:AL13"/>
   <mergeCells count="22">
-    <mergeCell ref="AF7:AG7"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="X7:Y7"/>
-    <mergeCell ref="Z7:AA7"/>
-    <mergeCell ref="AB7:AC7"/>
-    <mergeCell ref="AD7:AE7"/>
     <mergeCell ref="A18:C20"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="A7:A8"/>
@@ -7264,6 +7107,12 @@
     <mergeCell ref="P7:Q7"/>
     <mergeCell ref="R7:S7"/>
     <mergeCell ref="T7:U7"/>
+    <mergeCell ref="AF7:AG7"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="X7:Y7"/>
+    <mergeCell ref="Z7:AA7"/>
+    <mergeCell ref="AB7:AC7"/>
+    <mergeCell ref="AD7:AE7"/>
   </mergeCells>
   <phoneticPr fontId="47" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -7290,7 +7139,7 @@
       <selection activeCell="A2" sqref="A2:A3"/>
       <selection pane="topRight" activeCell="A2" sqref="A2:A3"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2:A3"/>
-      <selection pane="bottomRight" activeCell="B14" sqref="B14:B15"/>
+      <selection pane="bottomRight" activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.7109375" defaultRowHeight="15" customHeight="1"/>
@@ -7356,15 +7205,15 @@
       <c r="AJ1" s="107"/>
       <c r="AK1" s="44"/>
       <c r="AL1" s="44"/>
-      <c r="AM1" s="260" t="s">
+      <c r="AM1" s="256" t="s">
         <v>76</v>
       </c>
-      <c r="AN1" s="261"/>
-      <c r="AO1" s="261"/>
-      <c r="AP1" s="261"/>
-      <c r="AQ1" s="261"/>
-      <c r="AR1" s="261"/>
-      <c r="AS1" s="262"/>
+      <c r="AN1" s="257"/>
+      <c r="AO1" s="257"/>
+      <c r="AP1" s="257"/>
+      <c r="AQ1" s="257"/>
+      <c r="AR1" s="257"/>
+      <c r="AS1" s="258"/>
       <c r="AT1" s="46"/>
     </row>
     <row r="2" spans="1:91" ht="20.25">
@@ -7514,19 +7363,19 @@
       <c r="AT4" s="90"/>
     </row>
     <row r="5" spans="1:91" s="56" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A5" s="257" t="s">
+      <c r="A5" s="266" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="257" t="s">
+      <c r="B5" s="266" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="257" t="s">
+      <c r="C5" s="266" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="259" t="s">
+      <c r="D5" s="264" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="257" t="s">
+      <c r="E5" s="266" t="s">
         <v>27</v>
       </c>
       <c r="F5" s="106">
@@ -7653,30 +7502,30 @@
         <f t="shared" si="0"/>
         <v>42886</v>
       </c>
-      <c r="AK5" s="263" t="s">
+      <c r="AK5" s="259" t="s">
         <v>14</v>
       </c>
-      <c r="AL5" s="264"/>
-      <c r="AM5" s="265"/>
-      <c r="AN5" s="266" t="s">
+      <c r="AL5" s="260"/>
+      <c r="AM5" s="261"/>
+      <c r="AN5" s="262" t="s">
         <v>38</v>
       </c>
-      <c r="AO5" s="266" t="s">
+      <c r="AO5" s="262" t="s">
         <v>34</v>
       </c>
-      <c r="AP5" s="266" t="s">
+      <c r="AP5" s="262" t="s">
         <v>35</v>
       </c>
-      <c r="AQ5" s="266" t="s">
+      <c r="AQ5" s="262" t="s">
         <v>36</v>
       </c>
-      <c r="AR5" s="266" t="s">
+      <c r="AR5" s="262" t="s">
         <v>37</v>
       </c>
-      <c r="AS5" s="259" t="s">
+      <c r="AS5" s="264" t="s">
         <v>0</v>
       </c>
-      <c r="AT5" s="254"/>
+      <c r="AT5" s="267"/>
       <c r="AV5" s="2"/>
       <c r="AW5" s="2"/>
       <c r="AX5" s="2"/>
@@ -7723,11 +7572,11 @@
       <c r="CM5" s="2"/>
     </row>
     <row r="6" spans="1:91" s="56" customFormat="1" ht="39.75" customHeight="1">
-      <c r="A6" s="258"/>
-      <c r="B6" s="258"/>
-      <c r="C6" s="258"/>
-      <c r="D6" s="258"/>
-      <c r="E6" s="258"/>
+      <c r="A6" s="265"/>
+      <c r="B6" s="265"/>
+      <c r="C6" s="265"/>
+      <c r="D6" s="265"/>
+      <c r="E6" s="265"/>
       <c r="F6" s="158" t="str">
         <f>CHOOSE(WEEKDAY(F5),"C.Nhật","T.Hai","T.Ba","T.Tư","T.Năm","T.Sáu","T.Bảy")</f>
         <v>T.Hai</v>
@@ -7861,13 +7710,13 @@
       <c r="AM6" s="160" t="s">
         <v>16</v>
       </c>
-      <c r="AN6" s="267"/>
-      <c r="AO6" s="267"/>
-      <c r="AP6" s="267"/>
-      <c r="AQ6" s="267"/>
-      <c r="AR6" s="267"/>
-      <c r="AS6" s="258"/>
-      <c r="AT6" s="254"/>
+      <c r="AN6" s="263"/>
+      <c r="AO6" s="263"/>
+      <c r="AP6" s="263"/>
+      <c r="AQ6" s="263"/>
+      <c r="AR6" s="263"/>
+      <c r="AS6" s="265"/>
+      <c r="AT6" s="267"/>
       <c r="AV6" s="2"/>
       <c r="AW6" s="2"/>
       <c r="AX6" s="2"/>
@@ -8148,17 +7997,17 @@
       <c r="AT8" s="163"/>
     </row>
     <row r="9" spans="1:91" s="56" customFormat="1" ht="18" customHeight="1">
-      <c r="A9" s="248">
+      <c r="A9" s="244">
         <v>1</v>
       </c>
-      <c r="B9" s="248" t="s">
+      <c r="B9" s="244" t="s">
         <v>73</v>
       </c>
-      <c r="C9" s="250" t="str">
+      <c r="C9" s="246" t="str">
         <f>VLOOKUP(B9,DS,2,0)</f>
         <v>Mai Thị Hường</v>
       </c>
-      <c r="D9" s="252" t="str">
+      <c r="D9" s="254" t="str">
         <f>VLOOKUP(B9,DS,3,0)</f>
         <v>Kế Toán</v>
       </c>
@@ -8248,29 +8097,29 @@
       <c r="AJ9" s="131">
         <v>8</v>
       </c>
-      <c r="AK9" s="240">
+      <c r="AK9" s="252">
         <f>((SUM(F9:AJ9))/8)-(SUMIF($F$6:$AJ$6,"C.Nhật",F9:AJ9)/8)</f>
         <v>26</v>
       </c>
-      <c r="AL9" s="240">
+      <c r="AL9" s="252">
         <f>SUM(F10:AJ10)/8*1.5</f>
         <v>0</v>
       </c>
-      <c r="AM9" s="242">
+      <c r="AM9" s="248">
         <f>SUMIF($F$6:$AJ$6,"C.Nhật",$F9:$AJ10)/8*2</f>
         <v>0</v>
       </c>
-      <c r="AN9" s="244">
+      <c r="AN9" s="240">
         <f>SUM(AK9:AM10)</f>
         <v>26</v>
       </c>
-      <c r="AO9" s="246">
+      <c r="AO9" s="250">
         <v>0</v>
       </c>
-      <c r="AP9" s="244"/>
-      <c r="AQ9" s="244"/>
-      <c r="AR9" s="244"/>
-      <c r="AS9" s="255"/>
+      <c r="AP9" s="240"/>
+      <c r="AQ9" s="240"/>
+      <c r="AR9" s="240"/>
+      <c r="AS9" s="242"/>
       <c r="AT9" s="100"/>
       <c r="AV9" s="2"/>
       <c r="AW9" s="2"/>
@@ -8318,10 +8167,10 @@
       <c r="CM9" s="2"/>
     </row>
     <row r="10" spans="1:91" s="56" customFormat="1" ht="18" customHeight="1">
-      <c r="A10" s="249"/>
-      <c r="B10" s="249"/>
-      <c r="C10" s="251"/>
-      <c r="D10" s="253"/>
+      <c r="A10" s="245"/>
+      <c r="B10" s="245"/>
+      <c r="C10" s="247"/>
+      <c r="D10" s="255"/>
       <c r="E10" s="58" t="s">
         <v>28</v>
       </c>
@@ -8356,15 +8205,15 @@
       <c r="AH10" s="132"/>
       <c r="AI10" s="132"/>
       <c r="AJ10" s="132"/>
-      <c r="AK10" s="241"/>
-      <c r="AL10" s="241"/>
-      <c r="AM10" s="243"/>
-      <c r="AN10" s="245"/>
-      <c r="AO10" s="247"/>
-      <c r="AP10" s="245"/>
-      <c r="AQ10" s="245"/>
-      <c r="AR10" s="245"/>
-      <c r="AS10" s="256"/>
+      <c r="AK10" s="253"/>
+      <c r="AL10" s="253"/>
+      <c r="AM10" s="249"/>
+      <c r="AN10" s="241"/>
+      <c r="AO10" s="251"/>
+      <c r="AP10" s="241"/>
+      <c r="AQ10" s="241"/>
+      <c r="AR10" s="241"/>
+      <c r="AS10" s="243"/>
       <c r="AT10" s="100"/>
       <c r="AV10" s="2"/>
       <c r="AW10" s="2"/>
@@ -8412,17 +8261,17 @@
       <c r="CM10" s="2"/>
     </row>
     <row r="11" spans="1:91" s="56" customFormat="1" ht="18" customHeight="1">
-      <c r="A11" s="248">
+      <c r="A11" s="244">
         <v>2</v>
       </c>
-      <c r="B11" s="248" t="s">
+      <c r="B11" s="244" t="s">
         <v>113</v>
       </c>
-      <c r="C11" s="250" t="str">
+      <c r="C11" s="246" t="str">
         <f>VLOOKUP(B11,DS,2,0)</f>
         <v>Võ Ngọc Thúy Hằng</v>
       </c>
-      <c r="D11" s="252" t="str">
+      <c r="D11" s="254" t="str">
         <f>VLOOKUP(B11,DS,3,0)</f>
         <v>Văn Phòng</v>
       </c>
@@ -8512,29 +8361,29 @@
       <c r="AJ11" s="131">
         <v>8</v>
       </c>
-      <c r="AK11" s="240">
+      <c r="AK11" s="252">
         <f t="shared" ref="AK11" si="2">((SUM(F11:AJ11))/8)-(SUMIF($F$6:$AJ$6,"C.Nhật",F11:AJ11)/8)</f>
         <v>26</v>
       </c>
-      <c r="AL11" s="240">
+      <c r="AL11" s="252">
         <f t="shared" ref="AL11" si="3">SUM(F12:AJ12)/8*1.5</f>
         <v>0</v>
       </c>
-      <c r="AM11" s="242">
+      <c r="AM11" s="248">
         <f>SUMIF($F$6:$AJ$6,"C.Nhật",$F11:$AJ12)/8*2</f>
         <v>0</v>
       </c>
-      <c r="AN11" s="244">
+      <c r="AN11" s="240">
         <f>SUM(AK11:AM12)</f>
         <v>26</v>
       </c>
-      <c r="AO11" s="246">
+      <c r="AO11" s="250">
         <v>0</v>
       </c>
-      <c r="AP11" s="244"/>
-      <c r="AQ11" s="244"/>
-      <c r="AR11" s="244"/>
-      <c r="AS11" s="255"/>
+      <c r="AP11" s="240"/>
+      <c r="AQ11" s="240"/>
+      <c r="AR11" s="240"/>
+      <c r="AS11" s="242"/>
       <c r="AT11" s="225"/>
       <c r="AU11" s="2"/>
       <c r="AV11" s="2"/>
@@ -8582,10 +8431,10 @@
       <c r="CL11" s="2"/>
     </row>
     <row r="12" spans="1:91" s="56" customFormat="1" ht="18" customHeight="1">
-      <c r="A12" s="249"/>
-      <c r="B12" s="249"/>
-      <c r="C12" s="251"/>
-      <c r="D12" s="253"/>
+      <c r="A12" s="245"/>
+      <c r="B12" s="245"/>
+      <c r="C12" s="247"/>
+      <c r="D12" s="255"/>
       <c r="E12" s="58" t="s">
         <v>28</v>
       </c>
@@ -8620,15 +8469,15 @@
       <c r="AH12" s="132"/>
       <c r="AI12" s="132"/>
       <c r="AJ12" s="132"/>
-      <c r="AK12" s="241"/>
-      <c r="AL12" s="241"/>
-      <c r="AM12" s="243"/>
-      <c r="AN12" s="245"/>
-      <c r="AO12" s="247"/>
-      <c r="AP12" s="245"/>
-      <c r="AQ12" s="245"/>
-      <c r="AR12" s="245"/>
-      <c r="AS12" s="256"/>
+      <c r="AK12" s="253"/>
+      <c r="AL12" s="253"/>
+      <c r="AM12" s="249"/>
+      <c r="AN12" s="241"/>
+      <c r="AO12" s="251"/>
+      <c r="AP12" s="241"/>
+      <c r="AQ12" s="241"/>
+      <c r="AR12" s="241"/>
+      <c r="AS12" s="243"/>
       <c r="AT12" s="225"/>
       <c r="AU12" s="2"/>
       <c r="AV12" s="2"/>
@@ -8728,17 +8577,17 @@
       <c r="AT13" s="163"/>
     </row>
     <row r="14" spans="1:91" s="56" customFormat="1" ht="18" customHeight="1">
-      <c r="A14" s="248">
+      <c r="A14" s="244">
         <v>1</v>
       </c>
-      <c r="B14" s="248" t="s">
+      <c r="B14" s="244" t="s">
         <v>74</v>
       </c>
-      <c r="C14" s="250" t="str">
+      <c r="C14" s="246" t="str">
         <f>VLOOKUP(B14,DS,2,0)</f>
         <v>Thạch Huy Chạch</v>
       </c>
-      <c r="D14" s="252" t="str">
+      <c r="D14" s="254" t="str">
         <f>VLOOKUP(B14,DS,3,0)</f>
         <v>Công nhân</v>
       </c>
@@ -8828,29 +8677,29 @@
       <c r="AJ14" s="131">
         <v>8</v>
       </c>
-      <c r="AK14" s="240">
+      <c r="AK14" s="252">
         <f t="shared" ref="AK14" si="4">((SUM(F14:AJ14))/8)-(SUMIF($F$6:$AJ$6,"C.Nhật",F14:AJ14)/8)</f>
         <v>26</v>
       </c>
-      <c r="AL14" s="240">
+      <c r="AL14" s="252">
         <f t="shared" ref="AL14" si="5">SUM(F15:AJ15)/8*1.5</f>
         <v>0</v>
       </c>
-      <c r="AM14" s="242">
+      <c r="AM14" s="248">
         <f>SUMIF($F$6:$AJ$6,"C.Nhật",$F14:$AJ15)/8*2</f>
         <v>0</v>
       </c>
-      <c r="AN14" s="244">
+      <c r="AN14" s="240">
         <f>SUM(AK14:AM15)</f>
         <v>26</v>
       </c>
-      <c r="AO14" s="246">
+      <c r="AO14" s="250">
         <v>0</v>
       </c>
-      <c r="AP14" s="244"/>
-      <c r="AQ14" s="244"/>
-      <c r="AR14" s="244"/>
-      <c r="AS14" s="255"/>
+      <c r="AP14" s="240"/>
+      <c r="AQ14" s="240"/>
+      <c r="AR14" s="240"/>
+      <c r="AS14" s="242"/>
       <c r="AT14" s="223"/>
       <c r="AU14" s="2"/>
       <c r="AV14" s="2"/>
@@ -8898,10 +8747,10 @@
       <c r="CL14" s="2"/>
     </row>
     <row r="15" spans="1:91" s="56" customFormat="1" ht="18" customHeight="1">
-      <c r="A15" s="249"/>
-      <c r="B15" s="249"/>
-      <c r="C15" s="251"/>
-      <c r="D15" s="253"/>
+      <c r="A15" s="245"/>
+      <c r="B15" s="245"/>
+      <c r="C15" s="247"/>
+      <c r="D15" s="255"/>
       <c r="E15" s="58" t="s">
         <v>28</v>
       </c>
@@ -8936,15 +8785,15 @@
       <c r="AH15" s="132"/>
       <c r="AI15" s="132"/>
       <c r="AJ15" s="132"/>
-      <c r="AK15" s="241"/>
-      <c r="AL15" s="241"/>
-      <c r="AM15" s="243"/>
-      <c r="AN15" s="245"/>
-      <c r="AO15" s="247"/>
-      <c r="AP15" s="245"/>
-      <c r="AQ15" s="245"/>
-      <c r="AR15" s="245"/>
-      <c r="AS15" s="256"/>
+      <c r="AK15" s="253"/>
+      <c r="AL15" s="253"/>
+      <c r="AM15" s="249"/>
+      <c r="AN15" s="241"/>
+      <c r="AO15" s="251"/>
+      <c r="AP15" s="241"/>
+      <c r="AQ15" s="241"/>
+      <c r="AR15" s="241"/>
+      <c r="AS15" s="243"/>
       <c r="AT15" s="223"/>
       <c r="AU15" s="2"/>
       <c r="AV15" s="2"/>
@@ -9481,43 +9330,6 @@
     <protectedRange password="CC78" sqref="B9:B12" name="Range1_4_1"/>
   </protectedRanges>
   <mergeCells count="53">
-    <mergeCell ref="AL9:AL10"/>
-    <mergeCell ref="AK5:AM5"/>
-    <mergeCell ref="AK9:AK10"/>
-    <mergeCell ref="AT5:AT6"/>
-    <mergeCell ref="AO9:AO10"/>
-    <mergeCell ref="AP9:AP10"/>
-    <mergeCell ref="AQ9:AQ10"/>
-    <mergeCell ref="AR9:AR10"/>
-    <mergeCell ref="AS9:AS10"/>
-    <mergeCell ref="AS5:AS6"/>
-    <mergeCell ref="AR5:AR6"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="AM1:AS1"/>
-    <mergeCell ref="AM9:AM10"/>
-    <mergeCell ref="AO5:AO6"/>
-    <mergeCell ref="AP5:AP6"/>
-    <mergeCell ref="AN5:AN6"/>
-    <mergeCell ref="AQ5:AQ6"/>
-    <mergeCell ref="AN9:AN10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="AK11:AK12"/>
-    <mergeCell ref="AL11:AL12"/>
-    <mergeCell ref="AM11:AM12"/>
-    <mergeCell ref="AN11:AN12"/>
-    <mergeCell ref="AO11:AO12"/>
-    <mergeCell ref="AP11:AP12"/>
     <mergeCell ref="AQ11:AQ12"/>
     <mergeCell ref="AR11:AR12"/>
     <mergeCell ref="AS11:AS12"/>
@@ -9534,35 +9346,72 @@
     <mergeCell ref="AN14:AN15"/>
     <mergeCell ref="AO14:AO15"/>
     <mergeCell ref="AP14:AP15"/>
+    <mergeCell ref="AL11:AL12"/>
+    <mergeCell ref="AM11:AM12"/>
+    <mergeCell ref="AN11:AN12"/>
+    <mergeCell ref="AO11:AO12"/>
+    <mergeCell ref="AP11:AP12"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="AK11:AK12"/>
+    <mergeCell ref="AM1:AS1"/>
+    <mergeCell ref="AM9:AM10"/>
+    <mergeCell ref="AO5:AO6"/>
+    <mergeCell ref="AP5:AP6"/>
+    <mergeCell ref="AN5:AN6"/>
+    <mergeCell ref="AQ5:AQ6"/>
+    <mergeCell ref="AN9:AN10"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="AL9:AL10"/>
+    <mergeCell ref="AK5:AM5"/>
+    <mergeCell ref="AK9:AK10"/>
+    <mergeCell ref="AT5:AT6"/>
+    <mergeCell ref="AO9:AO10"/>
+    <mergeCell ref="AP9:AP10"/>
+    <mergeCell ref="AQ9:AQ10"/>
+    <mergeCell ref="AR9:AR10"/>
+    <mergeCell ref="AS9:AS10"/>
+    <mergeCell ref="AS5:AS6"/>
+    <mergeCell ref="AR5:AR6"/>
   </mergeCells>
   <phoneticPr fontId="47" type="noConversion"/>
   <conditionalFormatting sqref="F5:AJ6 F9:AJ10">
-    <cfRule type="expression" dxfId="65" priority="65" stopIfTrue="1">
+    <cfRule type="expression" dxfId="43" priority="65" stopIfTrue="1">
       <formula>IF(WEEKDAY(F$5)=1,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9:AJ10">
-    <cfRule type="expression" dxfId="64" priority="62" stopIfTrue="1">
+    <cfRule type="expression" dxfId="42" priority="62" stopIfTrue="1">
       <formula>IF(WEEKDAY(F$5)=1,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14:AJ15">
-    <cfRule type="expression" dxfId="63" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="41" priority="4" stopIfTrue="1">
       <formula>IF(WEEKDAY(F$5)=1,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14:AJ15">
-    <cfRule type="expression" dxfId="62" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="40" priority="3" stopIfTrue="1">
       <formula>IF(WEEKDAY(F$5)=1,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11:AJ12">
-    <cfRule type="expression" dxfId="61" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="39" priority="2" stopIfTrue="1">
       <formula>IF(WEEKDAY(F$5)=1,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11:AJ12">
-    <cfRule type="expression" dxfId="60" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="38" priority="1" stopIfTrue="1">
       <formula>IF(WEEKDAY(F$5)=1,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9625,26 +9474,26 @@
       <c r="A1" s="127"/>
       <c r="B1" s="40"/>
       <c r="C1" s="40"/>
-      <c r="D1" s="272" t="str">
+      <c r="D1" s="274" t="str">
         <f>"BẢNG THANH TOÁN LƯƠNG THÁNG"&amp;" "&amp;TEXT($E$4,"mm")&amp;" / "&amp;TEXT($E$4,"yyyy")</f>
         <v>BẢNG THANH TOÁN LƯƠNG THÁNG 05 / 2017</v>
       </c>
-      <c r="E1" s="272"/>
-      <c r="F1" s="272"/>
-      <c r="G1" s="272"/>
-      <c r="H1" s="272"/>
-      <c r="I1" s="272"/>
-      <c r="J1" s="272"/>
-      <c r="K1" s="272"/>
-      <c r="L1" s="272"/>
-      <c r="M1" s="272"/>
-      <c r="N1" s="272"/>
-      <c r="O1" s="273"/>
-      <c r="P1" s="274" t="s">
+      <c r="E1" s="274"/>
+      <c r="F1" s="274"/>
+      <c r="G1" s="274"/>
+      <c r="H1" s="274"/>
+      <c r="I1" s="274"/>
+      <c r="J1" s="274"/>
+      <c r="K1" s="274"/>
+      <c r="L1" s="274"/>
+      <c r="M1" s="274"/>
+      <c r="N1" s="274"/>
+      <c r="O1" s="275"/>
+      <c r="P1" s="276" t="s">
         <v>76</v>
       </c>
-      <c r="Q1" s="275"/>
-      <c r="R1" s="276"/>
+      <c r="Q1" s="277"/>
+      <c r="R1" s="278"/>
       <c r="S1" s="118" t="s">
         <v>49</v>
       </c>
@@ -9749,34 +9598,34 @@
       <c r="X4" s="94"/>
     </row>
     <row r="5" spans="1:29" s="22" customFormat="1" ht="24" customHeight="1">
-      <c r="A5" s="282" t="s">
+      <c r="A5" s="268" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="282" t="s">
+      <c r="B5" s="268" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="233" t="s">
+      <c r="C5" s="235" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="233" t="s">
+      <c r="D5" s="235" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="236" t="s">
+      <c r="E5" s="238" t="s">
         <v>48</v>
       </c>
-      <c r="F5" s="277" t="s">
+      <c r="F5" s="279" t="s">
         <v>23</v>
       </c>
-      <c r="G5" s="278"/>
-      <c r="H5" s="278"/>
-      <c r="I5" s="278"/>
-      <c r="J5" s="278"/>
-      <c r="K5" s="279"/>
-      <c r="L5" s="233" t="s">
+      <c r="G5" s="280"/>
+      <c r="H5" s="280"/>
+      <c r="I5" s="280"/>
+      <c r="J5" s="280"/>
+      <c r="K5" s="281"/>
+      <c r="L5" s="235" t="s">
         <v>5</v>
       </c>
-      <c r="M5" s="233"/>
-      <c r="N5" s="233"/>
+      <c r="M5" s="235"/>
+      <c r="N5" s="235"/>
       <c r="O5" s="270" t="s">
         <v>6</v>
       </c>
@@ -9786,7 +9635,7 @@
       <c r="Q5" s="270" t="s">
         <v>8</v>
       </c>
-      <c r="R5" s="234" t="s">
+      <c r="R5" s="236" t="s">
         <v>9</v>
       </c>
       <c r="S5" s="92"/>
@@ -9802,26 +9651,26 @@
       <c r="AC5" s="4"/>
     </row>
     <row r="6" spans="1:29" s="22" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A6" s="283"/>
-      <c r="B6" s="283"/>
-      <c r="C6" s="233"/>
-      <c r="D6" s="233"/>
-      <c r="E6" s="236"/>
-      <c r="F6" s="277" t="s">
+      <c r="A6" s="269"/>
+      <c r="B6" s="269"/>
+      <c r="C6" s="235"/>
+      <c r="D6" s="235"/>
+      <c r="E6" s="238"/>
+      <c r="F6" s="279" t="s">
         <v>50</v>
       </c>
-      <c r="G6" s="279"/>
-      <c r="H6" s="277" t="s">
+      <c r="G6" s="281"/>
+      <c r="H6" s="279" t="s">
         <v>69</v>
       </c>
-      <c r="I6" s="278"/>
-      <c r="J6" s="280" t="s">
+      <c r="I6" s="280"/>
+      <c r="J6" s="282" t="s">
         <v>24</v>
       </c>
       <c r="K6" s="270" t="s">
         <v>4</v>
       </c>
-      <c r="L6" s="268" t="s">
+      <c r="L6" s="271" t="s">
         <v>11</v>
       </c>
       <c r="M6" s="270" t="s">
@@ -9830,10 +9679,10 @@
       <c r="N6" s="270" t="s">
         <v>30</v>
       </c>
-      <c r="O6" s="271"/>
-      <c r="P6" s="271"/>
-      <c r="Q6" s="271"/>
-      <c r="R6" s="235"/>
+      <c r="O6" s="273"/>
+      <c r="P6" s="273"/>
+      <c r="Q6" s="273"/>
+      <c r="R6" s="237"/>
       <c r="S6" s="92"/>
       <c r="T6" s="23"/>
       <c r="U6" s="23"/>
@@ -9847,11 +9696,11 @@
       <c r="AC6" s="4"/>
     </row>
     <row r="7" spans="1:29" s="22" customFormat="1" ht="35.25" customHeight="1">
-      <c r="A7" s="283"/>
-      <c r="B7" s="283"/>
+      <c r="A7" s="269"/>
+      <c r="B7" s="269"/>
       <c r="C7" s="270"/>
       <c r="D7" s="270"/>
-      <c r="E7" s="236"/>
+      <c r="E7" s="238"/>
       <c r="F7" s="28" t="s">
         <v>33</v>
       </c>
@@ -9864,15 +9713,15 @@
       <c r="I7" s="116" t="s">
         <v>17</v>
       </c>
-      <c r="J7" s="281"/>
-      <c r="K7" s="271"/>
-      <c r="L7" s="269"/>
-      <c r="M7" s="271"/>
-      <c r="N7" s="271"/>
-      <c r="O7" s="271"/>
-      <c r="P7" s="271"/>
-      <c r="Q7" s="271"/>
-      <c r="R7" s="235"/>
+      <c r="J7" s="283"/>
+      <c r="K7" s="273"/>
+      <c r="L7" s="272"/>
+      <c r="M7" s="273"/>
+      <c r="N7" s="273"/>
+      <c r="O7" s="273"/>
+      <c r="P7" s="273"/>
+      <c r="Q7" s="273"/>
+      <c r="R7" s="237"/>
       <c r="S7" s="92"/>
       <c r="T7" s="23"/>
       <c r="U7" s="23"/>
@@ -10565,6 +10414,16 @@
   </protectedRanges>
   <autoFilter ref="A7:AC10"/>
   <mergeCells count="20">
+    <mergeCell ref="Q5:Q7"/>
+    <mergeCell ref="P1:R1"/>
+    <mergeCell ref="O5:O7"/>
+    <mergeCell ref="L5:N5"/>
+    <mergeCell ref="P5:P7"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="R5:R7"/>
+    <mergeCell ref="D1:O1"/>
     <mergeCell ref="A5:A7"/>
     <mergeCell ref="B5:B7"/>
     <mergeCell ref="F6:G6"/>
@@ -10575,21 +10434,11 @@
     <mergeCell ref="J6:J7"/>
     <mergeCell ref="H6:I6"/>
     <mergeCell ref="E5:E7"/>
-    <mergeCell ref="Q5:Q7"/>
-    <mergeCell ref="P1:R1"/>
-    <mergeCell ref="O5:O7"/>
-    <mergeCell ref="L5:N5"/>
-    <mergeCell ref="P5:P7"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="N6:N7"/>
-    <mergeCell ref="R5:R7"/>
-    <mergeCell ref="D1:O1"/>
   </mergeCells>
   <phoneticPr fontId="47" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0.24" top="0.2" bottom="0.32" header="0.2" footer="0.2"/>
-  <pageSetup paperSize="9" scale="70" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="80" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddFooter>&amp;C&amp;P/&amp;N</oddFooter>
   </headerFooter>
@@ -10675,15 +10524,15 @@
       <c r="AJ1" s="107"/>
       <c r="AK1" s="44"/>
       <c r="AL1" s="44"/>
-      <c r="AM1" s="260" t="s">
+      <c r="AM1" s="256" t="s">
         <v>76</v>
       </c>
-      <c r="AN1" s="261"/>
-      <c r="AO1" s="261"/>
-      <c r="AP1" s="261"/>
-      <c r="AQ1" s="261"/>
-      <c r="AR1" s="261"/>
-      <c r="AS1" s="262"/>
+      <c r="AN1" s="257"/>
+      <c r="AO1" s="257"/>
+      <c r="AP1" s="257"/>
+      <c r="AQ1" s="257"/>
+      <c r="AR1" s="257"/>
+      <c r="AS1" s="258"/>
       <c r="AT1" s="46"/>
     </row>
     <row r="2" spans="1:91" ht="20.25">
@@ -10833,19 +10682,19 @@
       <c r="AT4" s="90"/>
     </row>
     <row r="5" spans="1:91" s="56" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A5" s="257" t="s">
+      <c r="A5" s="266" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="257" t="s">
+      <c r="B5" s="266" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="257" t="s">
+      <c r="C5" s="266" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="259" t="s">
+      <c r="D5" s="264" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="257" t="s">
+      <c r="E5" s="266" t="s">
         <v>27</v>
       </c>
       <c r="F5" s="106">
@@ -10972,30 +10821,30 @@
         <f t="shared" si="0"/>
         <v>42917</v>
       </c>
-      <c r="AK5" s="263" t="s">
+      <c r="AK5" s="259" t="s">
         <v>14</v>
       </c>
-      <c r="AL5" s="264"/>
-      <c r="AM5" s="265"/>
-      <c r="AN5" s="266" t="s">
+      <c r="AL5" s="260"/>
+      <c r="AM5" s="261"/>
+      <c r="AN5" s="262" t="s">
         <v>38</v>
       </c>
-      <c r="AO5" s="266" t="s">
+      <c r="AO5" s="262" t="s">
         <v>34</v>
       </c>
-      <c r="AP5" s="266" t="s">
+      <c r="AP5" s="262" t="s">
         <v>35</v>
       </c>
-      <c r="AQ5" s="266" t="s">
+      <c r="AQ5" s="262" t="s">
         <v>36</v>
       </c>
-      <c r="AR5" s="266" t="s">
+      <c r="AR5" s="262" t="s">
         <v>37</v>
       </c>
-      <c r="AS5" s="259" t="s">
+      <c r="AS5" s="264" t="s">
         <v>0</v>
       </c>
-      <c r="AT5" s="254"/>
+      <c r="AT5" s="267"/>
       <c r="AV5" s="2"/>
       <c r="AW5" s="2"/>
       <c r="AX5" s="2"/>
@@ -11042,11 +10891,11 @@
       <c r="CM5" s="2"/>
     </row>
     <row r="6" spans="1:91" s="56" customFormat="1" ht="39.75" customHeight="1">
-      <c r="A6" s="258"/>
-      <c r="B6" s="258"/>
-      <c r="C6" s="258"/>
-      <c r="D6" s="258"/>
-      <c r="E6" s="258"/>
+      <c r="A6" s="265"/>
+      <c r="B6" s="265"/>
+      <c r="C6" s="265"/>
+      <c r="D6" s="265"/>
+      <c r="E6" s="265"/>
       <c r="F6" s="158" t="str">
         <f>CHOOSE(WEEKDAY(F5),"C.Nhật","T.Hai","T.Ba","T.Tư","T.Năm","T.Sáu","T.Bảy")</f>
         <v>T.Năm</v>
@@ -11180,13 +11029,13 @@
       <c r="AM6" s="160" t="s">
         <v>16</v>
       </c>
-      <c r="AN6" s="267"/>
-      <c r="AO6" s="267"/>
-      <c r="AP6" s="267"/>
-      <c r="AQ6" s="267"/>
-      <c r="AR6" s="267"/>
-      <c r="AS6" s="258"/>
-      <c r="AT6" s="254"/>
+      <c r="AN6" s="263"/>
+      <c r="AO6" s="263"/>
+      <c r="AP6" s="263"/>
+      <c r="AQ6" s="263"/>
+      <c r="AR6" s="263"/>
+      <c r="AS6" s="265"/>
+      <c r="AT6" s="267"/>
       <c r="AV6" s="2"/>
       <c r="AW6" s="2"/>
       <c r="AX6" s="2"/>
@@ -11467,17 +11316,17 @@
       <c r="AT8" s="163"/>
     </row>
     <row r="9" spans="1:91" s="56" customFormat="1" ht="18" customHeight="1">
-      <c r="A9" s="248">
+      <c r="A9" s="244">
         <v>1</v>
       </c>
-      <c r="B9" s="248" t="s">
+      <c r="B9" s="244" t="s">
         <v>73</v>
       </c>
-      <c r="C9" s="250" t="str">
+      <c r="C9" s="246" t="str">
         <f>VLOOKUP(B9,DS,2,0)</f>
         <v>Mai Thị Hường</v>
       </c>
-      <c r="D9" s="252" t="str">
+      <c r="D9" s="254" t="str">
         <f>VLOOKUP(B9,DS,3,0)</f>
         <v>Kế Toán</v>
       </c>
@@ -11567,29 +11416,29 @@
         <v>8</v>
       </c>
       <c r="AJ9" s="131"/>
-      <c r="AK9" s="240">
+      <c r="AK9" s="252">
         <f>((SUM(F9:AJ9))/8)-(SUMIF($F$6:$AJ$6,"C.Nhật",F9:AJ9)/8)</f>
         <v>26</v>
       </c>
-      <c r="AL9" s="240">
+      <c r="AL9" s="252">
         <f>SUM(F10:AJ10)/8*1.5</f>
         <v>0</v>
       </c>
-      <c r="AM9" s="242">
+      <c r="AM9" s="248">
         <f>SUMIF($F$6:$AJ$6,"C.Nhật",$F9:$AJ10)/8*2</f>
         <v>0</v>
       </c>
-      <c r="AN9" s="244">
+      <c r="AN9" s="240">
         <f>SUM(AK9:AM10)</f>
         <v>26</v>
       </c>
-      <c r="AO9" s="246">
+      <c r="AO9" s="250">
         <v>0</v>
       </c>
-      <c r="AP9" s="244"/>
-      <c r="AQ9" s="244"/>
-      <c r="AR9" s="244"/>
-      <c r="AS9" s="255"/>
+      <c r="AP9" s="240"/>
+      <c r="AQ9" s="240"/>
+      <c r="AR9" s="240"/>
+      <c r="AS9" s="242"/>
       <c r="AT9" s="176"/>
       <c r="AV9" s="2"/>
       <c r="AW9" s="2"/>
@@ -11637,10 +11486,10 @@
       <c r="CM9" s="2"/>
     </row>
     <row r="10" spans="1:91" s="56" customFormat="1" ht="18" customHeight="1">
-      <c r="A10" s="249"/>
-      <c r="B10" s="249"/>
-      <c r="C10" s="251"/>
-      <c r="D10" s="253"/>
+      <c r="A10" s="245"/>
+      <c r="B10" s="245"/>
+      <c r="C10" s="247"/>
+      <c r="D10" s="255"/>
       <c r="E10" s="58" t="s">
         <v>28</v>
       </c>
@@ -11675,15 +11524,15 @@
       <c r="AH10" s="132"/>
       <c r="AI10" s="132"/>
       <c r="AJ10" s="132"/>
-      <c r="AK10" s="241"/>
-      <c r="AL10" s="241"/>
-      <c r="AM10" s="243"/>
-      <c r="AN10" s="245"/>
-      <c r="AO10" s="247"/>
-      <c r="AP10" s="245"/>
-      <c r="AQ10" s="245"/>
-      <c r="AR10" s="245"/>
-      <c r="AS10" s="256"/>
+      <c r="AK10" s="253"/>
+      <c r="AL10" s="253"/>
+      <c r="AM10" s="249"/>
+      <c r="AN10" s="241"/>
+      <c r="AO10" s="251"/>
+      <c r="AP10" s="241"/>
+      <c r="AQ10" s="241"/>
+      <c r="AR10" s="241"/>
+      <c r="AS10" s="243"/>
       <c r="AT10" s="176"/>
       <c r="AV10" s="2"/>
       <c r="AW10" s="2"/>
@@ -11731,17 +11580,17 @@
       <c r="CM10" s="2"/>
     </row>
     <row r="11" spans="1:91" s="56" customFormat="1" ht="18" customHeight="1">
-      <c r="A11" s="248">
+      <c r="A11" s="244">
         <v>2</v>
       </c>
-      <c r="B11" s="248" t="s">
+      <c r="B11" s="244" t="s">
         <v>113</v>
       </c>
-      <c r="C11" s="250" t="str">
+      <c r="C11" s="246" t="str">
         <f>VLOOKUP(B11,DS,2,0)</f>
         <v>Võ Ngọc Thúy Hằng</v>
       </c>
-      <c r="D11" s="252" t="str">
+      <c r="D11" s="254" t="str">
         <f>VLOOKUP(B11,DS,3,0)</f>
         <v>Văn Phòng</v>
       </c>
@@ -11831,29 +11680,29 @@
         <v>8</v>
       </c>
       <c r="AJ11" s="131"/>
-      <c r="AK11" s="240">
+      <c r="AK11" s="252">
         <f>((SUM(F11:AJ11))/8)-(SUMIF($F$6:$AJ$6,"C.Nhật",F11:AJ11)/8)</f>
         <v>26</v>
       </c>
-      <c r="AL11" s="240">
+      <c r="AL11" s="252">
         <f>SUM(F12:AJ12)/8*1.5</f>
         <v>0</v>
       </c>
-      <c r="AM11" s="242">
+      <c r="AM11" s="248">
         <f>SUMIF($F$6:$AJ$6,"C.Nhật",$F11:$AJ12)/8*2</f>
         <v>0</v>
       </c>
-      <c r="AN11" s="244">
+      <c r="AN11" s="240">
         <f>SUM(AK11:AM12)</f>
         <v>26</v>
       </c>
-      <c r="AO11" s="246">
+      <c r="AO11" s="250">
         <v>0</v>
       </c>
-      <c r="AP11" s="244"/>
-      <c r="AQ11" s="244"/>
-      <c r="AR11" s="244"/>
-      <c r="AS11" s="255"/>
+      <c r="AP11" s="240"/>
+      <c r="AQ11" s="240"/>
+      <c r="AR11" s="240"/>
+      <c r="AS11" s="242"/>
       <c r="AT11" s="213"/>
       <c r="AV11" s="2"/>
       <c r="AW11" s="2"/>
@@ -11901,10 +11750,10 @@
       <c r="CM11" s="2"/>
     </row>
     <row r="12" spans="1:91" s="56" customFormat="1" ht="18" customHeight="1">
-      <c r="A12" s="249"/>
-      <c r="B12" s="249"/>
-      <c r="C12" s="251"/>
-      <c r="D12" s="253"/>
+      <c r="A12" s="245"/>
+      <c r="B12" s="245"/>
+      <c r="C12" s="247"/>
+      <c r="D12" s="255"/>
       <c r="E12" s="58" t="s">
         <v>28</v>
       </c>
@@ -11939,15 +11788,15 @@
       <c r="AH12" s="132"/>
       <c r="AI12" s="132"/>
       <c r="AJ12" s="132"/>
-      <c r="AK12" s="241"/>
-      <c r="AL12" s="241"/>
-      <c r="AM12" s="243"/>
-      <c r="AN12" s="245"/>
-      <c r="AO12" s="247"/>
-      <c r="AP12" s="245"/>
-      <c r="AQ12" s="245"/>
-      <c r="AR12" s="245"/>
-      <c r="AS12" s="256"/>
+      <c r="AK12" s="253"/>
+      <c r="AL12" s="253"/>
+      <c r="AM12" s="249"/>
+      <c r="AN12" s="241"/>
+      <c r="AO12" s="251"/>
+      <c r="AP12" s="241"/>
+      <c r="AQ12" s="241"/>
+      <c r="AR12" s="241"/>
+      <c r="AS12" s="243"/>
       <c r="AT12" s="213"/>
       <c r="AV12" s="2"/>
       <c r="AW12" s="2"/>
@@ -12047,17 +11896,17 @@
       <c r="AT13" s="163"/>
     </row>
     <row r="14" spans="1:91" s="56" customFormat="1" ht="18" customHeight="1">
-      <c r="A14" s="248">
+      <c r="A14" s="244">
         <v>1</v>
       </c>
-      <c r="B14" s="248" t="s">
+      <c r="B14" s="244" t="s">
         <v>74</v>
       </c>
-      <c r="C14" s="250" t="str">
+      <c r="C14" s="246" t="str">
         <f>VLOOKUP(B14,DS,2,0)</f>
         <v>Thạch Huy Chạch</v>
       </c>
-      <c r="D14" s="252" t="str">
+      <c r="D14" s="254" t="str">
         <f>VLOOKUP(B14,DS,3,0)</f>
         <v>Công nhân</v>
       </c>
@@ -12147,29 +11996,29 @@
         <v>8</v>
       </c>
       <c r="AJ14" s="131"/>
-      <c r="AK14" s="240">
+      <c r="AK14" s="252">
         <f t="shared" ref="AK14" si="2">((SUM(F14:AJ14))/8)-(SUMIF($F$6:$AJ$6,"C.Nhật",F14:AJ14)/8)</f>
         <v>26</v>
       </c>
-      <c r="AL14" s="240">
+      <c r="AL14" s="252">
         <f t="shared" ref="AL14" si="3">SUM(F15:AJ15)/8*1.5</f>
         <v>0</v>
       </c>
-      <c r="AM14" s="242">
+      <c r="AM14" s="248">
         <f>SUMIF($F$6:$AJ$6,"C.Nhật",$F14:$AJ15)/8*2</f>
         <v>0</v>
       </c>
-      <c r="AN14" s="244">
+      <c r="AN14" s="240">
         <f>SUM(AK14:AM15)</f>
         <v>26</v>
       </c>
-      <c r="AO14" s="246">
+      <c r="AO14" s="250">
         <v>0</v>
       </c>
-      <c r="AP14" s="244"/>
-      <c r="AQ14" s="244"/>
-      <c r="AR14" s="244"/>
-      <c r="AS14" s="255"/>
+      <c r="AP14" s="240"/>
+      <c r="AQ14" s="240"/>
+      <c r="AR14" s="240"/>
+      <c r="AS14" s="242"/>
       <c r="AT14" s="202"/>
       <c r="AU14" s="2"/>
       <c r="AV14" s="2"/>
@@ -12217,10 +12066,10 @@
       <c r="CL14" s="2"/>
     </row>
     <row r="15" spans="1:91" s="56" customFormat="1" ht="18" customHeight="1">
-      <c r="A15" s="249"/>
-      <c r="B15" s="249"/>
-      <c r="C15" s="251"/>
-      <c r="D15" s="253"/>
+      <c r="A15" s="245"/>
+      <c r="B15" s="245"/>
+      <c r="C15" s="247"/>
+      <c r="D15" s="255"/>
       <c r="E15" s="58" t="s">
         <v>28</v>
       </c>
@@ -12255,15 +12104,15 @@
       <c r="AH15" s="132"/>
       <c r="AI15" s="132"/>
       <c r="AJ15" s="132"/>
-      <c r="AK15" s="241"/>
-      <c r="AL15" s="241"/>
-      <c r="AM15" s="243"/>
-      <c r="AN15" s="245"/>
-      <c r="AO15" s="247"/>
-      <c r="AP15" s="245"/>
-      <c r="AQ15" s="245"/>
-      <c r="AR15" s="245"/>
-      <c r="AS15" s="256"/>
+      <c r="AK15" s="253"/>
+      <c r="AL15" s="253"/>
+      <c r="AM15" s="249"/>
+      <c r="AN15" s="241"/>
+      <c r="AO15" s="251"/>
+      <c r="AP15" s="241"/>
+      <c r="AQ15" s="241"/>
+      <c r="AR15" s="241"/>
+      <c r="AS15" s="243"/>
       <c r="AT15" s="202"/>
       <c r="AU15" s="2"/>
       <c r="AV15" s="2"/>
@@ -12800,6 +12649,45 @@
     <protectedRange password="CC78" sqref="B14:B15" name="Range1_4_2_1"/>
   </protectedRanges>
   <mergeCells count="53">
+    <mergeCell ref="AQ11:AQ12"/>
+    <mergeCell ref="AR11:AR12"/>
+    <mergeCell ref="AS11:AS12"/>
+    <mergeCell ref="AL11:AL12"/>
+    <mergeCell ref="AM11:AM12"/>
+    <mergeCell ref="AN11:AN12"/>
+    <mergeCell ref="AO11:AO12"/>
+    <mergeCell ref="AP11:AP12"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="AK11:AK12"/>
+    <mergeCell ref="AM14:AM15"/>
+    <mergeCell ref="AN14:AN15"/>
+    <mergeCell ref="AO14:AO15"/>
+    <mergeCell ref="AP14:AP15"/>
+    <mergeCell ref="AS14:AS15"/>
+    <mergeCell ref="AQ14:AQ15"/>
+    <mergeCell ref="AR14:AR15"/>
+    <mergeCell ref="AL14:AL15"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="AK14:AK15"/>
+    <mergeCell ref="AM1:AS1"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="AK5:AM5"/>
+    <mergeCell ref="AN5:AN6"/>
+    <mergeCell ref="AO5:AO6"/>
+    <mergeCell ref="AP5:AP6"/>
+    <mergeCell ref="AQ5:AQ6"/>
+    <mergeCell ref="AR5:AR6"/>
+    <mergeCell ref="AS5:AS6"/>
     <mergeCell ref="AT5:AT6"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="B9:B10"/>
@@ -12814,108 +12702,69 @@
     <mergeCell ref="AM9:AM10"/>
     <mergeCell ref="AN9:AN10"/>
     <mergeCell ref="AO9:AO10"/>
-    <mergeCell ref="AM1:AS1"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="AK5:AM5"/>
-    <mergeCell ref="AN5:AN6"/>
-    <mergeCell ref="AO5:AO6"/>
-    <mergeCell ref="AP5:AP6"/>
-    <mergeCell ref="AQ5:AQ6"/>
-    <mergeCell ref="AR5:AR6"/>
-    <mergeCell ref="AS5:AS6"/>
-    <mergeCell ref="AL14:AL15"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="AK14:AK15"/>
-    <mergeCell ref="AM14:AM15"/>
-    <mergeCell ref="AN14:AN15"/>
-    <mergeCell ref="AO14:AO15"/>
-    <mergeCell ref="AP14:AP15"/>
-    <mergeCell ref="AS14:AS15"/>
-    <mergeCell ref="AQ14:AQ15"/>
-    <mergeCell ref="AR14:AR15"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="AK11:AK12"/>
-    <mergeCell ref="AQ11:AQ12"/>
-    <mergeCell ref="AR11:AR12"/>
-    <mergeCell ref="AS11:AS12"/>
-    <mergeCell ref="AL11:AL12"/>
-    <mergeCell ref="AM11:AM12"/>
-    <mergeCell ref="AN11:AN12"/>
-    <mergeCell ref="AO11:AO12"/>
-    <mergeCell ref="AP11:AP12"/>
   </mergeCells>
   <conditionalFormatting sqref="F5:AJ6 F9:AJ10">
-    <cfRule type="expression" dxfId="59" priority="70" stopIfTrue="1">
+    <cfRule type="expression" dxfId="37" priority="70" stopIfTrue="1">
       <formula>IF(WEEKDAY(F$5)=1,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9:AJ10">
-    <cfRule type="expression" dxfId="58" priority="69" stopIfTrue="1">
+    <cfRule type="expression" dxfId="36" priority="69" stopIfTrue="1">
       <formula>IF(WEEKDAY(F$5)=1,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ14:AJ15">
-    <cfRule type="expression" dxfId="57" priority="58" stopIfTrue="1">
+    <cfRule type="expression" dxfId="35" priority="58" stopIfTrue="1">
       <formula>IF(WEEKDAY(AJ$5)=1,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ14:AJ15">
-    <cfRule type="expression" dxfId="56" priority="57" stopIfTrue="1">
+    <cfRule type="expression" dxfId="34" priority="57" stopIfTrue="1">
       <formula>IF(WEEKDAY(AJ$5)=1,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ14:AJ15">
-    <cfRule type="expression" dxfId="55" priority="56" stopIfTrue="1">
+    <cfRule type="expression" dxfId="33" priority="56" stopIfTrue="1">
       <formula>IF(WEEKDAY(AJ$5)=1,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ14:AJ15">
-    <cfRule type="expression" dxfId="54" priority="54" stopIfTrue="1">
+    <cfRule type="expression" dxfId="32" priority="54" stopIfTrue="1">
       <formula>IF(WEEKDAY(AJ$5)=1,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ14:AJ15">
-    <cfRule type="expression" dxfId="53" priority="52" stopIfTrue="1">
+    <cfRule type="expression" dxfId="31" priority="52" stopIfTrue="1">
       <formula>IF(WEEKDAY(AJ$5)=1,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ14:AJ15">
-    <cfRule type="expression" dxfId="52" priority="51" stopIfTrue="1">
+    <cfRule type="expression" dxfId="30" priority="51" stopIfTrue="1">
       <formula>IF(WEEKDAY(AJ$5)=1,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ14:AJ15">
-    <cfRule type="expression" dxfId="51" priority="50" stopIfTrue="1">
+    <cfRule type="expression" dxfId="29" priority="50" stopIfTrue="1">
       <formula>IF(WEEKDAY(AJ$5)=1,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14:AI15">
-    <cfRule type="expression" dxfId="50" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="28" priority="17" stopIfTrue="1">
       <formula>IF(WEEKDAY(F$5)=1,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14:AI15">
-    <cfRule type="expression" dxfId="49" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="27" priority="16" stopIfTrue="1">
       <formula>IF(WEEKDAY(F$5)=1,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11:AJ12">
-    <cfRule type="expression" dxfId="48" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="26" priority="2" stopIfTrue="1">
       <formula>IF(WEEKDAY(F$5)=1,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11:AJ12">
-    <cfRule type="expression" dxfId="47" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="25" priority="1" stopIfTrue="1">
       <formula>IF(WEEKDAY(F$5)=1,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12942,7 +12791,7 @@
       <selection activeCell="AM1" sqref="AM1:AS1"/>
       <selection pane="topRight" activeCell="AM1" sqref="AM1:AS1"/>
       <selection pane="bottomLeft" activeCell="AM1" sqref="AM1:AS1"/>
-      <selection pane="bottomRight" activeCell="Q17" activeCellId="1" sqref="Q13 Q17"/>
+      <selection pane="bottomRight" activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -12978,26 +12827,26 @@
       <c r="A1" s="127"/>
       <c r="B1" s="177"/>
       <c r="C1" s="177"/>
-      <c r="D1" s="272" t="str">
+      <c r="D1" s="274" t="str">
         <f>"BẢNG THANH TOÁN LƯƠNG THÁNG"&amp;" "&amp;TEXT($E$4,"mm")&amp;" / "&amp;TEXT($E$4,"yyyy")</f>
         <v>BẢNG THANH TOÁN LƯƠNG THÁNG 06 / 2017</v>
       </c>
-      <c r="E1" s="272"/>
-      <c r="F1" s="272"/>
-      <c r="G1" s="272"/>
-      <c r="H1" s="272"/>
-      <c r="I1" s="272"/>
-      <c r="J1" s="272"/>
-      <c r="K1" s="272"/>
-      <c r="L1" s="272"/>
-      <c r="M1" s="272"/>
-      <c r="N1" s="272"/>
-      <c r="O1" s="273"/>
-      <c r="P1" s="274" t="s">
+      <c r="E1" s="274"/>
+      <c r="F1" s="274"/>
+      <c r="G1" s="274"/>
+      <c r="H1" s="274"/>
+      <c r="I1" s="274"/>
+      <c r="J1" s="274"/>
+      <c r="K1" s="274"/>
+      <c r="L1" s="274"/>
+      <c r="M1" s="274"/>
+      <c r="N1" s="274"/>
+      <c r="O1" s="275"/>
+      <c r="P1" s="276" t="s">
         <v>76</v>
       </c>
-      <c r="Q1" s="275"/>
-      <c r="R1" s="276"/>
+      <c r="Q1" s="277"/>
+      <c r="R1" s="278"/>
       <c r="S1" s="118" t="s">
         <v>49</v>
       </c>
@@ -13102,34 +12951,34 @@
       <c r="X4" s="94"/>
     </row>
     <row r="5" spans="1:29" s="22" customFormat="1" ht="24" customHeight="1">
-      <c r="A5" s="282" t="s">
+      <c r="A5" s="268" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="282" t="s">
+      <c r="B5" s="268" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="233" t="s">
+      <c r="C5" s="235" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="233" t="s">
+      <c r="D5" s="235" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="236" t="s">
+      <c r="E5" s="238" t="s">
         <v>48</v>
       </c>
-      <c r="F5" s="277" t="s">
+      <c r="F5" s="279" t="s">
         <v>23</v>
       </c>
-      <c r="G5" s="278"/>
-      <c r="H5" s="278"/>
-      <c r="I5" s="278"/>
-      <c r="J5" s="278"/>
-      <c r="K5" s="279"/>
-      <c r="L5" s="233" t="s">
+      <c r="G5" s="280"/>
+      <c r="H5" s="280"/>
+      <c r="I5" s="280"/>
+      <c r="J5" s="280"/>
+      <c r="K5" s="281"/>
+      <c r="L5" s="235" t="s">
         <v>5</v>
       </c>
-      <c r="M5" s="233"/>
-      <c r="N5" s="233"/>
+      <c r="M5" s="235"/>
+      <c r="N5" s="235"/>
       <c r="O5" s="270" t="s">
         <v>6</v>
       </c>
@@ -13139,7 +12988,7 @@
       <c r="Q5" s="270" t="s">
         <v>8</v>
       </c>
-      <c r="R5" s="234" t="s">
+      <c r="R5" s="236" t="s">
         <v>9</v>
       </c>
       <c r="S5" s="92"/>
@@ -13155,26 +13004,26 @@
       <c r="AC5" s="4"/>
     </row>
     <row r="6" spans="1:29" s="22" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A6" s="283"/>
-      <c r="B6" s="283"/>
-      <c r="C6" s="233"/>
-      <c r="D6" s="233"/>
-      <c r="E6" s="236"/>
-      <c r="F6" s="277" t="s">
+      <c r="A6" s="269"/>
+      <c r="B6" s="269"/>
+      <c r="C6" s="235"/>
+      <c r="D6" s="235"/>
+      <c r="E6" s="238"/>
+      <c r="F6" s="279" t="s">
         <v>50</v>
       </c>
-      <c r="G6" s="279"/>
-      <c r="H6" s="277" t="s">
+      <c r="G6" s="281"/>
+      <c r="H6" s="279" t="s">
         <v>69</v>
       </c>
-      <c r="I6" s="278"/>
-      <c r="J6" s="280" t="s">
+      <c r="I6" s="280"/>
+      <c r="J6" s="282" t="s">
         <v>24</v>
       </c>
       <c r="K6" s="270" t="s">
         <v>4</v>
       </c>
-      <c r="L6" s="268" t="s">
+      <c r="L6" s="271" t="s">
         <v>11</v>
       </c>
       <c r="M6" s="270" t="s">
@@ -13183,10 +13032,10 @@
       <c r="N6" s="270" t="s">
         <v>30</v>
       </c>
-      <c r="O6" s="271"/>
-      <c r="P6" s="271"/>
-      <c r="Q6" s="271"/>
-      <c r="R6" s="235"/>
+      <c r="O6" s="273"/>
+      <c r="P6" s="273"/>
+      <c r="Q6" s="273"/>
+      <c r="R6" s="237"/>
       <c r="S6" s="92"/>
       <c r="T6" s="23"/>
       <c r="U6" s="23"/>
@@ -13200,11 +13049,11 @@
       <c r="AC6" s="4"/>
     </row>
     <row r="7" spans="1:29" s="22" customFormat="1" ht="35.25" customHeight="1">
-      <c r="A7" s="283"/>
-      <c r="B7" s="283"/>
+      <c r="A7" s="269"/>
+      <c r="B7" s="269"/>
       <c r="C7" s="270"/>
       <c r="D7" s="270"/>
-      <c r="E7" s="236"/>
+      <c r="E7" s="238"/>
       <c r="F7" s="178" t="s">
         <v>33</v>
       </c>
@@ -13217,15 +13066,15 @@
       <c r="I7" s="116" t="s">
         <v>17</v>
       </c>
-      <c r="J7" s="281"/>
-      <c r="K7" s="271"/>
-      <c r="L7" s="269"/>
-      <c r="M7" s="271"/>
-      <c r="N7" s="271"/>
-      <c r="O7" s="271"/>
-      <c r="P7" s="271"/>
-      <c r="Q7" s="271"/>
-      <c r="R7" s="235"/>
+      <c r="J7" s="283"/>
+      <c r="K7" s="273"/>
+      <c r="L7" s="272"/>
+      <c r="M7" s="273"/>
+      <c r="N7" s="273"/>
+      <c r="O7" s="273"/>
+      <c r="P7" s="273"/>
+      <c r="Q7" s="273"/>
+      <c r="R7" s="237"/>
       <c r="S7" s="92"/>
       <c r="T7" s="23"/>
       <c r="U7" s="23"/>
@@ -13923,6 +13772,11 @@
   </protectedRanges>
   <autoFilter ref="A7:AC10"/>
   <mergeCells count="20">
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="E5:E7"/>
     <mergeCell ref="M6:M7"/>
     <mergeCell ref="N6:N7"/>
     <mergeCell ref="J6:J7"/>
@@ -13938,15 +13792,10 @@
     <mergeCell ref="O5:O7"/>
     <mergeCell ref="K6:K7"/>
     <mergeCell ref="L6:L7"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="D5:D7"/>
-    <mergeCell ref="E5:E7"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0.24" top="0.2" bottom="0.32" header="0.2" footer="0.2"/>
-  <pageSetup paperSize="9" scale="70" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="80" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddFooter>&amp;C&amp;P/&amp;N</oddFooter>
   </headerFooter>
@@ -14031,15 +13880,15 @@
       <c r="AJ1" s="107"/>
       <c r="AK1" s="44"/>
       <c r="AL1" s="44"/>
-      <c r="AM1" s="260" t="s">
+      <c r="AM1" s="256" t="s">
         <v>76</v>
       </c>
-      <c r="AN1" s="261"/>
-      <c r="AO1" s="261"/>
-      <c r="AP1" s="261"/>
-      <c r="AQ1" s="261"/>
-      <c r="AR1" s="261"/>
-      <c r="AS1" s="262"/>
+      <c r="AN1" s="257"/>
+      <c r="AO1" s="257"/>
+      <c r="AP1" s="257"/>
+      <c r="AQ1" s="257"/>
+      <c r="AR1" s="257"/>
+      <c r="AS1" s="258"/>
       <c r="AT1" s="46"/>
     </row>
     <row r="2" spans="1:91" ht="20.25">
@@ -14189,19 +14038,19 @@
       <c r="AT4" s="90"/>
     </row>
     <row r="5" spans="1:91" s="56" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A5" s="257" t="s">
+      <c r="A5" s="266" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="257" t="s">
+      <c r="B5" s="266" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="257" t="s">
+      <c r="C5" s="266" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="259" t="s">
+      <c r="D5" s="264" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="257" t="s">
+      <c r="E5" s="266" t="s">
         <v>27</v>
       </c>
       <c r="F5" s="106">
@@ -14328,30 +14177,30 @@
         <f t="shared" si="0"/>
         <v>42947</v>
       </c>
-      <c r="AK5" s="263" t="s">
+      <c r="AK5" s="259" t="s">
         <v>14</v>
       </c>
-      <c r="AL5" s="264"/>
-      <c r="AM5" s="265"/>
-      <c r="AN5" s="266" t="s">
+      <c r="AL5" s="260"/>
+      <c r="AM5" s="261"/>
+      <c r="AN5" s="262" t="s">
         <v>38</v>
       </c>
-      <c r="AO5" s="266" t="s">
+      <c r="AO5" s="262" t="s">
         <v>34</v>
       </c>
-      <c r="AP5" s="266" t="s">
+      <c r="AP5" s="262" t="s">
         <v>35</v>
       </c>
-      <c r="AQ5" s="266" t="s">
+      <c r="AQ5" s="262" t="s">
         <v>36</v>
       </c>
-      <c r="AR5" s="266" t="s">
+      <c r="AR5" s="262" t="s">
         <v>37</v>
       </c>
-      <c r="AS5" s="259" t="s">
+      <c r="AS5" s="264" t="s">
         <v>0</v>
       </c>
-      <c r="AT5" s="254"/>
+      <c r="AT5" s="267"/>
       <c r="AV5" s="2"/>
       <c r="AW5" s="2"/>
       <c r="AX5" s="2"/>
@@ -14398,11 +14247,11 @@
       <c r="CM5" s="2"/>
     </row>
     <row r="6" spans="1:91" s="56" customFormat="1" ht="39.75" customHeight="1">
-      <c r="A6" s="258"/>
-      <c r="B6" s="258"/>
-      <c r="C6" s="258"/>
-      <c r="D6" s="258"/>
-      <c r="E6" s="258"/>
+      <c r="A6" s="265"/>
+      <c r="B6" s="265"/>
+      <c r="C6" s="265"/>
+      <c r="D6" s="265"/>
+      <c r="E6" s="265"/>
       <c r="F6" s="158" t="str">
         <f>CHOOSE(WEEKDAY(F5),"C.Nhật","T.Hai","T.Ba","T.Tư","T.Năm","T.Sáu","T.Bảy")</f>
         <v>T.Bảy</v>
@@ -14536,13 +14385,13 @@
       <c r="AM6" s="160" t="s">
         <v>16</v>
       </c>
-      <c r="AN6" s="267"/>
-      <c r="AO6" s="267"/>
-      <c r="AP6" s="267"/>
-      <c r="AQ6" s="267"/>
-      <c r="AR6" s="267"/>
-      <c r="AS6" s="258"/>
-      <c r="AT6" s="254"/>
+      <c r="AN6" s="263"/>
+      <c r="AO6" s="263"/>
+      <c r="AP6" s="263"/>
+      <c r="AQ6" s="263"/>
+      <c r="AR6" s="263"/>
+      <c r="AS6" s="265"/>
+      <c r="AT6" s="267"/>
       <c r="AV6" s="2"/>
       <c r="AW6" s="2"/>
       <c r="AX6" s="2"/>
@@ -14823,17 +14672,17 @@
       <c r="AT8" s="163"/>
     </row>
     <row r="9" spans="1:91" s="56" customFormat="1" ht="18" customHeight="1">
-      <c r="A9" s="248">
+      <c r="A9" s="244">
         <v>1</v>
       </c>
-      <c r="B9" s="248" t="s">
+      <c r="B9" s="244" t="s">
         <v>73</v>
       </c>
-      <c r="C9" s="250" t="str">
+      <c r="C9" s="246" t="str">
         <f>VLOOKUP(B9,DS,2,0)</f>
         <v>Mai Thị Hường</v>
       </c>
-      <c r="D9" s="252" t="str">
+      <c r="D9" s="254" t="str">
         <f>VLOOKUP(B9,DS,3,0)</f>
         <v>Kế Toán</v>
       </c>
@@ -14923,29 +14772,29 @@
       <c r="AJ9" s="131">
         <v>8</v>
       </c>
-      <c r="AK9" s="240">
+      <c r="AK9" s="252">
         <f>((SUM(F9:AJ9))/8)-(SUMIF($F$6:$AJ$6,"C.Nhật",F9:AJ9)/8)</f>
         <v>26</v>
       </c>
-      <c r="AL9" s="240">
+      <c r="AL9" s="252">
         <f>SUM(F10:AJ10)/8*1.5</f>
         <v>0</v>
       </c>
-      <c r="AM9" s="242">
+      <c r="AM9" s="248">
         <f>SUMIF($F$6:$AJ$6,"C.Nhật",$F9:$AJ10)/8*2</f>
         <v>0</v>
       </c>
-      <c r="AN9" s="244">
+      <c r="AN9" s="240">
         <f>SUM(AK9:AM10)</f>
         <v>26</v>
       </c>
-      <c r="AO9" s="246">
+      <c r="AO9" s="250">
         <v>0</v>
       </c>
-      <c r="AP9" s="244"/>
-      <c r="AQ9" s="244"/>
-      <c r="AR9" s="244"/>
-      <c r="AS9" s="255"/>
+      <c r="AP9" s="240"/>
+      <c r="AQ9" s="240"/>
+      <c r="AR9" s="240"/>
+      <c r="AS9" s="242"/>
       <c r="AT9" s="181"/>
       <c r="AV9" s="2"/>
       <c r="AW9" s="2"/>
@@ -14993,10 +14842,10 @@
       <c r="CM9" s="2"/>
     </row>
     <row r="10" spans="1:91" s="56" customFormat="1" ht="18" customHeight="1">
-      <c r="A10" s="249"/>
-      <c r="B10" s="249"/>
-      <c r="C10" s="251"/>
-      <c r="D10" s="253"/>
+      <c r="A10" s="245"/>
+      <c r="B10" s="245"/>
+      <c r="C10" s="247"/>
+      <c r="D10" s="255"/>
       <c r="E10" s="58" t="s">
         <v>28</v>
       </c>
@@ -15031,15 +14880,15 @@
       <c r="AH10" s="132"/>
       <c r="AI10" s="132"/>
       <c r="AJ10" s="132"/>
-      <c r="AK10" s="241"/>
-      <c r="AL10" s="241"/>
-      <c r="AM10" s="243"/>
-      <c r="AN10" s="245"/>
-      <c r="AO10" s="247"/>
-      <c r="AP10" s="245"/>
-      <c r="AQ10" s="245"/>
-      <c r="AR10" s="245"/>
-      <c r="AS10" s="256"/>
+      <c r="AK10" s="253"/>
+      <c r="AL10" s="253"/>
+      <c r="AM10" s="249"/>
+      <c r="AN10" s="241"/>
+      <c r="AO10" s="251"/>
+      <c r="AP10" s="241"/>
+      <c r="AQ10" s="241"/>
+      <c r="AR10" s="241"/>
+      <c r="AS10" s="243"/>
       <c r="AT10" s="181"/>
       <c r="AV10" s="2"/>
       <c r="AW10" s="2"/>
@@ -15087,17 +14936,17 @@
       <c r="CM10" s="2"/>
     </row>
     <row r="11" spans="1:91" s="56" customFormat="1" ht="18" customHeight="1">
-      <c r="A11" s="248">
+      <c r="A11" s="244">
         <v>2</v>
       </c>
-      <c r="B11" s="248" t="s">
+      <c r="B11" s="244" t="s">
         <v>113</v>
       </c>
-      <c r="C11" s="250" t="str">
+      <c r="C11" s="246" t="str">
         <f>VLOOKUP(B11,DS,2,0)</f>
         <v>Võ Ngọc Thúy Hằng</v>
       </c>
-      <c r="D11" s="252" t="str">
+      <c r="D11" s="254" t="str">
         <f>VLOOKUP(B11,DS,3,0)</f>
         <v>Văn Phòng</v>
       </c>
@@ -15187,29 +15036,29 @@
       <c r="AJ11" s="131">
         <v>8</v>
       </c>
-      <c r="AK11" s="240">
+      <c r="AK11" s="252">
         <f>((SUM(F11:AJ11))/8)-(SUMIF($F$6:$AJ$6,"C.Nhật",F11:AJ11)/8)</f>
         <v>26</v>
       </c>
-      <c r="AL11" s="240">
+      <c r="AL11" s="252">
         <f>SUM(F12:AJ12)/8*1.5</f>
         <v>0</v>
       </c>
-      <c r="AM11" s="242">
+      <c r="AM11" s="248">
         <f>SUMIF($F$6:$AJ$6,"C.Nhật",$F11:$AJ12)/8*2</f>
         <v>0</v>
       </c>
-      <c r="AN11" s="244">
+      <c r="AN11" s="240">
         <f>SUM(AK11:AM12)</f>
         <v>26</v>
       </c>
-      <c r="AO11" s="246">
+      <c r="AO11" s="250">
         <v>0</v>
       </c>
-      <c r="AP11" s="244"/>
-      <c r="AQ11" s="244"/>
-      <c r="AR11" s="244"/>
-      <c r="AS11" s="255"/>
+      <c r="AP11" s="240"/>
+      <c r="AQ11" s="240"/>
+      <c r="AR11" s="240"/>
+      <c r="AS11" s="242"/>
       <c r="AT11" s="213"/>
       <c r="AV11" s="2"/>
       <c r="AW11" s="2"/>
@@ -15257,10 +15106,10 @@
       <c r="CM11" s="2"/>
     </row>
     <row r="12" spans="1:91" s="56" customFormat="1" ht="18" customHeight="1">
-      <c r="A12" s="249"/>
-      <c r="B12" s="249"/>
-      <c r="C12" s="251"/>
-      <c r="D12" s="253"/>
+      <c r="A12" s="245"/>
+      <c r="B12" s="245"/>
+      <c r="C12" s="247"/>
+      <c r="D12" s="255"/>
       <c r="E12" s="58" t="s">
         <v>28</v>
       </c>
@@ -15295,15 +15144,15 @@
       <c r="AH12" s="132"/>
       <c r="AI12" s="132"/>
       <c r="AJ12" s="132"/>
-      <c r="AK12" s="241"/>
-      <c r="AL12" s="241"/>
-      <c r="AM12" s="243"/>
-      <c r="AN12" s="245"/>
-      <c r="AO12" s="247"/>
-      <c r="AP12" s="245"/>
-      <c r="AQ12" s="245"/>
-      <c r="AR12" s="245"/>
-      <c r="AS12" s="256"/>
+      <c r="AK12" s="253"/>
+      <c r="AL12" s="253"/>
+      <c r="AM12" s="249"/>
+      <c r="AN12" s="241"/>
+      <c r="AO12" s="251"/>
+      <c r="AP12" s="241"/>
+      <c r="AQ12" s="241"/>
+      <c r="AR12" s="241"/>
+      <c r="AS12" s="243"/>
       <c r="AT12" s="213"/>
       <c r="AV12" s="2"/>
       <c r="AW12" s="2"/>
@@ -15403,17 +15252,17 @@
       <c r="AT13" s="163"/>
     </row>
     <row r="14" spans="1:91" s="56" customFormat="1" ht="18" customHeight="1">
-      <c r="A14" s="248">
+      <c r="A14" s="244">
         <v>1</v>
       </c>
-      <c r="B14" s="248" t="s">
+      <c r="B14" s="244" t="s">
         <v>74</v>
       </c>
-      <c r="C14" s="250" t="str">
+      <c r="C14" s="246" t="str">
         <f>VLOOKUP(B14,DS,2,0)</f>
         <v>Thạch Huy Chạch</v>
       </c>
-      <c r="D14" s="252" t="str">
+      <c r="D14" s="254" t="str">
         <f>VLOOKUP(B14,DS,3,0)</f>
         <v>Công nhân</v>
       </c>
@@ -15503,29 +15352,29 @@
       <c r="AJ14" s="131">
         <v>8</v>
       </c>
-      <c r="AK14" s="240">
+      <c r="AK14" s="252">
         <f t="shared" ref="AK14" si="2">((SUM(F14:AJ14))/8)-(SUMIF($F$6:$AJ$6,"C.Nhật",F14:AJ14)/8)</f>
         <v>26</v>
       </c>
-      <c r="AL14" s="240">
+      <c r="AL14" s="252">
         <f t="shared" ref="AL14" si="3">SUM(F15:AJ15)/8*1.5</f>
         <v>0</v>
       </c>
-      <c r="AM14" s="242">
+      <c r="AM14" s="248">
         <f>SUMIF($F$6:$AJ$6,"C.Nhật",$F14:$AJ15)/8*2</f>
         <v>0</v>
       </c>
-      <c r="AN14" s="244">
+      <c r="AN14" s="240">
         <f>SUM(AK14:AM15)</f>
         <v>26</v>
       </c>
-      <c r="AO14" s="246">
+      <c r="AO14" s="250">
         <v>0</v>
       </c>
-      <c r="AP14" s="244"/>
-      <c r="AQ14" s="244"/>
-      <c r="AR14" s="244"/>
-      <c r="AS14" s="255"/>
+      <c r="AP14" s="240"/>
+      <c r="AQ14" s="240"/>
+      <c r="AR14" s="240"/>
+      <c r="AS14" s="242"/>
       <c r="AT14" s="202"/>
       <c r="AU14" s="2"/>
       <c r="AV14" s="2"/>
@@ -15573,10 +15422,10 @@
       <c r="CL14" s="2"/>
     </row>
     <row r="15" spans="1:91" s="56" customFormat="1" ht="18" customHeight="1">
-      <c r="A15" s="249"/>
-      <c r="B15" s="249"/>
-      <c r="C15" s="251"/>
-      <c r="D15" s="253"/>
+      <c r="A15" s="245"/>
+      <c r="B15" s="245"/>
+      <c r="C15" s="247"/>
+      <c r="D15" s="255"/>
       <c r="E15" s="58" t="s">
         <v>28</v>
       </c>
@@ -15611,15 +15460,15 @@
       <c r="AH15" s="132"/>
       <c r="AI15" s="132"/>
       <c r="AJ15" s="132"/>
-      <c r="AK15" s="241"/>
-      <c r="AL15" s="241"/>
-      <c r="AM15" s="243"/>
-      <c r="AN15" s="245"/>
-      <c r="AO15" s="247"/>
-      <c r="AP15" s="245"/>
-      <c r="AQ15" s="245"/>
-      <c r="AR15" s="245"/>
-      <c r="AS15" s="256"/>
+      <c r="AK15" s="253"/>
+      <c r="AL15" s="253"/>
+      <c r="AM15" s="249"/>
+      <c r="AN15" s="241"/>
+      <c r="AO15" s="251"/>
+      <c r="AP15" s="241"/>
+      <c r="AQ15" s="241"/>
+      <c r="AR15" s="241"/>
+      <c r="AS15" s="243"/>
       <c r="AT15" s="202"/>
       <c r="AU15" s="2"/>
       <c r="AV15" s="2"/>
@@ -16156,20 +16005,29 @@
     <protectedRange password="CC78" sqref="B14:B15" name="Range1_4_2_1"/>
   </protectedRanges>
   <mergeCells count="53">
-    <mergeCell ref="AO9:AO10"/>
-    <mergeCell ref="AM1:AS1"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="AK5:AM5"/>
-    <mergeCell ref="AN5:AN6"/>
-    <mergeCell ref="AO5:AO6"/>
-    <mergeCell ref="AP5:AP6"/>
-    <mergeCell ref="AQ5:AQ6"/>
-    <mergeCell ref="AR5:AR6"/>
-    <mergeCell ref="AS5:AS6"/>
+    <mergeCell ref="AQ11:AQ12"/>
+    <mergeCell ref="AR11:AR12"/>
+    <mergeCell ref="AS11:AS12"/>
+    <mergeCell ref="AL11:AL12"/>
+    <mergeCell ref="AM11:AM12"/>
+    <mergeCell ref="AN11:AN12"/>
+    <mergeCell ref="AO11:AO12"/>
+    <mergeCell ref="AP11:AP12"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="AK11:AK12"/>
+    <mergeCell ref="AQ14:AQ15"/>
+    <mergeCell ref="AR14:AR15"/>
+    <mergeCell ref="AS14:AS15"/>
+    <mergeCell ref="AO14:AO15"/>
+    <mergeCell ref="AP14:AP15"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="AK14:AK15"/>
     <mergeCell ref="AL14:AL15"/>
     <mergeCell ref="AM14:AM15"/>
     <mergeCell ref="AN14:AN15"/>
@@ -16186,67 +16044,58 @@
     <mergeCell ref="AR9:AR10"/>
     <mergeCell ref="AM9:AM10"/>
     <mergeCell ref="AN9:AN10"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="AK14:AK15"/>
-    <mergeCell ref="AQ14:AQ15"/>
-    <mergeCell ref="AR14:AR15"/>
-    <mergeCell ref="AS14:AS15"/>
-    <mergeCell ref="AO14:AO15"/>
-    <mergeCell ref="AP14:AP15"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="AK11:AK12"/>
-    <mergeCell ref="AL11:AL12"/>
-    <mergeCell ref="AM11:AM12"/>
-    <mergeCell ref="AN11:AN12"/>
-    <mergeCell ref="AO11:AO12"/>
-    <mergeCell ref="AP11:AP12"/>
-    <mergeCell ref="AQ11:AQ12"/>
-    <mergeCell ref="AR11:AR12"/>
-    <mergeCell ref="AS11:AS12"/>
+    <mergeCell ref="AO9:AO10"/>
+    <mergeCell ref="AM1:AS1"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="AK5:AM5"/>
+    <mergeCell ref="AN5:AN6"/>
+    <mergeCell ref="AO5:AO6"/>
+    <mergeCell ref="AP5:AP6"/>
+    <mergeCell ref="AQ5:AQ6"/>
+    <mergeCell ref="AR5:AR6"/>
+    <mergeCell ref="AS5:AS6"/>
   </mergeCells>
   <conditionalFormatting sqref="F5:AJ6 F9:AI10 F14:AI15">
-    <cfRule type="expression" dxfId="46" priority="50" stopIfTrue="1">
+    <cfRule type="expression" dxfId="24" priority="50" stopIfTrue="1">
       <formula>IF(WEEKDAY(F$5)=1,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9:AI10">
-    <cfRule type="expression" dxfId="45" priority="49" stopIfTrue="1">
+    <cfRule type="expression" dxfId="23" priority="49" stopIfTrue="1">
       <formula>IF(WEEKDAY(F$5)=1,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11:AI12">
-    <cfRule type="expression" dxfId="42" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="22" priority="8" stopIfTrue="1">
       <formula>IF(WEEKDAY(F$5)=1,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11:AI12">
-    <cfRule type="expression" dxfId="41" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="21" priority="7" stopIfTrue="1">
       <formula>IF(WEEKDAY(F$5)=1,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ9:AJ10 AJ14:AJ15">
-    <cfRule type="expression" dxfId="40" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="20" priority="6" stopIfTrue="1">
       <formula>IF(WEEKDAY(AJ$5)=1,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ9:AJ10">
-    <cfRule type="expression" dxfId="39" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="19" priority="5" stopIfTrue="1">
       <formula>IF(WEEKDAY(AJ$5)=1,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ11:AJ12">
-    <cfRule type="expression" dxfId="36" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="18" priority="2" stopIfTrue="1">
       <formula>IF(WEEKDAY(AJ$5)=1,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ11:AJ12">
-    <cfRule type="expression" dxfId="35" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="17" priority="1" stopIfTrue="1">
       <formula>IF(WEEKDAY(AJ$5)=1,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16309,26 +16158,26 @@
       <c r="A1" s="127"/>
       <c r="B1" s="183"/>
       <c r="C1" s="183"/>
-      <c r="D1" s="272" t="str">
+      <c r="D1" s="274" t="str">
         <f>"BẢNG THANH TOÁN LƯƠNG THÁNG"&amp;" "&amp;TEXT($E$4,"mm")&amp;" / "&amp;TEXT($E$4,"yyyy")</f>
         <v>BẢNG THANH TOÁN LƯƠNG THÁNG 07 / 2017</v>
       </c>
-      <c r="E1" s="272"/>
-      <c r="F1" s="272"/>
-      <c r="G1" s="272"/>
-      <c r="H1" s="272"/>
-      <c r="I1" s="272"/>
-      <c r="J1" s="272"/>
-      <c r="K1" s="272"/>
-      <c r="L1" s="272"/>
-      <c r="M1" s="272"/>
-      <c r="N1" s="272"/>
-      <c r="O1" s="273"/>
-      <c r="P1" s="274" t="s">
+      <c r="E1" s="274"/>
+      <c r="F1" s="274"/>
+      <c r="G1" s="274"/>
+      <c r="H1" s="274"/>
+      <c r="I1" s="274"/>
+      <c r="J1" s="274"/>
+      <c r="K1" s="274"/>
+      <c r="L1" s="274"/>
+      <c r="M1" s="274"/>
+      <c r="N1" s="274"/>
+      <c r="O1" s="275"/>
+      <c r="P1" s="276" t="s">
         <v>76</v>
       </c>
-      <c r="Q1" s="275"/>
-      <c r="R1" s="276"/>
+      <c r="Q1" s="277"/>
+      <c r="R1" s="278"/>
       <c r="S1" s="118" t="s">
         <v>49</v>
       </c>
@@ -16433,34 +16282,34 @@
       <c r="X4" s="94"/>
     </row>
     <row r="5" spans="1:29" s="22" customFormat="1" ht="24" customHeight="1">
-      <c r="A5" s="282" t="s">
+      <c r="A5" s="268" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="282" t="s">
+      <c r="B5" s="268" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="233" t="s">
+      <c r="C5" s="235" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="233" t="s">
+      <c r="D5" s="235" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="236" t="s">
+      <c r="E5" s="238" t="s">
         <v>48</v>
       </c>
-      <c r="F5" s="277" t="s">
+      <c r="F5" s="279" t="s">
         <v>23</v>
       </c>
-      <c r="G5" s="278"/>
-      <c r="H5" s="278"/>
-      <c r="I5" s="278"/>
-      <c r="J5" s="278"/>
-      <c r="K5" s="279"/>
-      <c r="L5" s="233" t="s">
+      <c r="G5" s="280"/>
+      <c r="H5" s="280"/>
+      <c r="I5" s="280"/>
+      <c r="J5" s="280"/>
+      <c r="K5" s="281"/>
+      <c r="L5" s="235" t="s">
         <v>5</v>
       </c>
-      <c r="M5" s="233"/>
-      <c r="N5" s="233"/>
+      <c r="M5" s="235"/>
+      <c r="N5" s="235"/>
       <c r="O5" s="270" t="s">
         <v>6</v>
       </c>
@@ -16470,7 +16319,7 @@
       <c r="Q5" s="270" t="s">
         <v>8</v>
       </c>
-      <c r="R5" s="234" t="s">
+      <c r="R5" s="236" t="s">
         <v>9</v>
       </c>
       <c r="S5" s="92"/>
@@ -16486,26 +16335,26 @@
       <c r="AC5" s="4"/>
     </row>
     <row r="6" spans="1:29" s="22" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A6" s="283"/>
-      <c r="B6" s="283"/>
-      <c r="C6" s="233"/>
-      <c r="D6" s="233"/>
-      <c r="E6" s="236"/>
-      <c r="F6" s="277" t="s">
+      <c r="A6" s="269"/>
+      <c r="B6" s="269"/>
+      <c r="C6" s="235"/>
+      <c r="D6" s="235"/>
+      <c r="E6" s="238"/>
+      <c r="F6" s="279" t="s">
         <v>50</v>
       </c>
-      <c r="G6" s="279"/>
-      <c r="H6" s="277" t="s">
+      <c r="G6" s="281"/>
+      <c r="H6" s="279" t="s">
         <v>69</v>
       </c>
-      <c r="I6" s="278"/>
-      <c r="J6" s="280" t="s">
+      <c r="I6" s="280"/>
+      <c r="J6" s="282" t="s">
         <v>24</v>
       </c>
       <c r="K6" s="270" t="s">
         <v>4</v>
       </c>
-      <c r="L6" s="268" t="s">
+      <c r="L6" s="271" t="s">
         <v>11</v>
       </c>
       <c r="M6" s="270" t="s">
@@ -16514,10 +16363,10 @@
       <c r="N6" s="270" t="s">
         <v>30</v>
       </c>
-      <c r="O6" s="271"/>
-      <c r="P6" s="271"/>
-      <c r="Q6" s="271"/>
-      <c r="R6" s="235"/>
+      <c r="O6" s="273"/>
+      <c r="P6" s="273"/>
+      <c r="Q6" s="273"/>
+      <c r="R6" s="237"/>
       <c r="S6" s="92"/>
       <c r="T6" s="23"/>
       <c r="U6" s="23"/>
@@ -16531,11 +16380,11 @@
       <c r="AC6" s="4"/>
     </row>
     <row r="7" spans="1:29" s="22" customFormat="1" ht="35.25" customHeight="1">
-      <c r="A7" s="283"/>
-      <c r="B7" s="283"/>
+      <c r="A7" s="269"/>
+      <c r="B7" s="269"/>
       <c r="C7" s="270"/>
       <c r="D7" s="270"/>
-      <c r="E7" s="236"/>
+      <c r="E7" s="238"/>
       <c r="F7" s="182" t="s">
         <v>33</v>
       </c>
@@ -16548,15 +16397,15 @@
       <c r="I7" s="116" t="s">
         <v>17</v>
       </c>
-      <c r="J7" s="281"/>
-      <c r="K7" s="271"/>
-      <c r="L7" s="269"/>
-      <c r="M7" s="271"/>
-      <c r="N7" s="271"/>
-      <c r="O7" s="271"/>
-      <c r="P7" s="271"/>
-      <c r="Q7" s="271"/>
-      <c r="R7" s="235"/>
+      <c r="J7" s="283"/>
+      <c r="K7" s="273"/>
+      <c r="L7" s="272"/>
+      <c r="M7" s="273"/>
+      <c r="N7" s="273"/>
+      <c r="O7" s="273"/>
+      <c r="P7" s="273"/>
+      <c r="Q7" s="273"/>
+      <c r="R7" s="237"/>
       <c r="S7" s="92"/>
       <c r="T7" s="23"/>
       <c r="U7" s="23"/>
@@ -16869,7 +16718,7 @@
       </c>
       <c r="F13" s="128"/>
       <c r="G13" s="128">
-        <f t="shared" ref="F13:Q13" si="11">SUM(G9:G12)</f>
+        <f t="shared" ref="G13:Q13" si="11">SUM(G9:G12)</f>
         <v>7949500</v>
       </c>
       <c r="H13" s="128"/>
@@ -17252,11 +17101,6 @@
   </protectedRanges>
   <autoFilter ref="A7:AC10"/>
   <mergeCells count="20">
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="D5:D7"/>
-    <mergeCell ref="E5:E7"/>
     <mergeCell ref="L6:L7"/>
     <mergeCell ref="M6:M7"/>
     <mergeCell ref="N6:N7"/>
@@ -17272,10 +17116,15 @@
     <mergeCell ref="L5:N5"/>
     <mergeCell ref="J6:J7"/>
     <mergeCell ref="K6:K7"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="E5:E7"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0.24" top="0.2" bottom="0.32" header="0.2" footer="0.2"/>
-  <pageSetup paperSize="9" scale="70" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="80" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddFooter>&amp;C&amp;P/&amp;N</oddFooter>
   </headerFooter>
@@ -17360,15 +17209,15 @@
       <c r="AJ1" s="107"/>
       <c r="AK1" s="44"/>
       <c r="AL1" s="44"/>
-      <c r="AM1" s="260" t="s">
+      <c r="AM1" s="256" t="s">
         <v>76</v>
       </c>
-      <c r="AN1" s="261"/>
-      <c r="AO1" s="261"/>
-      <c r="AP1" s="261"/>
-      <c r="AQ1" s="261"/>
-      <c r="AR1" s="261"/>
-      <c r="AS1" s="262"/>
+      <c r="AN1" s="257"/>
+      <c r="AO1" s="257"/>
+      <c r="AP1" s="257"/>
+      <c r="AQ1" s="257"/>
+      <c r="AR1" s="257"/>
+      <c r="AS1" s="258"/>
       <c r="AT1" s="46"/>
     </row>
     <row r="2" spans="1:91" ht="20.25">
@@ -17518,19 +17367,19 @@
       <c r="AT4" s="90"/>
     </row>
     <row r="5" spans="1:91" s="56" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A5" s="257" t="s">
+      <c r="A5" s="266" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="257" t="s">
+      <c r="B5" s="266" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="257" t="s">
+      <c r="C5" s="266" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="259" t="s">
+      <c r="D5" s="264" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="257" t="s">
+      <c r="E5" s="266" t="s">
         <v>27</v>
       </c>
       <c r="F5" s="106">
@@ -17657,30 +17506,30 @@
         <f t="shared" si="0"/>
         <v>42978</v>
       </c>
-      <c r="AK5" s="263" t="s">
+      <c r="AK5" s="259" t="s">
         <v>14</v>
       </c>
-      <c r="AL5" s="264"/>
-      <c r="AM5" s="265"/>
-      <c r="AN5" s="266" t="s">
+      <c r="AL5" s="260"/>
+      <c r="AM5" s="261"/>
+      <c r="AN5" s="262" t="s">
         <v>38</v>
       </c>
-      <c r="AO5" s="266" t="s">
+      <c r="AO5" s="262" t="s">
         <v>34</v>
       </c>
-      <c r="AP5" s="266" t="s">
+      <c r="AP5" s="262" t="s">
         <v>35</v>
       </c>
-      <c r="AQ5" s="266" t="s">
+      <c r="AQ5" s="262" t="s">
         <v>36</v>
       </c>
-      <c r="AR5" s="266" t="s">
+      <c r="AR5" s="262" t="s">
         <v>37</v>
       </c>
-      <c r="AS5" s="259" t="s">
+      <c r="AS5" s="264" t="s">
         <v>0</v>
       </c>
-      <c r="AT5" s="254"/>
+      <c r="AT5" s="267"/>
       <c r="AV5" s="2"/>
       <c r="AW5" s="2"/>
       <c r="AX5" s="2"/>
@@ -17727,11 +17576,11 @@
       <c r="CM5" s="2"/>
     </row>
     <row r="6" spans="1:91" s="56" customFormat="1" ht="39.75" customHeight="1">
-      <c r="A6" s="258"/>
-      <c r="B6" s="258"/>
-      <c r="C6" s="258"/>
-      <c r="D6" s="258"/>
-      <c r="E6" s="258"/>
+      <c r="A6" s="265"/>
+      <c r="B6" s="265"/>
+      <c r="C6" s="265"/>
+      <c r="D6" s="265"/>
+      <c r="E6" s="265"/>
       <c r="F6" s="158" t="str">
         <f>CHOOSE(WEEKDAY(F5),"C.Nhật","T.Hai","T.Ba","T.Tư","T.Năm","T.Sáu","T.Bảy")</f>
         <v>T.Ba</v>
@@ -17865,13 +17714,13 @@
       <c r="AM6" s="160" t="s">
         <v>16</v>
       </c>
-      <c r="AN6" s="267"/>
-      <c r="AO6" s="267"/>
-      <c r="AP6" s="267"/>
-      <c r="AQ6" s="267"/>
-      <c r="AR6" s="267"/>
-      <c r="AS6" s="258"/>
-      <c r="AT6" s="254"/>
+      <c r="AN6" s="263"/>
+      <c r="AO6" s="263"/>
+      <c r="AP6" s="263"/>
+      <c r="AQ6" s="263"/>
+      <c r="AR6" s="263"/>
+      <c r="AS6" s="265"/>
+      <c r="AT6" s="267"/>
       <c r="AV6" s="2"/>
       <c r="AW6" s="2"/>
       <c r="AX6" s="2"/>
@@ -18152,17 +18001,17 @@
       <c r="AT8" s="163"/>
     </row>
     <row r="9" spans="1:91" s="56" customFormat="1" ht="18" customHeight="1">
-      <c r="A9" s="248">
+      <c r="A9" s="244">
         <v>1</v>
       </c>
-      <c r="B9" s="248" t="s">
+      <c r="B9" s="244" t="s">
         <v>73</v>
       </c>
-      <c r="C9" s="250" t="str">
+      <c r="C9" s="246" t="str">
         <f>VLOOKUP(B9,DS,2,0)</f>
         <v>Mai Thị Hường</v>
       </c>
-      <c r="D9" s="252" t="str">
+      <c r="D9" s="254" t="str">
         <f>VLOOKUP(B9,DS,3,0)</f>
         <v>Kế Toán</v>
       </c>
@@ -18254,29 +18103,29 @@
       <c r="AJ9" s="131">
         <v>8</v>
       </c>
-      <c r="AK9" s="240">
+      <c r="AK9" s="252">
         <f>((SUM(F9:AJ9))/8)-(SUMIF($F$6:$AJ$6,"C.Nhật",F9:AJ9)/8)</f>
         <v>27</v>
       </c>
-      <c r="AL9" s="240">
+      <c r="AL9" s="252">
         <f>SUM(F10:AJ10)/8*1.5</f>
         <v>0</v>
       </c>
-      <c r="AM9" s="242">
+      <c r="AM9" s="248">
         <f>SUMIF($F$6:$AJ$6,"C.Nhật",$F9:$AJ10)/8*2</f>
         <v>0</v>
       </c>
-      <c r="AN9" s="244">
+      <c r="AN9" s="240">
         <f>SUM(AK9:AM10)</f>
         <v>27</v>
       </c>
-      <c r="AO9" s="246">
+      <c r="AO9" s="250">
         <v>0</v>
       </c>
-      <c r="AP9" s="244"/>
-      <c r="AQ9" s="244"/>
-      <c r="AR9" s="244"/>
-      <c r="AS9" s="255"/>
+      <c r="AP9" s="240"/>
+      <c r="AQ9" s="240"/>
+      <c r="AR9" s="240"/>
+      <c r="AS9" s="242"/>
       <c r="AT9" s="181"/>
       <c r="AV9" s="2"/>
       <c r="AW9" s="2"/>
@@ -18324,10 +18173,10 @@
       <c r="CM9" s="2"/>
     </row>
     <row r="10" spans="1:91" s="56" customFormat="1" ht="18" customHeight="1">
-      <c r="A10" s="249"/>
-      <c r="B10" s="249"/>
-      <c r="C10" s="251"/>
-      <c r="D10" s="253"/>
+      <c r="A10" s="245"/>
+      <c r="B10" s="245"/>
+      <c r="C10" s="247"/>
+      <c r="D10" s="255"/>
       <c r="E10" s="58" t="s">
         <v>28</v>
       </c>
@@ -18362,15 +18211,15 @@
       <c r="AH10" s="132"/>
       <c r="AI10" s="132"/>
       <c r="AJ10" s="132"/>
-      <c r="AK10" s="241"/>
-      <c r="AL10" s="241"/>
-      <c r="AM10" s="243"/>
-      <c r="AN10" s="245"/>
-      <c r="AO10" s="247"/>
-      <c r="AP10" s="245"/>
-      <c r="AQ10" s="245"/>
-      <c r="AR10" s="245"/>
-      <c r="AS10" s="256"/>
+      <c r="AK10" s="253"/>
+      <c r="AL10" s="253"/>
+      <c r="AM10" s="249"/>
+      <c r="AN10" s="241"/>
+      <c r="AO10" s="251"/>
+      <c r="AP10" s="241"/>
+      <c r="AQ10" s="241"/>
+      <c r="AR10" s="241"/>
+      <c r="AS10" s="243"/>
       <c r="AT10" s="181"/>
       <c r="AV10" s="2"/>
       <c r="AW10" s="2"/>
@@ -18470,17 +18319,17 @@
       <c r="AT11" s="163"/>
     </row>
     <row r="12" spans="1:91" s="56" customFormat="1" ht="18" customHeight="1">
-      <c r="A12" s="248">
+      <c r="A12" s="244">
         <v>1</v>
       </c>
-      <c r="B12" s="248" t="s">
+      <c r="B12" s="244" t="s">
         <v>74</v>
       </c>
-      <c r="C12" s="250" t="str">
+      <c r="C12" s="246" t="str">
         <f>VLOOKUP(B12,DS,2,0)</f>
         <v>Thạch Huy Chạch</v>
       </c>
-      <c r="D12" s="252" t="str">
+      <c r="D12" s="254" t="str">
         <f>VLOOKUP(B12,DS,3,0)</f>
         <v>Công nhân</v>
       </c>
@@ -18572,29 +18421,29 @@
       <c r="AJ12" s="131">
         <v>8</v>
       </c>
-      <c r="AK12" s="240">
+      <c r="AK12" s="252">
         <f t="shared" ref="AK12" si="2">((SUM(F12:AJ12))/8)-(SUMIF($F$6:$AJ$6,"C.Nhật",F12:AJ12)/8)</f>
         <v>27</v>
       </c>
-      <c r="AL12" s="240">
+      <c r="AL12" s="252">
         <f t="shared" ref="AL12" si="3">SUM(F13:AJ13)/8*1.5</f>
         <v>0</v>
       </c>
-      <c r="AM12" s="242">
+      <c r="AM12" s="248">
         <f>SUMIF($F$6:$AJ$6,"C.Nhật",$F12:$AJ13)/8*2</f>
         <v>0</v>
       </c>
-      <c r="AN12" s="244">
+      <c r="AN12" s="240">
         <f>SUM(AK12:AM13)</f>
         <v>27</v>
       </c>
-      <c r="AO12" s="246">
+      <c r="AO12" s="250">
         <v>0</v>
       </c>
-      <c r="AP12" s="244"/>
-      <c r="AQ12" s="244"/>
-      <c r="AR12" s="244"/>
-      <c r="AS12" s="255"/>
+      <c r="AP12" s="240"/>
+      <c r="AQ12" s="240"/>
+      <c r="AR12" s="240"/>
+      <c r="AS12" s="242"/>
       <c r="AT12" s="202"/>
       <c r="AU12" s="2"/>
       <c r="AV12" s="2"/>
@@ -18642,10 +18491,10 @@
       <c r="CL12" s="2"/>
     </row>
     <row r="13" spans="1:91" s="56" customFormat="1" ht="18" customHeight="1">
-      <c r="A13" s="249"/>
-      <c r="B13" s="249"/>
-      <c r="C13" s="251"/>
-      <c r="D13" s="253"/>
+      <c r="A13" s="245"/>
+      <c r="B13" s="245"/>
+      <c r="C13" s="247"/>
+      <c r="D13" s="255"/>
       <c r="E13" s="58" t="s">
         <v>28</v>
       </c>
@@ -18680,15 +18529,15 @@
       <c r="AH13" s="132"/>
       <c r="AI13" s="132"/>
       <c r="AJ13" s="132"/>
-      <c r="AK13" s="241"/>
-      <c r="AL13" s="241"/>
-      <c r="AM13" s="243"/>
-      <c r="AN13" s="245"/>
-      <c r="AO13" s="247"/>
-      <c r="AP13" s="245"/>
-      <c r="AQ13" s="245"/>
-      <c r="AR13" s="245"/>
-      <c r="AS13" s="256"/>
+      <c r="AK13" s="253"/>
+      <c r="AL13" s="253"/>
+      <c r="AM13" s="249"/>
+      <c r="AN13" s="241"/>
+      <c r="AO13" s="251"/>
+      <c r="AP13" s="241"/>
+      <c r="AQ13" s="241"/>
+      <c r="AR13" s="241"/>
+      <c r="AS13" s="243"/>
       <c r="AT13" s="202"/>
       <c r="AU13" s="2"/>
       <c r="AV13" s="2"/>
@@ -19225,6 +19074,30 @@
     <protectedRange password="CC78" sqref="B12:B13" name="Range1_4_2"/>
   </protectedRanges>
   <mergeCells count="40">
+    <mergeCell ref="AO9:AO10"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="AK12:AK13"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="AT5:AT6"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="AK9:AK10"/>
+    <mergeCell ref="AL9:AL10"/>
+    <mergeCell ref="AS9:AS10"/>
+    <mergeCell ref="AP9:AP10"/>
+    <mergeCell ref="AQ9:AQ10"/>
+    <mergeCell ref="AR9:AR10"/>
+    <mergeCell ref="AM9:AM10"/>
+    <mergeCell ref="AN9:AN10"/>
     <mergeCell ref="AR12:AR13"/>
     <mergeCell ref="AS12:AS13"/>
     <mergeCell ref="AM1:AS1"/>
@@ -19241,38 +19114,14 @@
     <mergeCell ref="AM12:AM13"/>
     <mergeCell ref="AN12:AN13"/>
     <mergeCell ref="AO12:AO13"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="AT5:AT6"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="AK9:AK10"/>
-    <mergeCell ref="AL9:AL10"/>
-    <mergeCell ref="AS9:AS10"/>
-    <mergeCell ref="AP9:AP10"/>
-    <mergeCell ref="AQ9:AQ10"/>
-    <mergeCell ref="AR9:AR10"/>
-    <mergeCell ref="AM9:AM10"/>
-    <mergeCell ref="AN9:AN10"/>
-    <mergeCell ref="AO9:AO10"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="AK12:AK13"/>
   </mergeCells>
   <conditionalFormatting sqref="F5:AJ6 F9:AJ10 F12:AJ13">
-    <cfRule type="expression" dxfId="34" priority="44" stopIfTrue="1">
+    <cfRule type="expression" dxfId="16" priority="44" stopIfTrue="1">
       <formula>IF(WEEKDAY(F$5)=1,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9:AJ10">
-    <cfRule type="expression" dxfId="33" priority="43" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="43" stopIfTrue="1">
       <formula>IF(WEEKDAY(F$5)=1,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19335,26 +19184,26 @@
       <c r="A1" s="127"/>
       <c r="B1" s="183"/>
       <c r="C1" s="183"/>
-      <c r="D1" s="272" t="str">
+      <c r="D1" s="274" t="str">
         <f>"BẢNG THANH TOÁN LƯƠNG THÁNG"&amp;" "&amp;TEXT($E$4,"mm")&amp;" / "&amp;TEXT($E$4,"yyyy")</f>
         <v>BẢNG THANH TOÁN LƯƠNG THÁNG 08 / 2017</v>
       </c>
-      <c r="E1" s="272"/>
-      <c r="F1" s="272"/>
-      <c r="G1" s="272"/>
-      <c r="H1" s="272"/>
-      <c r="I1" s="272"/>
-      <c r="J1" s="272"/>
-      <c r="K1" s="272"/>
-      <c r="L1" s="272"/>
-      <c r="M1" s="272"/>
-      <c r="N1" s="272"/>
-      <c r="O1" s="273"/>
-      <c r="P1" s="274" t="s">
+      <c r="E1" s="274"/>
+      <c r="F1" s="274"/>
+      <c r="G1" s="274"/>
+      <c r="H1" s="274"/>
+      <c r="I1" s="274"/>
+      <c r="J1" s="274"/>
+      <c r="K1" s="274"/>
+      <c r="L1" s="274"/>
+      <c r="M1" s="274"/>
+      <c r="N1" s="274"/>
+      <c r="O1" s="275"/>
+      <c r="P1" s="276" t="s">
         <v>76</v>
       </c>
-      <c r="Q1" s="275"/>
-      <c r="R1" s="276"/>
+      <c r="Q1" s="277"/>
+      <c r="R1" s="278"/>
       <c r="S1" s="118" t="s">
         <v>49</v>
       </c>
@@ -19459,34 +19308,34 @@
       <c r="X4" s="94"/>
     </row>
     <row r="5" spans="1:29" s="22" customFormat="1" ht="24" customHeight="1">
-      <c r="A5" s="282" t="s">
+      <c r="A5" s="268" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="282" t="s">
+      <c r="B5" s="268" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="233" t="s">
+      <c r="C5" s="235" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="233" t="s">
+      <c r="D5" s="235" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="236" t="s">
+      <c r="E5" s="238" t="s">
         <v>48</v>
       </c>
-      <c r="F5" s="277" t="s">
+      <c r="F5" s="279" t="s">
         <v>23</v>
       </c>
-      <c r="G5" s="278"/>
-      <c r="H5" s="278"/>
-      <c r="I5" s="278"/>
-      <c r="J5" s="278"/>
-      <c r="K5" s="279"/>
-      <c r="L5" s="233" t="s">
+      <c r="G5" s="280"/>
+      <c r="H5" s="280"/>
+      <c r="I5" s="280"/>
+      <c r="J5" s="280"/>
+      <c r="K5" s="281"/>
+      <c r="L5" s="235" t="s">
         <v>5</v>
       </c>
-      <c r="M5" s="233"/>
-      <c r="N5" s="233"/>
+      <c r="M5" s="235"/>
+      <c r="N5" s="235"/>
       <c r="O5" s="270" t="s">
         <v>6</v>
       </c>
@@ -19496,7 +19345,7 @@
       <c r="Q5" s="270" t="s">
         <v>8</v>
       </c>
-      <c r="R5" s="234" t="s">
+      <c r="R5" s="236" t="s">
         <v>9</v>
       </c>
       <c r="S5" s="92"/>
@@ -19512,26 +19361,26 @@
       <c r="AC5" s="4"/>
     </row>
     <row r="6" spans="1:29" s="22" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A6" s="283"/>
-      <c r="B6" s="283"/>
-      <c r="C6" s="233"/>
-      <c r="D6" s="233"/>
-      <c r="E6" s="236"/>
-      <c r="F6" s="277" t="s">
+      <c r="A6" s="269"/>
+      <c r="B6" s="269"/>
+      <c r="C6" s="235"/>
+      <c r="D6" s="235"/>
+      <c r="E6" s="238"/>
+      <c r="F6" s="279" t="s">
         <v>50</v>
       </c>
-      <c r="G6" s="279"/>
-      <c r="H6" s="277" t="s">
+      <c r="G6" s="281"/>
+      <c r="H6" s="279" t="s">
         <v>69</v>
       </c>
-      <c r="I6" s="278"/>
-      <c r="J6" s="280" t="s">
+      <c r="I6" s="280"/>
+      <c r="J6" s="282" t="s">
         <v>24</v>
       </c>
       <c r="K6" s="270" t="s">
         <v>4</v>
       </c>
-      <c r="L6" s="268" t="s">
+      <c r="L6" s="271" t="s">
         <v>11</v>
       </c>
       <c r="M6" s="270" t="s">
@@ -19540,10 +19389,10 @@
       <c r="N6" s="270" t="s">
         <v>30</v>
       </c>
-      <c r="O6" s="271"/>
-      <c r="P6" s="271"/>
-      <c r="Q6" s="271"/>
-      <c r="R6" s="235"/>
+      <c r="O6" s="273"/>
+      <c r="P6" s="273"/>
+      <c r="Q6" s="273"/>
+      <c r="R6" s="237"/>
       <c r="S6" s="92"/>
       <c r="T6" s="23"/>
       <c r="U6" s="23"/>
@@ -19557,11 +19406,11 @@
       <c r="AC6" s="4"/>
     </row>
     <row r="7" spans="1:29" s="22" customFormat="1" ht="35.25" customHeight="1">
-      <c r="A7" s="283"/>
-      <c r="B7" s="283"/>
+      <c r="A7" s="269"/>
+      <c r="B7" s="269"/>
       <c r="C7" s="270"/>
       <c r="D7" s="270"/>
-      <c r="E7" s="236"/>
+      <c r="E7" s="238"/>
       <c r="F7" s="182" t="s">
         <v>33</v>
       </c>
@@ -19574,15 +19423,15 @@
       <c r="I7" s="116" t="s">
         <v>17</v>
       </c>
-      <c r="J7" s="281"/>
-      <c r="K7" s="271"/>
-      <c r="L7" s="269"/>
-      <c r="M7" s="271"/>
-      <c r="N7" s="271"/>
-      <c r="O7" s="271"/>
-      <c r="P7" s="271"/>
-      <c r="Q7" s="271"/>
-      <c r="R7" s="235"/>
+      <c r="J7" s="283"/>
+      <c r="K7" s="273"/>
+      <c r="L7" s="272"/>
+      <c r="M7" s="273"/>
+      <c r="N7" s="273"/>
+      <c r="O7" s="273"/>
+      <c r="P7" s="273"/>
+      <c r="Q7" s="273"/>
+      <c r="R7" s="237"/>
       <c r="S7" s="92"/>
       <c r="T7" s="23"/>
       <c r="U7" s="23"/>
@@ -19818,7 +19667,7 @@
       </c>
       <c r="F12" s="128"/>
       <c r="G12" s="128">
-        <f t="shared" ref="F12:Q12" si="6">SUM(G9:G11)</f>
+        <f t="shared" ref="G12:Q12" si="6">SUM(G9:G11)</f>
         <v>4012500</v>
       </c>
       <c r="H12" s="128"/>
@@ -20201,11 +20050,6 @@
   </protectedRanges>
   <autoFilter ref="A7:AC10"/>
   <mergeCells count="20">
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="D5:D7"/>
-    <mergeCell ref="E5:E7"/>
     <mergeCell ref="L6:L7"/>
     <mergeCell ref="M6:M7"/>
     <mergeCell ref="N6:N7"/>
@@ -20221,10 +20065,15 @@
     <mergeCell ref="L5:N5"/>
     <mergeCell ref="J6:J7"/>
     <mergeCell ref="K6:K7"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="E5:E7"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0.24" top="0.2" bottom="0.32" header="0.2" footer="0.2"/>
-  <pageSetup paperSize="9" scale="70" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="80" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddFooter>&amp;C&amp;P/&amp;N</oddFooter>
   </headerFooter>
@@ -20310,15 +20159,15 @@
       <c r="AJ1" s="107"/>
       <c r="AK1" s="44"/>
       <c r="AL1" s="44"/>
-      <c r="AM1" s="260" t="s">
+      <c r="AM1" s="256" t="s">
         <v>76</v>
       </c>
-      <c r="AN1" s="261"/>
-      <c r="AO1" s="261"/>
-      <c r="AP1" s="261"/>
-      <c r="AQ1" s="261"/>
-      <c r="AR1" s="261"/>
-      <c r="AS1" s="262"/>
+      <c r="AN1" s="257"/>
+      <c r="AO1" s="257"/>
+      <c r="AP1" s="257"/>
+      <c r="AQ1" s="257"/>
+      <c r="AR1" s="257"/>
+      <c r="AS1" s="258"/>
       <c r="AT1" s="46"/>
     </row>
     <row r="2" spans="1:91" ht="20.25">
@@ -20468,19 +20317,19 @@
       <c r="AT4" s="90"/>
     </row>
     <row r="5" spans="1:91" s="56" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A5" s="257" t="s">
+      <c r="A5" s="266" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="257" t="s">
+      <c r="B5" s="266" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="257" t="s">
+      <c r="C5" s="266" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="259" t="s">
+      <c r="D5" s="264" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="257" t="s">
+      <c r="E5" s="266" t="s">
         <v>27</v>
       </c>
       <c r="F5" s="106">
@@ -20607,30 +20456,30 @@
         <f t="shared" si="0"/>
         <v>43009</v>
       </c>
-      <c r="AK5" s="263" t="s">
+      <c r="AK5" s="259" t="s">
         <v>14</v>
       </c>
-      <c r="AL5" s="264"/>
-      <c r="AM5" s="265"/>
-      <c r="AN5" s="266" t="s">
+      <c r="AL5" s="260"/>
+      <c r="AM5" s="261"/>
+      <c r="AN5" s="262" t="s">
         <v>38</v>
       </c>
-      <c r="AO5" s="266" t="s">
+      <c r="AO5" s="262" t="s">
         <v>34</v>
       </c>
-      <c r="AP5" s="266" t="s">
+      <c r="AP5" s="262" t="s">
         <v>35</v>
       </c>
-      <c r="AQ5" s="266" t="s">
+      <c r="AQ5" s="262" t="s">
         <v>36</v>
       </c>
-      <c r="AR5" s="266" t="s">
+      <c r="AR5" s="262" t="s">
         <v>37</v>
       </c>
-      <c r="AS5" s="259" t="s">
+      <c r="AS5" s="264" t="s">
         <v>0</v>
       </c>
-      <c r="AT5" s="254"/>
+      <c r="AT5" s="267"/>
       <c r="AV5" s="2"/>
       <c r="AW5" s="2"/>
       <c r="AX5" s="2"/>
@@ -20677,11 +20526,11 @@
       <c r="CM5" s="2"/>
     </row>
     <row r="6" spans="1:91" s="56" customFormat="1" ht="39.75" customHeight="1">
-      <c r="A6" s="258"/>
-      <c r="B6" s="258"/>
-      <c r="C6" s="258"/>
-      <c r="D6" s="258"/>
-      <c r="E6" s="258"/>
+      <c r="A6" s="265"/>
+      <c r="B6" s="265"/>
+      <c r="C6" s="265"/>
+      <c r="D6" s="265"/>
+      <c r="E6" s="265"/>
       <c r="F6" s="158" t="str">
         <f>CHOOSE(WEEKDAY(F5),"C.Nhật","T.Hai","T.Ba","T.Tư","T.Năm","T.Sáu","T.Bảy")</f>
         <v>T.Sáu</v>
@@ -20815,13 +20664,13 @@
       <c r="AM6" s="160" t="s">
         <v>16</v>
       </c>
-      <c r="AN6" s="267"/>
-      <c r="AO6" s="267"/>
-      <c r="AP6" s="267"/>
-      <c r="AQ6" s="267"/>
-      <c r="AR6" s="267"/>
-      <c r="AS6" s="258"/>
-      <c r="AT6" s="254"/>
+      <c r="AN6" s="263"/>
+      <c r="AO6" s="263"/>
+      <c r="AP6" s="263"/>
+      <c r="AQ6" s="263"/>
+      <c r="AR6" s="263"/>
+      <c r="AS6" s="265"/>
+      <c r="AT6" s="267"/>
       <c r="AV6" s="2"/>
       <c r="AW6" s="2"/>
       <c r="AX6" s="2"/>
@@ -21102,17 +20951,17 @@
       <c r="AT8" s="163"/>
     </row>
     <row r="9" spans="1:91" s="56" customFormat="1" ht="18" customHeight="1">
-      <c r="A9" s="248">
+      <c r="A9" s="244">
         <v>1</v>
       </c>
-      <c r="B9" s="248" t="s">
+      <c r="B9" s="244" t="s">
         <v>73</v>
       </c>
-      <c r="C9" s="250" t="str">
+      <c r="C9" s="246" t="str">
         <f>VLOOKUP(B9,DS,2,0)</f>
         <v>Mai Thị Hường</v>
       </c>
-      <c r="D9" s="252" t="str">
+      <c r="D9" s="254" t="str">
         <f>VLOOKUP(B9,DS,3,0)</f>
         <v>Kế Toán</v>
       </c>
@@ -21200,29 +21049,29 @@
         <v>8</v>
       </c>
       <c r="AJ9" s="131"/>
-      <c r="AK9" s="240">
+      <c r="AK9" s="252">
         <f>((SUM(F9:AJ9))/8)-(SUMIF($F$6:$AJ$6,"C.Nhật",F9:AJ9)/8)</f>
         <v>25</v>
       </c>
-      <c r="AL9" s="240">
+      <c r="AL9" s="252">
         <f>SUM(F10:AJ10)/8*1.5</f>
         <v>0</v>
       </c>
-      <c r="AM9" s="242">
+      <c r="AM9" s="248">
         <f>SUMIF($F$6:$AJ$6,"C.Nhật",$F9:$AJ10)/8*2</f>
         <v>0</v>
       </c>
-      <c r="AN9" s="244">
+      <c r="AN9" s="240">
         <f>SUM(AK9:AM10)</f>
         <v>25</v>
       </c>
-      <c r="AO9" s="246">
+      <c r="AO9" s="250">
         <v>0</v>
       </c>
-      <c r="AP9" s="244"/>
-      <c r="AQ9" s="244"/>
-      <c r="AR9" s="244"/>
-      <c r="AS9" s="255"/>
+      <c r="AP9" s="240"/>
+      <c r="AQ9" s="240"/>
+      <c r="AR9" s="240"/>
+      <c r="AS9" s="242"/>
       <c r="AT9" s="181"/>
       <c r="AV9" s="2"/>
       <c r="AW9" s="2"/>
@@ -21270,10 +21119,10 @@
       <c r="CM9" s="2"/>
     </row>
     <row r="10" spans="1:91" s="56" customFormat="1" ht="18" customHeight="1">
-      <c r="A10" s="249"/>
-      <c r="B10" s="249"/>
-      <c r="C10" s="251"/>
-      <c r="D10" s="253"/>
+      <c r="A10" s="245"/>
+      <c r="B10" s="245"/>
+      <c r="C10" s="247"/>
+      <c r="D10" s="255"/>
       <c r="E10" s="58" t="s">
         <v>28</v>
       </c>
@@ -21308,15 +21157,15 @@
       <c r="AH10" s="132"/>
       <c r="AI10" s="132"/>
       <c r="AJ10" s="132"/>
-      <c r="AK10" s="241"/>
-      <c r="AL10" s="241"/>
-      <c r="AM10" s="243"/>
-      <c r="AN10" s="245"/>
-      <c r="AO10" s="247"/>
-      <c r="AP10" s="245"/>
-      <c r="AQ10" s="245"/>
-      <c r="AR10" s="245"/>
-      <c r="AS10" s="256"/>
+      <c r="AK10" s="253"/>
+      <c r="AL10" s="253"/>
+      <c r="AM10" s="249"/>
+      <c r="AN10" s="241"/>
+      <c r="AO10" s="251"/>
+      <c r="AP10" s="241"/>
+      <c r="AQ10" s="241"/>
+      <c r="AR10" s="241"/>
+      <c r="AS10" s="243"/>
       <c r="AT10" s="181"/>
       <c r="AV10" s="2"/>
       <c r="AW10" s="2"/>
@@ -21416,17 +21265,17 @@
       <c r="AT11" s="163"/>
     </row>
     <row r="12" spans="1:91" s="56" customFormat="1" ht="18" customHeight="1">
-      <c r="A12" s="248">
+      <c r="A12" s="244">
         <v>1</v>
       </c>
-      <c r="B12" s="248" t="s">
+      <c r="B12" s="244" t="s">
         <v>74</v>
       </c>
-      <c r="C12" s="250" t="str">
+      <c r="C12" s="246" t="str">
         <f>VLOOKUP(B12,DS,2,0)</f>
         <v>Thạch Huy Chạch</v>
       </c>
-      <c r="D12" s="252" t="str">
+      <c r="D12" s="254" t="str">
         <f>VLOOKUP(B12,DS,3,0)</f>
         <v>Công nhân</v>
       </c>
@@ -21514,29 +21363,29 @@
         <v>8</v>
       </c>
       <c r="AJ12" s="131"/>
-      <c r="AK12" s="240">
+      <c r="AK12" s="252">
         <f t="shared" ref="AK12" si="2">((SUM(F12:AJ12))/8)-(SUMIF($F$6:$AJ$6,"C.Nhật",F12:AJ12)/8)</f>
         <v>25</v>
       </c>
-      <c r="AL12" s="240">
+      <c r="AL12" s="252">
         <f t="shared" ref="AL12" si="3">SUM(F13:AJ13)/8*1.5</f>
         <v>0</v>
       </c>
-      <c r="AM12" s="242">
+      <c r="AM12" s="248">
         <f>SUMIF($F$6:$AJ$6,"C.Nhật",$F12:$AJ13)/8*2</f>
         <v>0</v>
       </c>
-      <c r="AN12" s="244">
+      <c r="AN12" s="240">
         <f>SUM(AK12:AM13)</f>
         <v>25</v>
       </c>
-      <c r="AO12" s="246">
+      <c r="AO12" s="250">
         <v>0</v>
       </c>
-      <c r="AP12" s="244"/>
-      <c r="AQ12" s="244"/>
-      <c r="AR12" s="244"/>
-      <c r="AS12" s="255"/>
+      <c r="AP12" s="240"/>
+      <c r="AQ12" s="240"/>
+      <c r="AR12" s="240"/>
+      <c r="AS12" s="242"/>
       <c r="AT12" s="202"/>
       <c r="AU12" s="2"/>
       <c r="AV12" s="2"/>
@@ -21584,10 +21433,10 @@
       <c r="CL12" s="2"/>
     </row>
     <row r="13" spans="1:91" s="56" customFormat="1" ht="18" customHeight="1">
-      <c r="A13" s="249"/>
-      <c r="B13" s="249"/>
-      <c r="C13" s="251"/>
-      <c r="D13" s="253"/>
+      <c r="A13" s="245"/>
+      <c r="B13" s="245"/>
+      <c r="C13" s="247"/>
+      <c r="D13" s="255"/>
       <c r="E13" s="58" t="s">
         <v>28</v>
       </c>
@@ -21622,15 +21471,15 @@
       <c r="AH13" s="132"/>
       <c r="AI13" s="132"/>
       <c r="AJ13" s="132"/>
-      <c r="AK13" s="241"/>
-      <c r="AL13" s="241"/>
-      <c r="AM13" s="243"/>
-      <c r="AN13" s="245"/>
-      <c r="AO13" s="247"/>
-      <c r="AP13" s="245"/>
-      <c r="AQ13" s="245"/>
-      <c r="AR13" s="245"/>
-      <c r="AS13" s="256"/>
+      <c r="AK13" s="253"/>
+      <c r="AL13" s="253"/>
+      <c r="AM13" s="249"/>
+      <c r="AN13" s="241"/>
+      <c r="AO13" s="251"/>
+      <c r="AP13" s="241"/>
+      <c r="AQ13" s="241"/>
+      <c r="AR13" s="241"/>
+      <c r="AS13" s="243"/>
       <c r="AT13" s="202"/>
       <c r="AU13" s="2"/>
       <c r="AV13" s="2"/>
@@ -22167,6 +22016,30 @@
     <protectedRange password="CC78" sqref="B9:B10" name="Range1_4_1"/>
   </protectedRanges>
   <mergeCells count="40">
+    <mergeCell ref="AO9:AO10"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="AK12:AK13"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="AT5:AT6"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="AK9:AK10"/>
+    <mergeCell ref="AL9:AL10"/>
+    <mergeCell ref="AS9:AS10"/>
+    <mergeCell ref="AP9:AP10"/>
+    <mergeCell ref="AQ9:AQ10"/>
+    <mergeCell ref="AR9:AR10"/>
+    <mergeCell ref="AM9:AM10"/>
+    <mergeCell ref="AN9:AN10"/>
     <mergeCell ref="AR12:AR13"/>
     <mergeCell ref="AS12:AS13"/>
     <mergeCell ref="AM1:AS1"/>
@@ -22183,73 +22056,49 @@
     <mergeCell ref="AM12:AM13"/>
     <mergeCell ref="AN12:AN13"/>
     <mergeCell ref="AO12:AO13"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="AT5:AT6"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="AK9:AK10"/>
-    <mergeCell ref="AL9:AL10"/>
-    <mergeCell ref="AS9:AS10"/>
-    <mergeCell ref="AP9:AP10"/>
-    <mergeCell ref="AQ9:AQ10"/>
-    <mergeCell ref="AR9:AR10"/>
-    <mergeCell ref="AM9:AM10"/>
-    <mergeCell ref="AN9:AN10"/>
-    <mergeCell ref="AO9:AO10"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="AK12:AK13"/>
   </mergeCells>
   <conditionalFormatting sqref="F5:AJ6 F9:AJ10 F12:AI13">
-    <cfRule type="expression" dxfId="28" priority="61" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="61" stopIfTrue="1">
       <formula>IF(WEEKDAY(F$5)=1,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9:AJ10">
-    <cfRule type="expression" dxfId="27" priority="60" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="60" stopIfTrue="1">
       <formula>IF(WEEKDAY(F$5)=1,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ12:AJ13">
-    <cfRule type="expression" dxfId="26" priority="47" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="47" stopIfTrue="1">
       <formula>IF(WEEKDAY(AJ$5)=1,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ12:AJ13">
-    <cfRule type="expression" dxfId="25" priority="46" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="46" stopIfTrue="1">
       <formula>IF(WEEKDAY(AJ$5)=1,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ12:AJ13">
-    <cfRule type="expression" dxfId="24" priority="45" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="45" stopIfTrue="1">
       <formula>IF(WEEKDAY(AJ$5)=1,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ12:AJ13">
-    <cfRule type="expression" dxfId="23" priority="44" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="44" stopIfTrue="1">
       <formula>IF(WEEKDAY(AJ$5)=1,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ12:AJ13">
-    <cfRule type="expression" dxfId="22" priority="43" stopIfTrue="1">
+    <cfRule type="expression" dxfId="8" priority="43" stopIfTrue="1">
       <formula>IF(WEEKDAY(AJ$5)=1,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ12:AJ13">
-    <cfRule type="expression" dxfId="21" priority="42" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="42" stopIfTrue="1">
       <formula>IF(WEEKDAY(AJ$5)=1,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ12:AJ13">
-    <cfRule type="expression" dxfId="20" priority="41" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="41" stopIfTrue="1">
       <formula>IF(WEEKDAY(AJ$5)=1,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -22312,26 +22161,26 @@
       <c r="A1" s="127"/>
       <c r="B1" s="183"/>
       <c r="C1" s="183"/>
-      <c r="D1" s="272" t="str">
+      <c r="D1" s="274" t="str">
         <f>"BẢNG THANH TOÁN LƯƠNG THÁNG"&amp;" "&amp;TEXT($E$4,"mm")&amp;" / "&amp;TEXT($E$4,"yyyy")</f>
         <v>BẢNG THANH TOÁN LƯƠNG THÁNG 09 / 2017</v>
       </c>
-      <c r="E1" s="272"/>
-      <c r="F1" s="272"/>
-      <c r="G1" s="272"/>
-      <c r="H1" s="272"/>
-      <c r="I1" s="272"/>
-      <c r="J1" s="272"/>
-      <c r="K1" s="272"/>
-      <c r="L1" s="272"/>
-      <c r="M1" s="272"/>
-      <c r="N1" s="272"/>
-      <c r="O1" s="273"/>
-      <c r="P1" s="274" t="s">
+      <c r="E1" s="274"/>
+      <c r="F1" s="274"/>
+      <c r="G1" s="274"/>
+      <c r="H1" s="274"/>
+      <c r="I1" s="274"/>
+      <c r="J1" s="274"/>
+      <c r="K1" s="274"/>
+      <c r="L1" s="274"/>
+      <c r="M1" s="274"/>
+      <c r="N1" s="274"/>
+      <c r="O1" s="275"/>
+      <c r="P1" s="276" t="s">
         <v>76</v>
       </c>
-      <c r="Q1" s="275"/>
-      <c r="R1" s="276"/>
+      <c r="Q1" s="277"/>
+      <c r="R1" s="278"/>
       <c r="S1" s="118" t="s">
         <v>49</v>
       </c>
@@ -22436,34 +22285,34 @@
       <c r="X4" s="94"/>
     </row>
     <row r="5" spans="1:29" s="22" customFormat="1" ht="24" customHeight="1">
-      <c r="A5" s="282" t="s">
+      <c r="A5" s="268" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="282" t="s">
+      <c r="B5" s="268" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="233" t="s">
+      <c r="C5" s="235" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="233" t="s">
+      <c r="D5" s="235" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="236" t="s">
+      <c r="E5" s="238" t="s">
         <v>48</v>
       </c>
-      <c r="F5" s="277" t="s">
+      <c r="F5" s="279" t="s">
         <v>23</v>
       </c>
-      <c r="G5" s="278"/>
-      <c r="H5" s="278"/>
-      <c r="I5" s="278"/>
-      <c r="J5" s="278"/>
-      <c r="K5" s="279"/>
-      <c r="L5" s="233" t="s">
+      <c r="G5" s="280"/>
+      <c r="H5" s="280"/>
+      <c r="I5" s="280"/>
+      <c r="J5" s="280"/>
+      <c r="K5" s="281"/>
+      <c r="L5" s="235" t="s">
         <v>5</v>
       </c>
-      <c r="M5" s="233"/>
-      <c r="N5" s="233"/>
+      <c r="M5" s="235"/>
+      <c r="N5" s="235"/>
       <c r="O5" s="270" t="s">
         <v>6</v>
       </c>
@@ -22473,7 +22322,7 @@
       <c r="Q5" s="270" t="s">
         <v>8</v>
       </c>
-      <c r="R5" s="234" t="s">
+      <c r="R5" s="236" t="s">
         <v>9</v>
       </c>
       <c r="S5" s="92"/>
@@ -22489,26 +22338,26 @@
       <c r="AC5" s="4"/>
     </row>
     <row r="6" spans="1:29" s="22" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A6" s="283"/>
-      <c r="B6" s="283"/>
-      <c r="C6" s="233"/>
-      <c r="D6" s="233"/>
-      <c r="E6" s="236"/>
-      <c r="F6" s="277" t="s">
+      <c r="A6" s="269"/>
+      <c r="B6" s="269"/>
+      <c r="C6" s="235"/>
+      <c r="D6" s="235"/>
+      <c r="E6" s="238"/>
+      <c r="F6" s="279" t="s">
         <v>50</v>
       </c>
-      <c r="G6" s="279"/>
-      <c r="H6" s="277" t="s">
+      <c r="G6" s="281"/>
+      <c r="H6" s="279" t="s">
         <v>69</v>
       </c>
-      <c r="I6" s="278"/>
-      <c r="J6" s="280" t="s">
+      <c r="I6" s="280"/>
+      <c r="J6" s="282" t="s">
         <v>24</v>
       </c>
       <c r="K6" s="270" t="s">
         <v>4</v>
       </c>
-      <c r="L6" s="268" t="s">
+      <c r="L6" s="271" t="s">
         <v>11</v>
       </c>
       <c r="M6" s="270" t="s">
@@ -22517,10 +22366,10 @@
       <c r="N6" s="270" t="s">
         <v>30</v>
       </c>
-      <c r="O6" s="271"/>
-      <c r="P6" s="271"/>
-      <c r="Q6" s="271"/>
-      <c r="R6" s="235"/>
+      <c r="O6" s="273"/>
+      <c r="P6" s="273"/>
+      <c r="Q6" s="273"/>
+      <c r="R6" s="237"/>
       <c r="S6" s="92"/>
       <c r="T6" s="23"/>
       <c r="U6" s="23"/>
@@ -22534,11 +22383,11 @@
       <c r="AC6" s="4"/>
     </row>
     <row r="7" spans="1:29" s="22" customFormat="1" ht="35.25" customHeight="1">
-      <c r="A7" s="283"/>
-      <c r="B7" s="283"/>
+      <c r="A7" s="269"/>
+      <c r="B7" s="269"/>
       <c r="C7" s="270"/>
       <c r="D7" s="270"/>
-      <c r="E7" s="236"/>
+      <c r="E7" s="238"/>
       <c r="F7" s="182" t="s">
         <v>33</v>
       </c>
@@ -22551,15 +22400,15 @@
       <c r="I7" s="116" t="s">
         <v>17</v>
       </c>
-      <c r="J7" s="281"/>
-      <c r="K7" s="271"/>
-      <c r="L7" s="269"/>
-      <c r="M7" s="271"/>
-      <c r="N7" s="271"/>
-      <c r="O7" s="271"/>
-      <c r="P7" s="271"/>
-      <c r="Q7" s="271"/>
-      <c r="R7" s="235"/>
+      <c r="J7" s="283"/>
+      <c r="K7" s="273"/>
+      <c r="L7" s="272"/>
+      <c r="M7" s="273"/>
+      <c r="N7" s="273"/>
+      <c r="O7" s="273"/>
+      <c r="P7" s="273"/>
+      <c r="Q7" s="273"/>
+      <c r="R7" s="237"/>
       <c r="S7" s="92"/>
       <c r="T7" s="23"/>
       <c r="U7" s="23"/>
@@ -23175,11 +23024,6 @@
   </protectedRanges>
   <autoFilter ref="A7:AC10"/>
   <mergeCells count="20">
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="D5:D7"/>
-    <mergeCell ref="E5:E7"/>
     <mergeCell ref="L6:L7"/>
     <mergeCell ref="M6:M7"/>
     <mergeCell ref="N6:N7"/>
@@ -23195,10 +23039,15 @@
     <mergeCell ref="L5:N5"/>
     <mergeCell ref="J6:J7"/>
     <mergeCell ref="K6:K7"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="E5:E7"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0.24" top="0.2" bottom="0.32" header="0.2" footer="0.2"/>
-  <pageSetup paperSize="9" scale="70" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="80" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddFooter>&amp;C&amp;P/&amp;N</oddFooter>
   </headerFooter>
@@ -23217,7 +23066,7 @@
       <selection activeCell="A2" sqref="A2:A3"/>
       <selection pane="topRight" activeCell="A2" sqref="A2:A3"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2:A3"/>
-      <selection pane="bottomRight" activeCell="G9" sqref="G9:AI17"/>
+      <selection pane="bottomRight" activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.7109375" defaultRowHeight="15" customHeight="1"/>
@@ -23283,15 +23132,15 @@
       <c r="AJ1" s="107"/>
       <c r="AK1" s="44"/>
       <c r="AL1" s="44"/>
-      <c r="AM1" s="260" t="s">
+      <c r="AM1" s="256" t="s">
         <v>76</v>
       </c>
-      <c r="AN1" s="261"/>
-      <c r="AO1" s="261"/>
-      <c r="AP1" s="261"/>
-      <c r="AQ1" s="261"/>
-      <c r="AR1" s="261"/>
-      <c r="AS1" s="262"/>
+      <c r="AN1" s="257"/>
+      <c r="AO1" s="257"/>
+      <c r="AP1" s="257"/>
+      <c r="AQ1" s="257"/>
+      <c r="AR1" s="257"/>
+      <c r="AS1" s="258"/>
       <c r="AT1" s="46"/>
     </row>
     <row r="2" spans="1:91" ht="20.25">
@@ -23441,19 +23290,19 @@
       <c r="AT4" s="90"/>
     </row>
     <row r="5" spans="1:91" s="56" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A5" s="257" t="s">
+      <c r="A5" s="266" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="257" t="s">
+      <c r="B5" s="266" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="257" t="s">
+      <c r="C5" s="266" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="259" t="s">
+      <c r="D5" s="264" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="257" t="s">
+      <c r="E5" s="266" t="s">
         <v>27</v>
       </c>
       <c r="F5" s="106">
@@ -23580,30 +23429,30 @@
         <f t="shared" si="0"/>
         <v>42766</v>
       </c>
-      <c r="AK5" s="263" t="s">
+      <c r="AK5" s="259" t="s">
         <v>14</v>
       </c>
-      <c r="AL5" s="264"/>
-      <c r="AM5" s="265"/>
-      <c r="AN5" s="266" t="s">
+      <c r="AL5" s="260"/>
+      <c r="AM5" s="261"/>
+      <c r="AN5" s="262" t="s">
         <v>38</v>
       </c>
-      <c r="AO5" s="266" t="s">
+      <c r="AO5" s="262" t="s">
         <v>34</v>
       </c>
-      <c r="AP5" s="266" t="s">
+      <c r="AP5" s="262" t="s">
         <v>35</v>
       </c>
-      <c r="AQ5" s="266" t="s">
+      <c r="AQ5" s="262" t="s">
         <v>36</v>
       </c>
-      <c r="AR5" s="266" t="s">
+      <c r="AR5" s="262" t="s">
         <v>37</v>
       </c>
-      <c r="AS5" s="259" t="s">
+      <c r="AS5" s="264" t="s">
         <v>0</v>
       </c>
-      <c r="AT5" s="254"/>
+      <c r="AT5" s="267"/>
       <c r="AV5" s="2"/>
       <c r="AW5" s="2"/>
       <c r="AX5" s="2"/>
@@ -23650,11 +23499,11 @@
       <c r="CM5" s="2"/>
     </row>
     <row r="6" spans="1:91" s="56" customFormat="1" ht="39.75" customHeight="1">
-      <c r="A6" s="258"/>
-      <c r="B6" s="258"/>
-      <c r="C6" s="258"/>
-      <c r="D6" s="258"/>
-      <c r="E6" s="258"/>
+      <c r="A6" s="265"/>
+      <c r="B6" s="265"/>
+      <c r="C6" s="265"/>
+      <c r="D6" s="265"/>
+      <c r="E6" s="265"/>
       <c r="F6" s="158" t="str">
         <f>CHOOSE(WEEKDAY(F5),"C.Nhật","T.Hai","T.Ba","T.Tư","T.Năm","T.Sáu","T.Bảy")</f>
         <v>C.Nhật</v>
@@ -23788,13 +23637,13 @@
       <c r="AM6" s="160" t="s">
         <v>16</v>
       </c>
-      <c r="AN6" s="267"/>
-      <c r="AO6" s="267"/>
-      <c r="AP6" s="267"/>
-      <c r="AQ6" s="267"/>
-      <c r="AR6" s="267"/>
-      <c r="AS6" s="258"/>
-      <c r="AT6" s="254"/>
+      <c r="AN6" s="263"/>
+      <c r="AO6" s="263"/>
+      <c r="AP6" s="263"/>
+      <c r="AQ6" s="263"/>
+      <c r="AR6" s="263"/>
+      <c r="AS6" s="265"/>
+      <c r="AT6" s="267"/>
       <c r="AV6" s="2"/>
       <c r="AW6" s="2"/>
       <c r="AX6" s="2"/>
@@ -24075,17 +23924,17 @@
       <c r="AT8" s="163"/>
     </row>
     <row r="9" spans="1:91" s="56" customFormat="1" ht="18" customHeight="1">
-      <c r="A9" s="248">
+      <c r="A9" s="244">
         <v>1</v>
       </c>
-      <c r="B9" s="248" t="s">
+      <c r="B9" s="244" t="s">
         <v>72</v>
       </c>
-      <c r="C9" s="250" t="str">
+      <c r="C9" s="246" t="str">
         <f>VLOOKUP(B9,DS,2,0)</f>
         <v>Nguyễn Phước Bảo Việt Hùng</v>
       </c>
-      <c r="D9" s="252" t="str">
+      <c r="D9" s="254" t="str">
         <f>VLOOKUP(B9,DS,3,0)</f>
         <v>Kinh Doanh</v>
       </c>
@@ -24165,29 +24014,29 @@
       <c r="AH9" s="131"/>
       <c r="AI9" s="131"/>
       <c r="AJ9" s="131"/>
-      <c r="AK9" s="240">
+      <c r="AK9" s="252">
         <f t="shared" ref="AK9" si="2">((SUM(F9:AJ9))/8)-(SUMIF($F$6:$AJ$6,"C.Nhật",F9:AJ9)/8)</f>
         <v>21</v>
       </c>
-      <c r="AL9" s="240">
+      <c r="AL9" s="252">
         <f t="shared" ref="AL9" si="3">SUM(F10:AJ10)/8*1.5</f>
         <v>0</v>
       </c>
-      <c r="AM9" s="242">
+      <c r="AM9" s="248">
         <f t="shared" ref="AM9:AM13" si="4">SUMIF($F$6:$AJ$6,"C.Nhật",$F9:$AJ10)/8*2</f>
         <v>0</v>
       </c>
-      <c r="AN9" s="244">
+      <c r="AN9" s="240">
         <f t="shared" ref="AN9" si="5">SUM(AK9:AM10)</f>
         <v>21</v>
       </c>
-      <c r="AO9" s="246">
+      <c r="AO9" s="250">
         <v>0</v>
       </c>
-      <c r="AP9" s="244"/>
-      <c r="AQ9" s="244"/>
-      <c r="AR9" s="244"/>
-      <c r="AS9" s="255"/>
+      <c r="AP9" s="240"/>
+      <c r="AQ9" s="240"/>
+      <c r="AR9" s="240"/>
+      <c r="AS9" s="242"/>
       <c r="AT9" s="202"/>
       <c r="AV9" s="2"/>
       <c r="AW9" s="2"/>
@@ -24235,10 +24084,10 @@
       <c r="CM9" s="2"/>
     </row>
     <row r="10" spans="1:91" s="56" customFormat="1" ht="18" customHeight="1">
-      <c r="A10" s="249"/>
-      <c r="B10" s="249"/>
-      <c r="C10" s="251"/>
-      <c r="D10" s="253"/>
+      <c r="A10" s="245"/>
+      <c r="B10" s="245"/>
+      <c r="C10" s="247"/>
+      <c r="D10" s="255"/>
       <c r="E10" s="58" t="s">
         <v>28</v>
       </c>
@@ -24273,15 +24122,15 @@
       <c r="AH10" s="132"/>
       <c r="AI10" s="132"/>
       <c r="AJ10" s="132"/>
-      <c r="AK10" s="241"/>
-      <c r="AL10" s="241"/>
-      <c r="AM10" s="243"/>
-      <c r="AN10" s="245"/>
-      <c r="AO10" s="247"/>
-      <c r="AP10" s="245"/>
-      <c r="AQ10" s="245"/>
-      <c r="AR10" s="245"/>
-      <c r="AS10" s="256"/>
+      <c r="AK10" s="253"/>
+      <c r="AL10" s="253"/>
+      <c r="AM10" s="249"/>
+      <c r="AN10" s="241"/>
+      <c r="AO10" s="251"/>
+      <c r="AP10" s="241"/>
+      <c r="AQ10" s="241"/>
+      <c r="AR10" s="241"/>
+      <c r="AS10" s="243"/>
       <c r="AT10" s="202"/>
       <c r="AV10" s="2"/>
       <c r="AW10" s="2"/>
@@ -24329,17 +24178,17 @@
       <c r="CM10" s="2"/>
     </row>
     <row r="11" spans="1:91" s="56" customFormat="1" ht="18" customHeight="1">
-      <c r="A11" s="248">
+      <c r="A11" s="244">
         <v>2</v>
       </c>
-      <c r="B11" s="248" t="s">
+      <c r="B11" s="244" t="s">
         <v>73</v>
       </c>
-      <c r="C11" s="250" t="str">
+      <c r="C11" s="246" t="str">
         <f>VLOOKUP(B11,DS,2,0)</f>
         <v>Mai Thị Hường</v>
       </c>
-      <c r="D11" s="252" t="str">
+      <c r="D11" s="254" t="str">
         <f>VLOOKUP(B11,DS,3,0)</f>
         <v>Kế Toán</v>
       </c>
@@ -24419,29 +24268,29 @@
       <c r="AH11" s="131"/>
       <c r="AI11" s="131"/>
       <c r="AJ11" s="131"/>
-      <c r="AK11" s="240">
+      <c r="AK11" s="252">
         <f t="shared" ref="AK11" si="6">((SUM(F11:AJ11))/8)-(SUMIF($F$6:$AJ$6,"C.Nhật",F11:AJ11)/8)</f>
         <v>21</v>
       </c>
-      <c r="AL11" s="240">
+      <c r="AL11" s="252">
         <f t="shared" ref="AL11" si="7">SUM(F12:AJ12)/8*1.5</f>
         <v>0</v>
       </c>
-      <c r="AM11" s="242">
+      <c r="AM11" s="248">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AN11" s="244">
+      <c r="AN11" s="240">
         <f t="shared" ref="AN11" si="8">SUM(AK11:AM12)</f>
         <v>21</v>
       </c>
-      <c r="AO11" s="246">
+      <c r="AO11" s="250">
         <v>0</v>
       </c>
-      <c r="AP11" s="244"/>
-      <c r="AQ11" s="244"/>
-      <c r="AR11" s="244"/>
-      <c r="AS11" s="255"/>
+      <c r="AP11" s="240"/>
+      <c r="AQ11" s="240"/>
+      <c r="AR11" s="240"/>
+      <c r="AS11" s="242"/>
       <c r="AT11" s="213"/>
       <c r="AV11" s="2"/>
       <c r="AW11" s="2"/>
@@ -24489,10 +24338,10 @@
       <c r="CM11" s="2"/>
     </row>
     <row r="12" spans="1:91" s="56" customFormat="1" ht="18" customHeight="1">
-      <c r="A12" s="249"/>
-      <c r="B12" s="249"/>
-      <c r="C12" s="251"/>
-      <c r="D12" s="253"/>
+      <c r="A12" s="245"/>
+      <c r="B12" s="245"/>
+      <c r="C12" s="247"/>
+      <c r="D12" s="255"/>
       <c r="E12" s="58" t="s">
         <v>28</v>
       </c>
@@ -24527,15 +24376,15 @@
       <c r="AH12" s="132"/>
       <c r="AI12" s="132"/>
       <c r="AJ12" s="132"/>
-      <c r="AK12" s="241"/>
-      <c r="AL12" s="241"/>
-      <c r="AM12" s="243"/>
-      <c r="AN12" s="245"/>
-      <c r="AO12" s="247"/>
-      <c r="AP12" s="245"/>
-      <c r="AQ12" s="245"/>
-      <c r="AR12" s="245"/>
-      <c r="AS12" s="256"/>
+      <c r="AK12" s="253"/>
+      <c r="AL12" s="253"/>
+      <c r="AM12" s="249"/>
+      <c r="AN12" s="241"/>
+      <c r="AO12" s="251"/>
+      <c r="AP12" s="241"/>
+      <c r="AQ12" s="241"/>
+      <c r="AR12" s="241"/>
+      <c r="AS12" s="243"/>
       <c r="AT12" s="213"/>
       <c r="AV12" s="2"/>
       <c r="AW12" s="2"/>
@@ -24583,17 +24432,17 @@
       <c r="CM12" s="2"/>
     </row>
     <row r="13" spans="1:91" s="56" customFormat="1" ht="18" customHeight="1">
-      <c r="A13" s="248">
+      <c r="A13" s="244">
         <v>3</v>
       </c>
-      <c r="B13" s="248" t="s">
+      <c r="B13" s="244" t="s">
         <v>93</v>
       </c>
-      <c r="C13" s="250" t="str">
+      <c r="C13" s="246" t="str">
         <f>VLOOKUP(B13,DS,2,0)</f>
         <v>Đào Quảng Ninh</v>
       </c>
-      <c r="D13" s="252" t="str">
+      <c r="D13" s="254" t="str">
         <f>VLOOKUP(B13,DS,3,0)</f>
         <v>Giao Hàng</v>
       </c>
@@ -24673,29 +24522,29 @@
       <c r="AH13" s="131"/>
       <c r="AI13" s="131"/>
       <c r="AJ13" s="131"/>
-      <c r="AK13" s="240">
+      <c r="AK13" s="252">
         <f t="shared" ref="AK13" si="9">((SUM(F13:AJ13))/8)-(SUMIF($F$6:$AJ$6,"C.Nhật",F13:AJ13)/8)</f>
         <v>21</v>
       </c>
-      <c r="AL13" s="240">
+      <c r="AL13" s="252">
         <f t="shared" ref="AL13" si="10">SUM(F14:AJ14)/8*1.5</f>
         <v>0</v>
       </c>
-      <c r="AM13" s="242">
+      <c r="AM13" s="248">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AN13" s="244">
+      <c r="AN13" s="240">
         <f t="shared" ref="AN13" si="11">SUM(AK13:AM14)</f>
         <v>21</v>
       </c>
-      <c r="AO13" s="246">
+      <c r="AO13" s="250">
         <v>0</v>
       </c>
-      <c r="AP13" s="244"/>
-      <c r="AQ13" s="244"/>
-      <c r="AR13" s="244"/>
-      <c r="AS13" s="255"/>
+      <c r="AP13" s="240"/>
+      <c r="AQ13" s="240"/>
+      <c r="AR13" s="240"/>
+      <c r="AS13" s="242"/>
       <c r="AT13" s="209"/>
       <c r="AV13" s="2"/>
       <c r="AW13" s="2"/>
@@ -24743,10 +24592,10 @@
       <c r="CM13" s="2"/>
     </row>
     <row r="14" spans="1:91" s="56" customFormat="1" ht="18" customHeight="1">
-      <c r="A14" s="249"/>
-      <c r="B14" s="249"/>
-      <c r="C14" s="251"/>
-      <c r="D14" s="253"/>
+      <c r="A14" s="245"/>
+      <c r="B14" s="245"/>
+      <c r="C14" s="247"/>
+      <c r="D14" s="255"/>
       <c r="E14" s="58" t="s">
         <v>28</v>
       </c>
@@ -24781,15 +24630,15 @@
       <c r="AH14" s="132"/>
       <c r="AI14" s="132"/>
       <c r="AJ14" s="132"/>
-      <c r="AK14" s="241"/>
-      <c r="AL14" s="241"/>
-      <c r="AM14" s="243"/>
-      <c r="AN14" s="245"/>
-      <c r="AO14" s="247"/>
-      <c r="AP14" s="245"/>
-      <c r="AQ14" s="245"/>
-      <c r="AR14" s="245"/>
-      <c r="AS14" s="256"/>
+      <c r="AK14" s="253"/>
+      <c r="AL14" s="253"/>
+      <c r="AM14" s="249"/>
+      <c r="AN14" s="241"/>
+      <c r="AO14" s="251"/>
+      <c r="AP14" s="241"/>
+      <c r="AQ14" s="241"/>
+      <c r="AR14" s="241"/>
+      <c r="AS14" s="243"/>
       <c r="AT14" s="209"/>
       <c r="AV14" s="2"/>
       <c r="AW14" s="2"/>
@@ -24889,17 +24738,17 @@
       <c r="AT15" s="163"/>
     </row>
     <row r="16" spans="1:91" s="56" customFormat="1" ht="18" customHeight="1">
-      <c r="A16" s="248">
+      <c r="A16" s="244">
         <v>1</v>
       </c>
-      <c r="B16" s="248" t="s">
+      <c r="B16" s="244" t="s">
         <v>74</v>
       </c>
-      <c r="C16" s="250" t="str">
+      <c r="C16" s="246" t="str">
         <f>VLOOKUP(B16,DS,2,0)</f>
         <v>Thạch Huy Chạch</v>
       </c>
-      <c r="D16" s="252" t="str">
+      <c r="D16" s="254" t="str">
         <f>VLOOKUP(B16,DS,3,0)</f>
         <v>Công nhân</v>
       </c>
@@ -24979,29 +24828,29 @@
       <c r="AH16" s="131"/>
       <c r="AI16" s="131"/>
       <c r="AJ16" s="131"/>
-      <c r="AK16" s="240">
+      <c r="AK16" s="252">
         <f t="shared" ref="AK16" si="12">((SUM(F16:AJ16))/8)-(SUMIF($F$6:$AJ$6,"C.Nhật",F16:AJ16)/8)</f>
         <v>21</v>
       </c>
-      <c r="AL16" s="240">
+      <c r="AL16" s="252">
         <f t="shared" ref="AL16" si="13">SUM(F17:AJ17)/8*1.5</f>
         <v>0</v>
       </c>
-      <c r="AM16" s="242">
+      <c r="AM16" s="248">
         <f>SUMIF($F$6:$AJ$6,"C.Nhật",$F16:$AJ17)/8*2</f>
         <v>0</v>
       </c>
-      <c r="AN16" s="244">
+      <c r="AN16" s="240">
         <f>SUM(AK16:AM17)</f>
         <v>21</v>
       </c>
-      <c r="AO16" s="246">
+      <c r="AO16" s="250">
         <v>0</v>
       </c>
-      <c r="AP16" s="244"/>
-      <c r="AQ16" s="244"/>
-      <c r="AR16" s="244"/>
-      <c r="AS16" s="255"/>
+      <c r="AP16" s="240"/>
+      <c r="AQ16" s="240"/>
+      <c r="AR16" s="240"/>
+      <c r="AS16" s="242"/>
       <c r="AT16" s="202"/>
       <c r="AU16" s="2"/>
       <c r="AV16" s="2"/>
@@ -25049,10 +24898,10 @@
       <c r="CL16" s="2"/>
     </row>
     <row r="17" spans="1:91" s="56" customFormat="1" ht="18" customHeight="1">
-      <c r="A17" s="249"/>
-      <c r="B17" s="249"/>
-      <c r="C17" s="251"/>
-      <c r="D17" s="253"/>
+      <c r="A17" s="245"/>
+      <c r="B17" s="245"/>
+      <c r="C17" s="247"/>
+      <c r="D17" s="255"/>
       <c r="E17" s="58" t="s">
         <v>28</v>
       </c>
@@ -25087,15 +24936,15 @@
       <c r="AH17" s="132"/>
       <c r="AI17" s="132"/>
       <c r="AJ17" s="132"/>
-      <c r="AK17" s="241"/>
-      <c r="AL17" s="241"/>
-      <c r="AM17" s="243"/>
-      <c r="AN17" s="245"/>
-      <c r="AO17" s="247"/>
-      <c r="AP17" s="245"/>
-      <c r="AQ17" s="245"/>
-      <c r="AR17" s="245"/>
-      <c r="AS17" s="256"/>
+      <c r="AK17" s="253"/>
+      <c r="AL17" s="253"/>
+      <c r="AM17" s="249"/>
+      <c r="AN17" s="241"/>
+      <c r="AO17" s="251"/>
+      <c r="AP17" s="241"/>
+      <c r="AQ17" s="241"/>
+      <c r="AR17" s="241"/>
+      <c r="AS17" s="243"/>
       <c r="AT17" s="202"/>
       <c r="AU17" s="2"/>
       <c r="AV17" s="2"/>
@@ -26166,15 +26015,47 @@
     <protectedRange password="CC78" sqref="B16:B17" name="Range1_4_2"/>
   </protectedRanges>
   <mergeCells count="66">
-    <mergeCell ref="AQ16:AQ17"/>
-    <mergeCell ref="AR16:AR17"/>
-    <mergeCell ref="AS16:AS17"/>
-    <mergeCell ref="AS11:AS12"/>
-    <mergeCell ref="AS13:AS14"/>
-    <mergeCell ref="AQ13:AQ14"/>
-    <mergeCell ref="AR13:AR14"/>
-    <mergeCell ref="AQ11:AQ12"/>
-    <mergeCell ref="AR11:AR12"/>
+    <mergeCell ref="AL16:AL17"/>
+    <mergeCell ref="AM16:AM17"/>
+    <mergeCell ref="AN16:AN17"/>
+    <mergeCell ref="AO16:AO17"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="AM13:AM14"/>
+    <mergeCell ref="AN13:AN14"/>
+    <mergeCell ref="AO13:AO14"/>
+    <mergeCell ref="AT5:AT6"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="AK9:AK10"/>
+    <mergeCell ref="AL9:AL10"/>
+    <mergeCell ref="AM9:AM10"/>
+    <mergeCell ref="AN9:AN10"/>
+    <mergeCell ref="AO9:AO10"/>
+    <mergeCell ref="AP9:AP10"/>
+    <mergeCell ref="AQ9:AQ10"/>
+    <mergeCell ref="AR9:AR10"/>
+    <mergeCell ref="AS9:AS10"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="AL13:AL14"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="AK11:AK12"/>
+    <mergeCell ref="AL11:AL12"/>
+    <mergeCell ref="AM1:AS1"/>
+    <mergeCell ref="AK5:AM5"/>
+    <mergeCell ref="AN5:AN6"/>
+    <mergeCell ref="AO5:AO6"/>
+    <mergeCell ref="AP5:AP6"/>
+    <mergeCell ref="AQ5:AQ6"/>
+    <mergeCell ref="AR5:AR6"/>
+    <mergeCell ref="AS5:AS6"/>
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="A11:A12"/>
     <mergeCell ref="B11:B12"/>
@@ -26191,225 +26072,193 @@
     <mergeCell ref="C16:C17"/>
     <mergeCell ref="D16:D17"/>
     <mergeCell ref="AK16:AK17"/>
-    <mergeCell ref="AM1:AS1"/>
-    <mergeCell ref="AK5:AM5"/>
-    <mergeCell ref="AN5:AN6"/>
-    <mergeCell ref="AO5:AO6"/>
-    <mergeCell ref="AP5:AP6"/>
-    <mergeCell ref="AQ5:AQ6"/>
-    <mergeCell ref="AR5:AR6"/>
-    <mergeCell ref="AS5:AS6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="AL13:AL14"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="AK11:AK12"/>
-    <mergeCell ref="AL11:AL12"/>
-    <mergeCell ref="AT5:AT6"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="AK9:AK10"/>
-    <mergeCell ref="AL9:AL10"/>
-    <mergeCell ref="AM9:AM10"/>
-    <mergeCell ref="AN9:AN10"/>
-    <mergeCell ref="AO9:AO10"/>
-    <mergeCell ref="AP9:AP10"/>
-    <mergeCell ref="AQ9:AQ10"/>
-    <mergeCell ref="AR9:AR10"/>
-    <mergeCell ref="AS9:AS10"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="AL16:AL17"/>
-    <mergeCell ref="AM16:AM17"/>
-    <mergeCell ref="AN16:AN17"/>
-    <mergeCell ref="AO16:AO17"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="AM13:AM14"/>
-    <mergeCell ref="AN13:AN14"/>
-    <mergeCell ref="AO13:AO14"/>
+    <mergeCell ref="AQ16:AQ17"/>
+    <mergeCell ref="AR16:AR17"/>
+    <mergeCell ref="AS16:AS17"/>
+    <mergeCell ref="AS11:AS12"/>
+    <mergeCell ref="AS13:AS14"/>
+    <mergeCell ref="AQ13:AQ14"/>
+    <mergeCell ref="AR13:AR14"/>
+    <mergeCell ref="AQ11:AQ12"/>
+    <mergeCell ref="AR11:AR12"/>
   </mergeCells>
   <conditionalFormatting sqref="F5:AJ6 AJ13:AJ14 F13 F9 AJ9:AJ10">
-    <cfRule type="expression" dxfId="120" priority="71" stopIfTrue="1">
+    <cfRule type="expression" dxfId="98" priority="71" stopIfTrue="1">
       <formula>IF(WEEKDAY(F$5)=1,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ13:AJ14 F13 F9 AJ9:AJ10">
-    <cfRule type="expression" dxfId="119" priority="70" stopIfTrue="1">
+    <cfRule type="expression" dxfId="97" priority="70" stopIfTrue="1">
       <formula>IF(WEEKDAY(F$5)=1,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10 F14">
-    <cfRule type="expression" dxfId="118" priority="68" stopIfTrue="1">
+    <cfRule type="expression" dxfId="96" priority="68" stopIfTrue="1">
       <formula>IF(WEEKDAY(F$5)=1,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10 F14">
-    <cfRule type="expression" dxfId="117" priority="67" stopIfTrue="1">
+    <cfRule type="expression" dxfId="95" priority="67" stopIfTrue="1">
       <formula>IF(WEEKDAY(F$5)=1,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ16:AJ17 F16">
-    <cfRule type="expression" dxfId="116" priority="36" stopIfTrue="1">
+    <cfRule type="expression" dxfId="94" priority="36" stopIfTrue="1">
       <formula>IF(WEEKDAY(F$5)=1,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ16:AJ17 F16">
-    <cfRule type="expression" dxfId="115" priority="35" stopIfTrue="1">
+    <cfRule type="expression" dxfId="93" priority="35" stopIfTrue="1">
       <formula>IF(WEEKDAY(F$5)=1,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17">
-    <cfRule type="expression" dxfId="114" priority="34" stopIfTrue="1">
+    <cfRule type="expression" dxfId="92" priority="34" stopIfTrue="1">
       <formula>IF(WEEKDAY(F$5)=1,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17">
-    <cfRule type="expression" dxfId="113" priority="33" stopIfTrue="1">
+    <cfRule type="expression" dxfId="91" priority="33" stopIfTrue="1">
       <formula>IF(WEEKDAY(F$5)=1,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ11:AJ12 F11">
-    <cfRule type="expression" dxfId="112" priority="28" stopIfTrue="1">
+    <cfRule type="expression" dxfId="90" priority="28" stopIfTrue="1">
       <formula>IF(WEEKDAY(F$5)=1,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ11:AJ12 F11">
-    <cfRule type="expression" dxfId="111" priority="27" stopIfTrue="1">
+    <cfRule type="expression" dxfId="89" priority="27" stopIfTrue="1">
       <formula>IF(WEEKDAY(F$5)=1,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12">
-    <cfRule type="expression" dxfId="110" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="88" priority="26" stopIfTrue="1">
       <formula>IF(WEEKDAY(F$5)=1,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12">
-    <cfRule type="expression" dxfId="109" priority="25" stopIfTrue="1">
+    <cfRule type="expression" dxfId="87" priority="25" stopIfTrue="1">
       <formula>IF(WEEKDAY(F$5)=1,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9 G13 I9:AI10 I13:AI14">
-    <cfRule type="expression" dxfId="108" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="86" priority="24" stopIfTrue="1">
       <formula>IF(WEEKDAY(G$5)=1,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9 G13 I9:AI10 I13:AI14">
-    <cfRule type="expression" dxfId="107" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="85" priority="23" stopIfTrue="1">
       <formula>IF(WEEKDAY(G$5)=1,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10 G14">
-    <cfRule type="expression" dxfId="106" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="84" priority="22" stopIfTrue="1">
       <formula>IF(WEEKDAY(G$5)=1,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10 G14">
-    <cfRule type="expression" dxfId="105" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="83" priority="21" stopIfTrue="1">
       <formula>IF(WEEKDAY(G$5)=1,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G16 I16:AI17">
-    <cfRule type="expression" dxfId="104" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="82" priority="20" stopIfTrue="1">
       <formula>IF(WEEKDAY(G$5)=1,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G16 I16:AI17">
-    <cfRule type="expression" dxfId="103" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="81" priority="19" stopIfTrue="1">
       <formula>IF(WEEKDAY(G$5)=1,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G17">
-    <cfRule type="expression" dxfId="102" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="80" priority="18" stopIfTrue="1">
       <formula>IF(WEEKDAY(G$5)=1,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G17">
-    <cfRule type="expression" dxfId="101" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="79" priority="17" stopIfTrue="1">
       <formula>IF(WEEKDAY(G$5)=1,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11 I11:AI12">
-    <cfRule type="expression" dxfId="100" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="78" priority="16" stopIfTrue="1">
       <formula>IF(WEEKDAY(G$5)=1,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11 I11:AI12">
-    <cfRule type="expression" dxfId="99" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="77" priority="15" stopIfTrue="1">
       <formula>IF(WEEKDAY(G$5)=1,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12">
-    <cfRule type="expression" dxfId="98" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="76" priority="14" stopIfTrue="1">
       <formula>IF(WEEKDAY(G$5)=1,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12">
-    <cfRule type="expression" dxfId="97" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="75" priority="13" stopIfTrue="1">
       <formula>IF(WEEKDAY(G$5)=1,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9 H13">
-    <cfRule type="expression" dxfId="96" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="74" priority="12" stopIfTrue="1">
       <formula>IF(WEEKDAY(H$5)=1,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9 H13">
-    <cfRule type="expression" dxfId="95" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="73" priority="11" stopIfTrue="1">
       <formula>IF(WEEKDAY(H$5)=1,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10 H14">
-    <cfRule type="expression" dxfId="94" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="72" priority="10" stopIfTrue="1">
       <formula>IF(WEEKDAY(H$5)=1,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10 H14">
-    <cfRule type="expression" dxfId="93" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="71" priority="9" stopIfTrue="1">
       <formula>IF(WEEKDAY(H$5)=1,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16">
-    <cfRule type="expression" dxfId="92" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="70" priority="8" stopIfTrue="1">
       <formula>IF(WEEKDAY(H$5)=1,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16">
-    <cfRule type="expression" dxfId="91" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="69" priority="7" stopIfTrue="1">
       <formula>IF(WEEKDAY(H$5)=1,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H17">
-    <cfRule type="expression" dxfId="90" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="68" priority="6" stopIfTrue="1">
       <formula>IF(WEEKDAY(H$5)=1,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H17">
-    <cfRule type="expression" dxfId="89" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="67" priority="5" stopIfTrue="1">
       <formula>IF(WEEKDAY(H$5)=1,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11">
-    <cfRule type="expression" dxfId="88" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="66" priority="4" stopIfTrue="1">
       <formula>IF(WEEKDAY(H$5)=1,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11">
-    <cfRule type="expression" dxfId="87" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="65" priority="3" stopIfTrue="1">
       <formula>IF(WEEKDAY(H$5)=1,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12">
-    <cfRule type="expression" dxfId="86" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="64" priority="2" stopIfTrue="1">
       <formula>IF(WEEKDAY(H$5)=1,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12">
-    <cfRule type="expression" dxfId="85" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="63" priority="1" stopIfTrue="1">
       <formula>IF(WEEKDAY(H$5)=1,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26502,15 +26351,15 @@
       <c r="AJ1" s="107"/>
       <c r="AK1" s="44"/>
       <c r="AL1" s="44"/>
-      <c r="AM1" s="260" t="s">
+      <c r="AM1" s="256" t="s">
         <v>76</v>
       </c>
-      <c r="AN1" s="261"/>
-      <c r="AO1" s="261"/>
-      <c r="AP1" s="261"/>
-      <c r="AQ1" s="261"/>
-      <c r="AR1" s="261"/>
-      <c r="AS1" s="262"/>
+      <c r="AN1" s="257"/>
+      <c r="AO1" s="257"/>
+      <c r="AP1" s="257"/>
+      <c r="AQ1" s="257"/>
+      <c r="AR1" s="257"/>
+      <c r="AS1" s="258"/>
       <c r="AT1" s="46"/>
     </row>
     <row r="2" spans="1:91" ht="20.25">
@@ -26660,19 +26509,19 @@
       <c r="AT4" s="90"/>
     </row>
     <row r="5" spans="1:91" s="56" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A5" s="257" t="s">
+      <c r="A5" s="266" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="257" t="s">
+      <c r="B5" s="266" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="257" t="s">
+      <c r="C5" s="266" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="259" t="s">
+      <c r="D5" s="264" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="257" t="s">
+      <c r="E5" s="266" t="s">
         <v>27</v>
       </c>
       <c r="F5" s="106">
@@ -26799,30 +26648,30 @@
         <f t="shared" si="0"/>
         <v>43039</v>
       </c>
-      <c r="AK5" s="263" t="s">
+      <c r="AK5" s="259" t="s">
         <v>14</v>
       </c>
-      <c r="AL5" s="264"/>
-      <c r="AM5" s="265"/>
-      <c r="AN5" s="266" t="s">
+      <c r="AL5" s="260"/>
+      <c r="AM5" s="261"/>
+      <c r="AN5" s="262" t="s">
         <v>38</v>
       </c>
-      <c r="AO5" s="266" t="s">
+      <c r="AO5" s="262" t="s">
         <v>34</v>
       </c>
-      <c r="AP5" s="266" t="s">
+      <c r="AP5" s="262" t="s">
         <v>35</v>
       </c>
-      <c r="AQ5" s="266" t="s">
+      <c r="AQ5" s="262" t="s">
         <v>36</v>
       </c>
-      <c r="AR5" s="266" t="s">
+      <c r="AR5" s="262" t="s">
         <v>37</v>
       </c>
-      <c r="AS5" s="259" t="s">
+      <c r="AS5" s="264" t="s">
         <v>0</v>
       </c>
-      <c r="AT5" s="254"/>
+      <c r="AT5" s="267"/>
       <c r="AV5" s="2"/>
       <c r="AW5" s="2"/>
       <c r="AX5" s="2"/>
@@ -26869,11 +26718,11 @@
       <c r="CM5" s="2"/>
     </row>
     <row r="6" spans="1:91" s="56" customFormat="1" ht="39.75" customHeight="1">
-      <c r="A6" s="258"/>
-      <c r="B6" s="258"/>
-      <c r="C6" s="258"/>
-      <c r="D6" s="258"/>
-      <c r="E6" s="258"/>
+      <c r="A6" s="265"/>
+      <c r="B6" s="265"/>
+      <c r="C6" s="265"/>
+      <c r="D6" s="265"/>
+      <c r="E6" s="265"/>
       <c r="F6" s="158" t="str">
         <f>CHOOSE(WEEKDAY(F5),"C.Nhật","T.Hai","T.Ba","T.Tư","T.Năm","T.Sáu","T.Bảy")</f>
         <v>C.Nhật</v>
@@ -27007,13 +26856,13 @@
       <c r="AM6" s="160" t="s">
         <v>16</v>
       </c>
-      <c r="AN6" s="267"/>
-      <c r="AO6" s="267"/>
-      <c r="AP6" s="267"/>
-      <c r="AQ6" s="267"/>
-      <c r="AR6" s="267"/>
-      <c r="AS6" s="258"/>
-      <c r="AT6" s="254"/>
+      <c r="AN6" s="263"/>
+      <c r="AO6" s="263"/>
+      <c r="AP6" s="263"/>
+      <c r="AQ6" s="263"/>
+      <c r="AR6" s="263"/>
+      <c r="AS6" s="265"/>
+      <c r="AT6" s="267"/>
       <c r="AV6" s="2"/>
       <c r="AW6" s="2"/>
       <c r="AX6" s="2"/>
@@ -27294,17 +27143,17 @@
       <c r="AT8" s="163"/>
     </row>
     <row r="9" spans="1:91" s="56" customFormat="1" ht="18" customHeight="1">
-      <c r="A9" s="248">
+      <c r="A9" s="244">
         <v>1</v>
       </c>
-      <c r="B9" s="248" t="s">
+      <c r="B9" s="244" t="s">
         <v>73</v>
       </c>
-      <c r="C9" s="250" t="str">
+      <c r="C9" s="246" t="str">
         <f>VLOOKUP(B9,DS,2,0)</f>
         <v>Mai Thị Hường</v>
       </c>
-      <c r="D9" s="252" t="str">
+      <c r="D9" s="254" t="str">
         <f>VLOOKUP(B9,DS,3,0)</f>
         <v>Kế Toán</v>
       </c>
@@ -27394,29 +27243,29 @@
       <c r="AJ9" s="131">
         <v>8</v>
       </c>
-      <c r="AK9" s="240">
+      <c r="AK9" s="252">
         <f>((SUM(F9:AJ9))/8)-(SUMIF($F$6:$AJ$6,"C.Nhật",F9:AJ9)/8)</f>
         <v>26</v>
       </c>
-      <c r="AL9" s="240">
+      <c r="AL9" s="252">
         <f>SUM(F10:AJ10)/8*1.5</f>
         <v>0</v>
       </c>
-      <c r="AM9" s="242">
+      <c r="AM9" s="248">
         <f>SUMIF($F$6:$AJ$6,"C.Nhật",$F9:$AJ10)/8*2</f>
         <v>0</v>
       </c>
-      <c r="AN9" s="244">
+      <c r="AN9" s="240">
         <f>SUM(AK9:AM10)</f>
         <v>26</v>
       </c>
-      <c r="AO9" s="246">
+      <c r="AO9" s="250">
         <v>0</v>
       </c>
-      <c r="AP9" s="244"/>
-      <c r="AQ9" s="244"/>
-      <c r="AR9" s="244"/>
-      <c r="AS9" s="255"/>
+      <c r="AP9" s="240"/>
+      <c r="AQ9" s="240"/>
+      <c r="AR9" s="240"/>
+      <c r="AS9" s="242"/>
       <c r="AT9" s="197"/>
       <c r="AV9" s="2"/>
       <c r="AW9" s="2"/>
@@ -27464,10 +27313,10 @@
       <c r="CM9" s="2"/>
     </row>
     <row r="10" spans="1:91" s="56" customFormat="1" ht="18" customHeight="1">
-      <c r="A10" s="249"/>
-      <c r="B10" s="249"/>
-      <c r="C10" s="251"/>
-      <c r="D10" s="253"/>
+      <c r="A10" s="245"/>
+      <c r="B10" s="245"/>
+      <c r="C10" s="247"/>
+      <c r="D10" s="255"/>
       <c r="E10" s="58" t="s">
         <v>28</v>
       </c>
@@ -27502,15 +27351,15 @@
       <c r="AH10" s="132"/>
       <c r="AI10" s="132"/>
       <c r="AJ10" s="132"/>
-      <c r="AK10" s="241"/>
-      <c r="AL10" s="241"/>
-      <c r="AM10" s="243"/>
-      <c r="AN10" s="245"/>
-      <c r="AO10" s="247"/>
-      <c r="AP10" s="245"/>
-      <c r="AQ10" s="245"/>
-      <c r="AR10" s="245"/>
-      <c r="AS10" s="256"/>
+      <c r="AK10" s="253"/>
+      <c r="AL10" s="253"/>
+      <c r="AM10" s="249"/>
+      <c r="AN10" s="241"/>
+      <c r="AO10" s="251"/>
+      <c r="AP10" s="241"/>
+      <c r="AQ10" s="241"/>
+      <c r="AR10" s="241"/>
+      <c r="AS10" s="243"/>
       <c r="AT10" s="197"/>
       <c r="AV10" s="2"/>
       <c r="AW10" s="2"/>
@@ -27610,17 +27459,17 @@
       <c r="AT11" s="163"/>
     </row>
     <row r="12" spans="1:91" s="56" customFormat="1" ht="18" customHeight="1">
-      <c r="A12" s="248">
+      <c r="A12" s="244">
         <v>1</v>
       </c>
-      <c r="B12" s="248" t="s">
+      <c r="B12" s="244" t="s">
         <v>74</v>
       </c>
-      <c r="C12" s="250" t="str">
+      <c r="C12" s="246" t="str">
         <f>VLOOKUP(B12,DS,2,0)</f>
         <v>Thạch Huy Chạch</v>
       </c>
-      <c r="D12" s="252" t="str">
+      <c r="D12" s="254" t="str">
         <f>VLOOKUP(B12,DS,3,0)</f>
         <v>Công nhân</v>
       </c>
@@ -27710,29 +27559,29 @@
       <c r="AJ12" s="131">
         <v>8</v>
       </c>
-      <c r="AK12" s="240">
+      <c r="AK12" s="252">
         <f t="shared" ref="AK12" si="2">((SUM(F12:AJ12))/8)-(SUMIF($F$6:$AJ$6,"C.Nhật",F12:AJ12)/8)</f>
         <v>26</v>
       </c>
-      <c r="AL12" s="240">
+      <c r="AL12" s="252">
         <f t="shared" ref="AL12" si="3">SUM(F13:AJ13)/8*1.5</f>
         <v>0</v>
       </c>
-      <c r="AM12" s="242">
+      <c r="AM12" s="248">
         <f>SUMIF($F$6:$AJ$6,"C.Nhật",$F12:$AJ13)/8*2</f>
         <v>0</v>
       </c>
-      <c r="AN12" s="244">
+      <c r="AN12" s="240">
         <f>SUM(AK12:AM13)</f>
         <v>26</v>
       </c>
-      <c r="AO12" s="246">
+      <c r="AO12" s="250">
         <v>0</v>
       </c>
-      <c r="AP12" s="244"/>
-      <c r="AQ12" s="244"/>
-      <c r="AR12" s="244"/>
-      <c r="AS12" s="255"/>
+      <c r="AP12" s="240"/>
+      <c r="AQ12" s="240"/>
+      <c r="AR12" s="240"/>
+      <c r="AS12" s="242"/>
       <c r="AT12" s="202"/>
       <c r="AU12" s="2"/>
       <c r="AV12" s="2"/>
@@ -27780,10 +27629,10 @@
       <c r="CL12" s="2"/>
     </row>
     <row r="13" spans="1:91" s="56" customFormat="1" ht="18" customHeight="1">
-      <c r="A13" s="249"/>
-      <c r="B13" s="249"/>
-      <c r="C13" s="251"/>
-      <c r="D13" s="253"/>
+      <c r="A13" s="245"/>
+      <c r="B13" s="245"/>
+      <c r="C13" s="247"/>
+      <c r="D13" s="255"/>
       <c r="E13" s="58" t="s">
         <v>28</v>
       </c>
@@ -27818,15 +27667,15 @@
       <c r="AH13" s="132"/>
       <c r="AI13" s="132"/>
       <c r="AJ13" s="132"/>
-      <c r="AK13" s="241"/>
-      <c r="AL13" s="241"/>
-      <c r="AM13" s="243"/>
-      <c r="AN13" s="245"/>
-      <c r="AO13" s="247"/>
-      <c r="AP13" s="245"/>
-      <c r="AQ13" s="245"/>
-      <c r="AR13" s="245"/>
-      <c r="AS13" s="256"/>
+      <c r="AK13" s="253"/>
+      <c r="AL13" s="253"/>
+      <c r="AM13" s="249"/>
+      <c r="AN13" s="241"/>
+      <c r="AO13" s="251"/>
+      <c r="AP13" s="241"/>
+      <c r="AQ13" s="241"/>
+      <c r="AR13" s="241"/>
+      <c r="AS13" s="243"/>
       <c r="AT13" s="202"/>
       <c r="AU13" s="2"/>
       <c r="AV13" s="2"/>
@@ -28897,30 +28746,6 @@
     <protectedRange password="CC78" sqref="B12:B13" name="Range1_4_2"/>
   </protectedRanges>
   <mergeCells count="40">
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="AK12:AK13"/>
-    <mergeCell ref="AP12:AP13"/>
-    <mergeCell ref="AS12:AS13"/>
-    <mergeCell ref="AL12:AL13"/>
-    <mergeCell ref="AM12:AM13"/>
-    <mergeCell ref="AN12:AN13"/>
-    <mergeCell ref="AQ12:AQ13"/>
-    <mergeCell ref="AR12:AR13"/>
-    <mergeCell ref="AO12:AO13"/>
-    <mergeCell ref="AT5:AT6"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="AK9:AK10"/>
-    <mergeCell ref="AL9:AL10"/>
-    <mergeCell ref="AS9:AS10"/>
-    <mergeCell ref="AP9:AP10"/>
-    <mergeCell ref="AQ9:AQ10"/>
-    <mergeCell ref="AR9:AR10"/>
-    <mergeCell ref="AM9:AM10"/>
-    <mergeCell ref="AN9:AN10"/>
-    <mergeCell ref="AO9:AO10"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="AM1:AS1"/>
     <mergeCell ref="A5:A6"/>
@@ -28937,14 +28762,38 @@
     <mergeCell ref="AS5:AS6"/>
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="C12:C13"/>
+    <mergeCell ref="AT5:AT6"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="AK9:AK10"/>
+    <mergeCell ref="AL9:AL10"/>
+    <mergeCell ref="AS9:AS10"/>
+    <mergeCell ref="AP9:AP10"/>
+    <mergeCell ref="AQ9:AQ10"/>
+    <mergeCell ref="AR9:AR10"/>
+    <mergeCell ref="AM9:AM10"/>
+    <mergeCell ref="AN9:AN10"/>
+    <mergeCell ref="AO9:AO10"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="AK12:AK13"/>
+    <mergeCell ref="AP12:AP13"/>
+    <mergeCell ref="AS12:AS13"/>
+    <mergeCell ref="AL12:AL13"/>
+    <mergeCell ref="AM12:AM13"/>
+    <mergeCell ref="AN12:AN13"/>
+    <mergeCell ref="AQ12:AQ13"/>
+    <mergeCell ref="AR12:AR13"/>
+    <mergeCell ref="AO12:AO13"/>
   </mergeCells>
   <conditionalFormatting sqref="F5:AJ6 F9:AJ10 F12:AJ13">
-    <cfRule type="expression" dxfId="15" priority="42" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="42" stopIfTrue="1">
       <formula>IF(WEEKDAY(F$5)=1,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9:AJ10">
-    <cfRule type="expression" dxfId="14" priority="41" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="41" stopIfTrue="1">
       <formula>IF(WEEKDAY(F$5)=1,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28971,7 +28820,7 @@
       <selection activeCell="F16" sqref="F16:AI21"/>
       <selection pane="topRight" activeCell="F16" sqref="F16:AI21"/>
       <selection pane="bottomLeft" activeCell="F16" sqref="F16:AI21"/>
-      <selection pane="bottomRight" activeCell="Q16" activeCellId="1" sqref="Q12 Q16"/>
+      <selection pane="bottomRight" activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -29007,26 +28856,26 @@
       <c r="A1" s="127"/>
       <c r="B1" s="198"/>
       <c r="C1" s="198"/>
-      <c r="D1" s="272" t="str">
+      <c r="D1" s="274" t="str">
         <f>"BẢNG THANH TOÁN LƯƠNG THÁNG"&amp;" "&amp;TEXT($E$4,"mm")&amp;" / "&amp;TEXT($E$4,"yyyy")</f>
         <v>BẢNG THANH TOÁN LƯƠNG THÁNG 10 / 2017</v>
       </c>
-      <c r="E1" s="272"/>
-      <c r="F1" s="272"/>
-      <c r="G1" s="272"/>
-      <c r="H1" s="272"/>
-      <c r="I1" s="272"/>
-      <c r="J1" s="272"/>
-      <c r="K1" s="272"/>
-      <c r="L1" s="272"/>
-      <c r="M1" s="272"/>
-      <c r="N1" s="272"/>
-      <c r="O1" s="273"/>
-      <c r="P1" s="274" t="s">
+      <c r="E1" s="274"/>
+      <c r="F1" s="274"/>
+      <c r="G1" s="274"/>
+      <c r="H1" s="274"/>
+      <c r="I1" s="274"/>
+      <c r="J1" s="274"/>
+      <c r="K1" s="274"/>
+      <c r="L1" s="274"/>
+      <c r="M1" s="274"/>
+      <c r="N1" s="274"/>
+      <c r="O1" s="275"/>
+      <c r="P1" s="276" t="s">
         <v>76</v>
       </c>
-      <c r="Q1" s="275"/>
-      <c r="R1" s="276"/>
+      <c r="Q1" s="277"/>
+      <c r="R1" s="278"/>
       <c r="S1" s="118" t="s">
         <v>49</v>
       </c>
@@ -29131,34 +28980,34 @@
       <c r="X4" s="94"/>
     </row>
     <row r="5" spans="1:29" s="22" customFormat="1" ht="24" customHeight="1">
-      <c r="A5" s="282" t="s">
+      <c r="A5" s="268" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="282" t="s">
+      <c r="B5" s="268" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="233" t="s">
+      <c r="C5" s="235" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="233" t="s">
+      <c r="D5" s="235" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="236" t="s">
+      <c r="E5" s="238" t="s">
         <v>48</v>
       </c>
-      <c r="F5" s="277" t="s">
+      <c r="F5" s="279" t="s">
         <v>23</v>
       </c>
-      <c r="G5" s="278"/>
-      <c r="H5" s="278"/>
-      <c r="I5" s="278"/>
-      <c r="J5" s="278"/>
-      <c r="K5" s="279"/>
-      <c r="L5" s="233" t="s">
+      <c r="G5" s="280"/>
+      <c r="H5" s="280"/>
+      <c r="I5" s="280"/>
+      <c r="J5" s="280"/>
+      <c r="K5" s="281"/>
+      <c r="L5" s="235" t="s">
         <v>5</v>
       </c>
-      <c r="M5" s="233"/>
-      <c r="N5" s="233"/>
+      <c r="M5" s="235"/>
+      <c r="N5" s="235"/>
       <c r="O5" s="270" t="s">
         <v>6</v>
       </c>
@@ -29168,7 +29017,7 @@
       <c r="Q5" s="270" t="s">
         <v>8</v>
       </c>
-      <c r="R5" s="234" t="s">
+      <c r="R5" s="236" t="s">
         <v>9</v>
       </c>
       <c r="S5" s="92"/>
@@ -29184,26 +29033,26 @@
       <c r="AC5" s="4"/>
     </row>
     <row r="6" spans="1:29" s="22" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A6" s="283"/>
-      <c r="B6" s="283"/>
-      <c r="C6" s="233"/>
-      <c r="D6" s="233"/>
-      <c r="E6" s="236"/>
-      <c r="F6" s="277" t="s">
+      <c r="A6" s="269"/>
+      <c r="B6" s="269"/>
+      <c r="C6" s="235"/>
+      <c r="D6" s="235"/>
+      <c r="E6" s="238"/>
+      <c r="F6" s="279" t="s">
         <v>50</v>
       </c>
-      <c r="G6" s="279"/>
-      <c r="H6" s="277" t="s">
+      <c r="G6" s="281"/>
+      <c r="H6" s="279" t="s">
         <v>69</v>
       </c>
-      <c r="I6" s="278"/>
-      <c r="J6" s="280" t="s">
+      <c r="I6" s="280"/>
+      <c r="J6" s="282" t="s">
         <v>24</v>
       </c>
       <c r="K6" s="270" t="s">
         <v>4</v>
       </c>
-      <c r="L6" s="268" t="s">
+      <c r="L6" s="271" t="s">
         <v>11</v>
       </c>
       <c r="M6" s="270" t="s">
@@ -29212,10 +29061,10 @@
       <c r="N6" s="270" t="s">
         <v>30</v>
       </c>
-      <c r="O6" s="271"/>
-      <c r="P6" s="271"/>
-      <c r="Q6" s="271"/>
-      <c r="R6" s="235"/>
+      <c r="O6" s="273"/>
+      <c r="P6" s="273"/>
+      <c r="Q6" s="273"/>
+      <c r="R6" s="237"/>
       <c r="S6" s="92"/>
       <c r="T6" s="23"/>
       <c r="U6" s="23"/>
@@ -29229,11 +29078,11 @@
       <c r="AC6" s="4"/>
     </row>
     <row r="7" spans="1:29" s="22" customFormat="1" ht="35.25" customHeight="1">
-      <c r="A7" s="283"/>
-      <c r="B7" s="283"/>
+      <c r="A7" s="269"/>
+      <c r="B7" s="269"/>
       <c r="C7" s="270"/>
       <c r="D7" s="270"/>
-      <c r="E7" s="236"/>
+      <c r="E7" s="238"/>
       <c r="F7" s="199" t="s">
         <v>33</v>
       </c>
@@ -29246,15 +29095,15 @@
       <c r="I7" s="116" t="s">
         <v>17</v>
       </c>
-      <c r="J7" s="281"/>
-      <c r="K7" s="271"/>
-      <c r="L7" s="269"/>
-      <c r="M7" s="271"/>
-      <c r="N7" s="271"/>
-      <c r="O7" s="271"/>
-      <c r="P7" s="271"/>
-      <c r="Q7" s="271"/>
-      <c r="R7" s="235"/>
+      <c r="J7" s="283"/>
+      <c r="K7" s="273"/>
+      <c r="L7" s="272"/>
+      <c r="M7" s="273"/>
+      <c r="N7" s="273"/>
+      <c r="O7" s="273"/>
+      <c r="P7" s="273"/>
+      <c r="Q7" s="273"/>
+      <c r="R7" s="237"/>
       <c r="S7" s="92"/>
       <c r="T7" s="23"/>
       <c r="U7" s="23"/>
@@ -29870,6 +29719,11 @@
   </protectedRanges>
   <autoFilter ref="A7:AC10"/>
   <mergeCells count="20">
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="E5:E7"/>
     <mergeCell ref="L6:L7"/>
     <mergeCell ref="M6:M7"/>
     <mergeCell ref="N6:N7"/>
@@ -29885,15 +29739,10 @@
     <mergeCell ref="L5:N5"/>
     <mergeCell ref="J6:J7"/>
     <mergeCell ref="K6:K7"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="D5:D7"/>
-    <mergeCell ref="E5:E7"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0.24" top="0.2" bottom="0.32" header="0.2" footer="0.2"/>
-  <pageSetup paperSize="9" scale="70" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="80" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddFooter>&amp;C&amp;P/&amp;N</oddFooter>
   </headerFooter>
@@ -29979,15 +29828,15 @@
       <c r="AJ1" s="107"/>
       <c r="AK1" s="44"/>
       <c r="AL1" s="44"/>
-      <c r="AM1" s="260" t="s">
+      <c r="AM1" s="256" t="s">
         <v>76</v>
       </c>
-      <c r="AN1" s="261"/>
-      <c r="AO1" s="261"/>
-      <c r="AP1" s="261"/>
-      <c r="AQ1" s="261"/>
-      <c r="AR1" s="261"/>
-      <c r="AS1" s="262"/>
+      <c r="AN1" s="257"/>
+      <c r="AO1" s="257"/>
+      <c r="AP1" s="257"/>
+      <c r="AQ1" s="257"/>
+      <c r="AR1" s="257"/>
+      <c r="AS1" s="258"/>
       <c r="AT1" s="46"/>
     </row>
     <row r="2" spans="1:91" ht="20.25">
@@ -30137,19 +29986,19 @@
       <c r="AT4" s="90"/>
     </row>
     <row r="5" spans="1:91" s="56" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A5" s="257" t="s">
+      <c r="A5" s="266" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="257" t="s">
+      <c r="B5" s="266" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="257" t="s">
+      <c r="C5" s="266" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="259" t="s">
+      <c r="D5" s="264" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="257" t="s">
+      <c r="E5" s="266" t="s">
         <v>27</v>
       </c>
       <c r="F5" s="106">
@@ -30273,30 +30122,30 @@
         <v>43069</v>
       </c>
       <c r="AJ5" s="206"/>
-      <c r="AK5" s="263" t="s">
+      <c r="AK5" s="259" t="s">
         <v>14</v>
       </c>
-      <c r="AL5" s="264"/>
-      <c r="AM5" s="265"/>
-      <c r="AN5" s="266" t="s">
+      <c r="AL5" s="260"/>
+      <c r="AM5" s="261"/>
+      <c r="AN5" s="262" t="s">
         <v>38</v>
       </c>
-      <c r="AO5" s="266" t="s">
+      <c r="AO5" s="262" t="s">
         <v>34</v>
       </c>
-      <c r="AP5" s="266" t="s">
+      <c r="AP5" s="262" t="s">
         <v>35</v>
       </c>
-      <c r="AQ5" s="266" t="s">
+      <c r="AQ5" s="262" t="s">
         <v>36</v>
       </c>
-      <c r="AR5" s="266" t="s">
+      <c r="AR5" s="262" t="s">
         <v>37</v>
       </c>
-      <c r="AS5" s="259" t="s">
+      <c r="AS5" s="264" t="s">
         <v>0</v>
       </c>
-      <c r="AT5" s="254"/>
+      <c r="AT5" s="267"/>
       <c r="AV5" s="2"/>
       <c r="AW5" s="2"/>
       <c r="AX5" s="2"/>
@@ -30343,11 +30192,11 @@
       <c r="CM5" s="2"/>
     </row>
     <row r="6" spans="1:91" s="56" customFormat="1" ht="39.75" customHeight="1">
-      <c r="A6" s="258"/>
-      <c r="B6" s="258"/>
-      <c r="C6" s="258"/>
-      <c r="D6" s="258"/>
-      <c r="E6" s="258"/>
+      <c r="A6" s="265"/>
+      <c r="B6" s="265"/>
+      <c r="C6" s="265"/>
+      <c r="D6" s="265"/>
+      <c r="E6" s="265"/>
       <c r="F6" s="158" t="str">
         <f>CHOOSE(WEEKDAY(F5),"C.Nhật","T.Hai","T.Ba","T.Tư","T.Năm","T.Sáu","T.Bảy")</f>
         <v>T.Tư</v>
@@ -30478,13 +30327,13 @@
       <c r="AM6" s="160" t="s">
         <v>16</v>
       </c>
-      <c r="AN6" s="267"/>
-      <c r="AO6" s="267"/>
-      <c r="AP6" s="267"/>
-      <c r="AQ6" s="267"/>
-      <c r="AR6" s="267"/>
-      <c r="AS6" s="258"/>
-      <c r="AT6" s="254"/>
+      <c r="AN6" s="263"/>
+      <c r="AO6" s="263"/>
+      <c r="AP6" s="263"/>
+      <c r="AQ6" s="263"/>
+      <c r="AR6" s="263"/>
+      <c r="AS6" s="265"/>
+      <c r="AT6" s="267"/>
       <c r="AV6" s="2"/>
       <c r="AW6" s="2"/>
       <c r="AX6" s="2"/>
@@ -30763,17 +30612,17 @@
       <c r="AT8" s="163"/>
     </row>
     <row r="9" spans="1:91" s="56" customFormat="1" ht="18" customHeight="1">
-      <c r="A9" s="248">
+      <c r="A9" s="244">
         <v>1</v>
       </c>
-      <c r="B9" s="248" t="s">
+      <c r="B9" s="244" t="s">
         <v>73</v>
       </c>
-      <c r="C9" s="250" t="str">
+      <c r="C9" s="246" t="str">
         <f>VLOOKUP(B9,DS,2,0)</f>
         <v>Mai Thị Hường</v>
       </c>
-      <c r="D9" s="252" t="str">
+      <c r="D9" s="254" t="str">
         <f>VLOOKUP(B9,DS,3,0)</f>
         <v>Kế Toán</v>
       </c>
@@ -30863,29 +30712,29 @@
         <v>8</v>
       </c>
       <c r="AJ9" s="207"/>
-      <c r="AK9" s="240">
+      <c r="AK9" s="252">
         <f>((SUM(F9:AI9))/8)-(SUMIF($F$6:$AI$6,"C.Nhật",F9:AI9)/8)</f>
         <v>26</v>
       </c>
-      <c r="AL9" s="240">
+      <c r="AL9" s="252">
         <f>SUM(F10:AI10)/8*1.5</f>
         <v>0</v>
       </c>
-      <c r="AM9" s="242">
+      <c r="AM9" s="248">
         <f>SUMIF($F$6:$AI$6,"C.Nhật",$F9:$AI10)/8*2</f>
         <v>0</v>
       </c>
-      <c r="AN9" s="244">
+      <c r="AN9" s="240">
         <f>SUM(AK9:AM10)</f>
         <v>26</v>
       </c>
-      <c r="AO9" s="246">
+      <c r="AO9" s="250">
         <v>0</v>
       </c>
-      <c r="AP9" s="244"/>
-      <c r="AQ9" s="244"/>
-      <c r="AR9" s="244"/>
-      <c r="AS9" s="255"/>
+      <c r="AP9" s="240"/>
+      <c r="AQ9" s="240"/>
+      <c r="AR9" s="240"/>
+      <c r="AS9" s="242"/>
       <c r="AT9" s="197"/>
       <c r="AV9" s="2"/>
       <c r="AW9" s="2"/>
@@ -30933,10 +30782,10 @@
       <c r="CM9" s="2"/>
     </row>
     <row r="10" spans="1:91" s="56" customFormat="1" ht="18" customHeight="1">
-      <c r="A10" s="249"/>
-      <c r="B10" s="249"/>
-      <c r="C10" s="251"/>
-      <c r="D10" s="253"/>
+      <c r="A10" s="245"/>
+      <c r="B10" s="245"/>
+      <c r="C10" s="247"/>
+      <c r="D10" s="255"/>
       <c r="E10" s="58" t="s">
         <v>28</v>
       </c>
@@ -30971,15 +30820,15 @@
       <c r="AH10" s="132"/>
       <c r="AI10" s="132"/>
       <c r="AJ10" s="208"/>
-      <c r="AK10" s="241"/>
-      <c r="AL10" s="241"/>
-      <c r="AM10" s="243"/>
-      <c r="AN10" s="245"/>
-      <c r="AO10" s="247"/>
-      <c r="AP10" s="245"/>
-      <c r="AQ10" s="245"/>
-      <c r="AR10" s="245"/>
-      <c r="AS10" s="256"/>
+      <c r="AK10" s="253"/>
+      <c r="AL10" s="253"/>
+      <c r="AM10" s="249"/>
+      <c r="AN10" s="241"/>
+      <c r="AO10" s="251"/>
+      <c r="AP10" s="241"/>
+      <c r="AQ10" s="241"/>
+      <c r="AR10" s="241"/>
+      <c r="AS10" s="243"/>
       <c r="AT10" s="197"/>
       <c r="AV10" s="2"/>
       <c r="AW10" s="2"/>
@@ -31079,17 +30928,17 @@
       <c r="AT11" s="163"/>
     </row>
     <row r="12" spans="1:91" s="56" customFormat="1" ht="18" customHeight="1">
-      <c r="A12" s="248">
+      <c r="A12" s="244">
         <v>1</v>
       </c>
-      <c r="B12" s="248" t="s">
+      <c r="B12" s="244" t="s">
         <v>74</v>
       </c>
-      <c r="C12" s="250" t="str">
+      <c r="C12" s="246" t="str">
         <f>VLOOKUP(B12,DS,2,0)</f>
         <v>Thạch Huy Chạch</v>
       </c>
-      <c r="D12" s="252" t="str">
+      <c r="D12" s="254" t="str">
         <f>VLOOKUP(B12,DS,3,0)</f>
         <v>Công nhân</v>
       </c>
@@ -31179,29 +31028,29 @@
         <v>8</v>
       </c>
       <c r="AJ12" s="207"/>
-      <c r="AK12" s="240">
+      <c r="AK12" s="252">
         <f>((SUM(F12:AI12))/8)-(SUMIF($F$6:$AI$6,"C.Nhật",F12:AI12)/8)</f>
         <v>26</v>
       </c>
-      <c r="AL12" s="240">
+      <c r="AL12" s="252">
         <f>SUM(F13:AI13)/8*1.5</f>
         <v>0</v>
       </c>
-      <c r="AM12" s="242">
+      <c r="AM12" s="248">
         <f>SUMIF($F$6:$AI$6,"C.Nhật",$F12:$AI13)/8*2</f>
         <v>0</v>
       </c>
-      <c r="AN12" s="244">
+      <c r="AN12" s="240">
         <f>SUM(AK12:AM13)</f>
         <v>26</v>
       </c>
-      <c r="AO12" s="246">
+      <c r="AO12" s="250">
         <v>0</v>
       </c>
-      <c r="AP12" s="244"/>
-      <c r="AQ12" s="244"/>
-      <c r="AR12" s="244"/>
-      <c r="AS12" s="255"/>
+      <c r="AP12" s="240"/>
+      <c r="AQ12" s="240"/>
+      <c r="AR12" s="240"/>
+      <c r="AS12" s="242"/>
       <c r="AT12" s="202"/>
       <c r="AU12" s="2"/>
       <c r="AV12" s="2"/>
@@ -31249,10 +31098,10 @@
       <c r="CL12" s="2"/>
     </row>
     <row r="13" spans="1:91" s="56" customFormat="1" ht="18" customHeight="1">
-      <c r="A13" s="249"/>
-      <c r="B13" s="249"/>
-      <c r="C13" s="251"/>
-      <c r="D13" s="253"/>
+      <c r="A13" s="245"/>
+      <c r="B13" s="245"/>
+      <c r="C13" s="247"/>
+      <c r="D13" s="255"/>
       <c r="E13" s="58" t="s">
         <v>28</v>
       </c>
@@ -31287,15 +31136,15 @@
       <c r="AH13" s="132"/>
       <c r="AI13" s="132"/>
       <c r="AJ13" s="208"/>
-      <c r="AK13" s="241"/>
-      <c r="AL13" s="241"/>
-      <c r="AM13" s="243"/>
-      <c r="AN13" s="245"/>
-      <c r="AO13" s="247"/>
-      <c r="AP13" s="245"/>
-      <c r="AQ13" s="245"/>
-      <c r="AR13" s="245"/>
-      <c r="AS13" s="256"/>
+      <c r="AK13" s="253"/>
+      <c r="AL13" s="253"/>
+      <c r="AM13" s="249"/>
+      <c r="AN13" s="241"/>
+      <c r="AO13" s="251"/>
+      <c r="AP13" s="241"/>
+      <c r="AQ13" s="241"/>
+      <c r="AR13" s="241"/>
+      <c r="AS13" s="243"/>
       <c r="AT13" s="202"/>
       <c r="AU13" s="2"/>
       <c r="AV13" s="2"/>
@@ -32366,12 +32215,26 @@
     <protectedRange password="CC78" sqref="B12:B13" name="Range1_4_2"/>
   </protectedRanges>
   <mergeCells count="40">
-    <mergeCell ref="AN12:AN13"/>
-    <mergeCell ref="AO12:AO13"/>
-    <mergeCell ref="AP12:AP13"/>
-    <mergeCell ref="AR12:AR13"/>
-    <mergeCell ref="AS12:AS13"/>
-    <mergeCell ref="AQ12:AQ13"/>
+    <mergeCell ref="AL12:AL13"/>
+    <mergeCell ref="AM12:AM13"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="AK12:AK13"/>
+    <mergeCell ref="AM1:AS1"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="AK5:AM5"/>
+    <mergeCell ref="AN5:AN6"/>
+    <mergeCell ref="AO5:AO6"/>
+    <mergeCell ref="AP5:AP6"/>
+    <mergeCell ref="AQ5:AQ6"/>
+    <mergeCell ref="AR5:AR6"/>
+    <mergeCell ref="AS5:AS6"/>
     <mergeCell ref="AT5:AT6"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="B9:B10"/>
@@ -32386,34 +32249,20 @@
     <mergeCell ref="AM9:AM10"/>
     <mergeCell ref="AN9:AN10"/>
     <mergeCell ref="AO9:AO10"/>
-    <mergeCell ref="AM1:AS1"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="AK5:AM5"/>
-    <mergeCell ref="AN5:AN6"/>
-    <mergeCell ref="AO5:AO6"/>
-    <mergeCell ref="AP5:AP6"/>
-    <mergeCell ref="AQ5:AQ6"/>
-    <mergeCell ref="AR5:AR6"/>
-    <mergeCell ref="AS5:AS6"/>
-    <mergeCell ref="AL12:AL13"/>
-    <mergeCell ref="AM12:AM13"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="AK12:AK13"/>
+    <mergeCell ref="AN12:AN13"/>
+    <mergeCell ref="AO12:AO13"/>
+    <mergeCell ref="AP12:AP13"/>
+    <mergeCell ref="AR12:AR13"/>
+    <mergeCell ref="AS12:AS13"/>
+    <mergeCell ref="AQ12:AQ13"/>
   </mergeCells>
   <conditionalFormatting sqref="F5:AJ6 F9:AJ10 F12:AI13">
-    <cfRule type="expression" dxfId="9" priority="68" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="68" stopIfTrue="1">
       <formula>IF(WEEKDAY(F$5)=1,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ12:AJ13">
-    <cfRule type="expression" dxfId="8" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="2" priority="19" stopIfTrue="1">
       <formula>IF(WEEKDAY(AJ$5)=1,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -32440,7 +32289,7 @@
       <selection activeCell="F16" sqref="F16:AI21"/>
       <selection pane="topRight" activeCell="F16" sqref="F16:AI21"/>
       <selection pane="bottomLeft" activeCell="F16" sqref="F16:AI21"/>
-      <selection pane="bottomRight" activeCell="Q16" activeCellId="1" sqref="Q12 Q16"/>
+      <selection pane="bottomRight" activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -32476,26 +32325,26 @@
       <c r="A1" s="127"/>
       <c r="B1" s="198"/>
       <c r="C1" s="198"/>
-      <c r="D1" s="272" t="str">
+      <c r="D1" s="274" t="str">
         <f>"BẢNG THANH TOÁN LƯƠNG THÁNG"&amp;" "&amp;TEXT($E$4,"mm")&amp;" / "&amp;TEXT($E$4,"yyyy")</f>
         <v>BẢNG THANH TOÁN LƯƠNG THÁNG 11 / 2017</v>
       </c>
-      <c r="E1" s="272"/>
-      <c r="F1" s="272"/>
-      <c r="G1" s="272"/>
-      <c r="H1" s="272"/>
-      <c r="I1" s="272"/>
-      <c r="J1" s="272"/>
-      <c r="K1" s="272"/>
-      <c r="L1" s="272"/>
-      <c r="M1" s="272"/>
-      <c r="N1" s="272"/>
-      <c r="O1" s="273"/>
-      <c r="P1" s="274" t="s">
+      <c r="E1" s="274"/>
+      <c r="F1" s="274"/>
+      <c r="G1" s="274"/>
+      <c r="H1" s="274"/>
+      <c r="I1" s="274"/>
+      <c r="J1" s="274"/>
+      <c r="K1" s="274"/>
+      <c r="L1" s="274"/>
+      <c r="M1" s="274"/>
+      <c r="N1" s="274"/>
+      <c r="O1" s="275"/>
+      <c r="P1" s="276" t="s">
         <v>76</v>
       </c>
-      <c r="Q1" s="275"/>
-      <c r="R1" s="276"/>
+      <c r="Q1" s="277"/>
+      <c r="R1" s="278"/>
       <c r="S1" s="118" t="s">
         <v>49</v>
       </c>
@@ -32600,34 +32449,34 @@
       <c r="X4" s="94"/>
     </row>
     <row r="5" spans="1:29" s="22" customFormat="1" ht="24" customHeight="1">
-      <c r="A5" s="282" t="s">
+      <c r="A5" s="268" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="282" t="s">
+      <c r="B5" s="268" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="233" t="s">
+      <c r="C5" s="235" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="233" t="s">
+      <c r="D5" s="235" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="236" t="s">
+      <c r="E5" s="238" t="s">
         <v>48</v>
       </c>
-      <c r="F5" s="277" t="s">
+      <c r="F5" s="279" t="s">
         <v>23</v>
       </c>
-      <c r="G5" s="278"/>
-      <c r="H5" s="278"/>
-      <c r="I5" s="278"/>
-      <c r="J5" s="278"/>
-      <c r="K5" s="279"/>
-      <c r="L5" s="233" t="s">
+      <c r="G5" s="280"/>
+      <c r="H5" s="280"/>
+      <c r="I5" s="280"/>
+      <c r="J5" s="280"/>
+      <c r="K5" s="281"/>
+      <c r="L5" s="235" t="s">
         <v>5</v>
       </c>
-      <c r="M5" s="233"/>
-      <c r="N5" s="233"/>
+      <c r="M5" s="235"/>
+      <c r="N5" s="235"/>
       <c r="O5" s="270" t="s">
         <v>6</v>
       </c>
@@ -32637,7 +32486,7 @@
       <c r="Q5" s="270" t="s">
         <v>8</v>
       </c>
-      <c r="R5" s="234" t="s">
+      <c r="R5" s="236" t="s">
         <v>9</v>
       </c>
       <c r="S5" s="92"/>
@@ -32653,26 +32502,26 @@
       <c r="AC5" s="4"/>
     </row>
     <row r="6" spans="1:29" s="22" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A6" s="283"/>
-      <c r="B6" s="283"/>
-      <c r="C6" s="233"/>
-      <c r="D6" s="233"/>
-      <c r="E6" s="236"/>
-      <c r="F6" s="277" t="s">
+      <c r="A6" s="269"/>
+      <c r="B6" s="269"/>
+      <c r="C6" s="235"/>
+      <c r="D6" s="235"/>
+      <c r="E6" s="238"/>
+      <c r="F6" s="279" t="s">
         <v>50</v>
       </c>
-      <c r="G6" s="279"/>
-      <c r="H6" s="277" t="s">
+      <c r="G6" s="281"/>
+      <c r="H6" s="279" t="s">
         <v>69</v>
       </c>
-      <c r="I6" s="278"/>
-      <c r="J6" s="280" t="s">
+      <c r="I6" s="280"/>
+      <c r="J6" s="282" t="s">
         <v>24</v>
       </c>
       <c r="K6" s="270" t="s">
         <v>4</v>
       </c>
-      <c r="L6" s="268" t="s">
+      <c r="L6" s="271" t="s">
         <v>11</v>
       </c>
       <c r="M6" s="270" t="s">
@@ -32681,10 +32530,10 @@
       <c r="N6" s="270" t="s">
         <v>30</v>
       </c>
-      <c r="O6" s="271"/>
-      <c r="P6" s="271"/>
-      <c r="Q6" s="271"/>
-      <c r="R6" s="235"/>
+      <c r="O6" s="273"/>
+      <c r="P6" s="273"/>
+      <c r="Q6" s="273"/>
+      <c r="R6" s="237"/>
       <c r="S6" s="92"/>
       <c r="T6" s="23"/>
       <c r="U6" s="23"/>
@@ -32698,11 +32547,11 @@
       <c r="AC6" s="4"/>
     </row>
     <row r="7" spans="1:29" s="22" customFormat="1" ht="35.25" customHeight="1">
-      <c r="A7" s="283"/>
-      <c r="B7" s="283"/>
+      <c r="A7" s="269"/>
+      <c r="B7" s="269"/>
       <c r="C7" s="270"/>
       <c r="D7" s="270"/>
-      <c r="E7" s="236"/>
+      <c r="E7" s="238"/>
       <c r="F7" s="199" t="s">
         <v>33</v>
       </c>
@@ -32715,15 +32564,15 @@
       <c r="I7" s="116" t="s">
         <v>17</v>
       </c>
-      <c r="J7" s="281"/>
-      <c r="K7" s="271"/>
-      <c r="L7" s="269"/>
-      <c r="M7" s="271"/>
-      <c r="N7" s="271"/>
-      <c r="O7" s="271"/>
-      <c r="P7" s="271"/>
-      <c r="Q7" s="271"/>
-      <c r="R7" s="235"/>
+      <c r="J7" s="283"/>
+      <c r="K7" s="273"/>
+      <c r="L7" s="272"/>
+      <c r="M7" s="273"/>
+      <c r="N7" s="273"/>
+      <c r="O7" s="273"/>
+      <c r="P7" s="273"/>
+      <c r="Q7" s="273"/>
+      <c r="R7" s="237"/>
       <c r="S7" s="92"/>
       <c r="T7" s="23"/>
       <c r="U7" s="23"/>
@@ -33339,6 +33188,11 @@
   </protectedRanges>
   <autoFilter ref="A7:AC10"/>
   <mergeCells count="20">
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="E5:E7"/>
     <mergeCell ref="L6:L7"/>
     <mergeCell ref="M6:M7"/>
     <mergeCell ref="N6:N7"/>
@@ -33354,15 +33208,10 @@
     <mergeCell ref="L5:N5"/>
     <mergeCell ref="J6:J7"/>
     <mergeCell ref="K6:K7"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="D5:D7"/>
-    <mergeCell ref="E5:E7"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0.24" top="0.2" bottom="0.32" header="0.2" footer="0.2"/>
-  <pageSetup paperSize="9" scale="70" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="80" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddFooter>&amp;C&amp;P/&amp;N</oddFooter>
   </headerFooter>
@@ -33447,15 +33296,15 @@
       <c r="AJ1" s="107"/>
       <c r="AK1" s="44"/>
       <c r="AL1" s="44"/>
-      <c r="AM1" s="260" t="s">
+      <c r="AM1" s="256" t="s">
         <v>76</v>
       </c>
-      <c r="AN1" s="261"/>
-      <c r="AO1" s="261"/>
-      <c r="AP1" s="261"/>
-      <c r="AQ1" s="261"/>
-      <c r="AR1" s="261"/>
-      <c r="AS1" s="262"/>
+      <c r="AN1" s="257"/>
+      <c r="AO1" s="257"/>
+      <c r="AP1" s="257"/>
+      <c r="AQ1" s="257"/>
+      <c r="AR1" s="257"/>
+      <c r="AS1" s="258"/>
       <c r="AT1" s="46"/>
     </row>
     <row r="2" spans="1:91" ht="20.25">
@@ -33605,19 +33454,19 @@
       <c r="AT4" s="90"/>
     </row>
     <row r="5" spans="1:91" s="56" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A5" s="257" t="s">
+      <c r="A5" s="266" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="257" t="s">
+      <c r="B5" s="266" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="257" t="s">
+      <c r="C5" s="266" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="259" t="s">
+      <c r="D5" s="264" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="257" t="s">
+      <c r="E5" s="266" t="s">
         <v>27</v>
       </c>
       <c r="F5" s="106">
@@ -33744,30 +33593,30 @@
         <f t="shared" si="0"/>
         <v>43100</v>
       </c>
-      <c r="AK5" s="263" t="s">
+      <c r="AK5" s="259" t="s">
         <v>14</v>
       </c>
-      <c r="AL5" s="264"/>
-      <c r="AM5" s="265"/>
-      <c r="AN5" s="266" t="s">
+      <c r="AL5" s="260"/>
+      <c r="AM5" s="261"/>
+      <c r="AN5" s="262" t="s">
         <v>38</v>
       </c>
-      <c r="AO5" s="266" t="s">
+      <c r="AO5" s="262" t="s">
         <v>34</v>
       </c>
-      <c r="AP5" s="266" t="s">
+      <c r="AP5" s="262" t="s">
         <v>35</v>
       </c>
-      <c r="AQ5" s="266" t="s">
+      <c r="AQ5" s="262" t="s">
         <v>36</v>
       </c>
-      <c r="AR5" s="266" t="s">
+      <c r="AR5" s="262" t="s">
         <v>37</v>
       </c>
-      <c r="AS5" s="259" t="s">
+      <c r="AS5" s="264" t="s">
         <v>0</v>
       </c>
-      <c r="AT5" s="254"/>
+      <c r="AT5" s="267"/>
       <c r="AV5" s="2"/>
       <c r="AW5" s="2"/>
       <c r="AX5" s="2"/>
@@ -33814,11 +33663,11 @@
       <c r="CM5" s="2"/>
     </row>
     <row r="6" spans="1:91" s="56" customFormat="1" ht="39.75" customHeight="1">
-      <c r="A6" s="258"/>
-      <c r="B6" s="258"/>
-      <c r="C6" s="258"/>
-      <c r="D6" s="258"/>
-      <c r="E6" s="258"/>
+      <c r="A6" s="265"/>
+      <c r="B6" s="265"/>
+      <c r="C6" s="265"/>
+      <c r="D6" s="265"/>
+      <c r="E6" s="265"/>
       <c r="F6" s="158" t="str">
         <f>CHOOSE(WEEKDAY(F5),"C.Nhật","T.Hai","T.Ba","T.Tư","T.Năm","T.Sáu","T.Bảy")</f>
         <v>T.Sáu</v>
@@ -33952,13 +33801,13 @@
       <c r="AM6" s="160" t="s">
         <v>16</v>
       </c>
-      <c r="AN6" s="267"/>
-      <c r="AO6" s="267"/>
-      <c r="AP6" s="267"/>
-      <c r="AQ6" s="267"/>
-      <c r="AR6" s="267"/>
-      <c r="AS6" s="258"/>
-      <c r="AT6" s="254"/>
+      <c r="AN6" s="263"/>
+      <c r="AO6" s="263"/>
+      <c r="AP6" s="263"/>
+      <c r="AQ6" s="263"/>
+      <c r="AR6" s="263"/>
+      <c r="AS6" s="265"/>
+      <c r="AT6" s="267"/>
       <c r="AV6" s="2"/>
       <c r="AW6" s="2"/>
       <c r="AX6" s="2"/>
@@ -34239,17 +34088,17 @@
       <c r="AT8" s="163"/>
     </row>
     <row r="9" spans="1:91" s="56" customFormat="1" ht="18" customHeight="1">
-      <c r="A9" s="248">
+      <c r="A9" s="244">
         <v>1</v>
       </c>
-      <c r="B9" s="248" t="s">
+      <c r="B9" s="244" t="s">
         <v>73</v>
       </c>
-      <c r="C9" s="250" t="str">
+      <c r="C9" s="246" t="str">
         <f>VLOOKUP(B9,DS,2,0)</f>
         <v>Mai Thị Hường</v>
       </c>
-      <c r="D9" s="252" t="str">
+      <c r="D9" s="254" t="str">
         <f>VLOOKUP(B9,DS,3,0)</f>
         <v>Kế Toán</v>
       </c>
@@ -34339,29 +34188,29 @@
         <v>8</v>
       </c>
       <c r="AJ9" s="131"/>
-      <c r="AK9" s="240">
+      <c r="AK9" s="252">
         <f>((SUM(F9:AJ9))/8)-(SUMIF($F$6:$AJ$6,"C.Nhật",F9:AJ9)/8)</f>
         <v>26</v>
       </c>
-      <c r="AL9" s="240">
+      <c r="AL9" s="252">
         <f>SUM(F10:AJ10)/8*1.5</f>
         <v>0</v>
       </c>
-      <c r="AM9" s="242">
+      <c r="AM9" s="248">
         <f>SUMIF($F$6:$AJ$6,"C.Nhật",$F9:$AJ10)/8*2</f>
         <v>0</v>
       </c>
-      <c r="AN9" s="244">
+      <c r="AN9" s="240">
         <f>SUM(AK9:AM10)</f>
         <v>26</v>
       </c>
-      <c r="AO9" s="246">
+      <c r="AO9" s="250">
         <v>0</v>
       </c>
-      <c r="AP9" s="244"/>
-      <c r="AQ9" s="244"/>
-      <c r="AR9" s="244"/>
-      <c r="AS9" s="255"/>
+      <c r="AP9" s="240"/>
+      <c r="AQ9" s="240"/>
+      <c r="AR9" s="240"/>
+      <c r="AS9" s="242"/>
       <c r="AT9" s="197"/>
       <c r="AV9" s="2"/>
       <c r="AW9" s="2"/>
@@ -34409,10 +34258,10 @@
       <c r="CM9" s="2"/>
     </row>
     <row r="10" spans="1:91" s="56" customFormat="1" ht="18" customHeight="1">
-      <c r="A10" s="249"/>
-      <c r="B10" s="249"/>
-      <c r="C10" s="251"/>
-      <c r="D10" s="253"/>
+      <c r="A10" s="245"/>
+      <c r="B10" s="245"/>
+      <c r="C10" s="247"/>
+      <c r="D10" s="255"/>
       <c r="E10" s="58" t="s">
         <v>28</v>
       </c>
@@ -34447,15 +34296,15 @@
       <c r="AH10" s="132"/>
       <c r="AI10" s="132"/>
       <c r="AJ10" s="132"/>
-      <c r="AK10" s="241"/>
-      <c r="AL10" s="241"/>
-      <c r="AM10" s="243"/>
-      <c r="AN10" s="245"/>
-      <c r="AO10" s="247"/>
-      <c r="AP10" s="245"/>
-      <c r="AQ10" s="245"/>
-      <c r="AR10" s="245"/>
-      <c r="AS10" s="256"/>
+      <c r="AK10" s="253"/>
+      <c r="AL10" s="253"/>
+      <c r="AM10" s="249"/>
+      <c r="AN10" s="241"/>
+      <c r="AO10" s="251"/>
+      <c r="AP10" s="241"/>
+      <c r="AQ10" s="241"/>
+      <c r="AR10" s="241"/>
+      <c r="AS10" s="243"/>
       <c r="AT10" s="197"/>
       <c r="AV10" s="2"/>
       <c r="AW10" s="2"/>
@@ -34555,17 +34404,17 @@
       <c r="AT11" s="163"/>
     </row>
     <row r="12" spans="1:91" s="56" customFormat="1" ht="18" customHeight="1">
-      <c r="A12" s="248">
+      <c r="A12" s="244">
         <v>1</v>
       </c>
-      <c r="B12" s="248" t="s">
+      <c r="B12" s="244" t="s">
         <v>74</v>
       </c>
-      <c r="C12" s="250" t="str">
+      <c r="C12" s="246" t="str">
         <f>VLOOKUP(B12,DS,2,0)</f>
         <v>Thạch Huy Chạch</v>
       </c>
-      <c r="D12" s="252" t="str">
+      <c r="D12" s="254" t="str">
         <f>VLOOKUP(B12,DS,3,0)</f>
         <v>Công nhân</v>
       </c>
@@ -34655,29 +34504,29 @@
         <v>8</v>
       </c>
       <c r="AJ12" s="131"/>
-      <c r="AK12" s="240">
+      <c r="AK12" s="252">
         <f t="shared" ref="AK12" si="2">((SUM(F12:AJ12))/8)-(SUMIF($F$6:$AJ$6,"C.Nhật",F12:AJ12)/8)</f>
         <v>26</v>
       </c>
-      <c r="AL12" s="240">
+      <c r="AL12" s="252">
         <f t="shared" ref="AL12" si="3">SUM(F13:AJ13)/8*1.5</f>
         <v>0</v>
       </c>
-      <c r="AM12" s="242">
+      <c r="AM12" s="248">
         <f>SUMIF($F$6:$AJ$6,"C.Nhật",$F12:$AJ13)/8*2</f>
         <v>0</v>
       </c>
-      <c r="AN12" s="244">
+      <c r="AN12" s="240">
         <f>SUM(AK12:AM13)</f>
         <v>26</v>
       </c>
-      <c r="AO12" s="246">
+      <c r="AO12" s="250">
         <v>0</v>
       </c>
-      <c r="AP12" s="244"/>
-      <c r="AQ12" s="244"/>
-      <c r="AR12" s="244"/>
-      <c r="AS12" s="255"/>
+      <c r="AP12" s="240"/>
+      <c r="AQ12" s="240"/>
+      <c r="AR12" s="240"/>
+      <c r="AS12" s="242"/>
       <c r="AT12" s="202"/>
       <c r="AU12" s="2"/>
       <c r="AV12" s="2"/>
@@ -34725,10 +34574,10 @@
       <c r="CL12" s="2"/>
     </row>
     <row r="13" spans="1:91" s="56" customFormat="1" ht="18" customHeight="1">
-      <c r="A13" s="249"/>
-      <c r="B13" s="249"/>
-      <c r="C13" s="251"/>
-      <c r="D13" s="253"/>
+      <c r="A13" s="245"/>
+      <c r="B13" s="245"/>
+      <c r="C13" s="247"/>
+      <c r="D13" s="255"/>
       <c r="E13" s="58" t="s">
         <v>28</v>
       </c>
@@ -34763,15 +34612,15 @@
       <c r="AH13" s="132"/>
       <c r="AI13" s="132"/>
       <c r="AJ13" s="132"/>
-      <c r="AK13" s="241"/>
-      <c r="AL13" s="241"/>
-      <c r="AM13" s="243"/>
-      <c r="AN13" s="245"/>
-      <c r="AO13" s="247"/>
-      <c r="AP13" s="245"/>
-      <c r="AQ13" s="245"/>
-      <c r="AR13" s="245"/>
-      <c r="AS13" s="256"/>
+      <c r="AK13" s="253"/>
+      <c r="AL13" s="253"/>
+      <c r="AM13" s="249"/>
+      <c r="AN13" s="241"/>
+      <c r="AO13" s="251"/>
+      <c r="AP13" s="241"/>
+      <c r="AQ13" s="241"/>
+      <c r="AR13" s="241"/>
+      <c r="AS13" s="243"/>
       <c r="AT13" s="202"/>
       <c r="AU13" s="2"/>
       <c r="AV13" s="2"/>
@@ -35842,12 +35691,26 @@
     <protectedRange password="CC78" sqref="B12:B13" name="Range1_4_2"/>
   </protectedRanges>
   <mergeCells count="40">
-    <mergeCell ref="AN12:AN13"/>
-    <mergeCell ref="AO12:AO13"/>
-    <mergeCell ref="AP12:AP13"/>
-    <mergeCell ref="AR12:AR13"/>
-    <mergeCell ref="AS12:AS13"/>
-    <mergeCell ref="AQ12:AQ13"/>
+    <mergeCell ref="AL12:AL13"/>
+    <mergeCell ref="AM12:AM13"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="AK12:AK13"/>
+    <mergeCell ref="AM1:AS1"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="AK5:AM5"/>
+    <mergeCell ref="AN5:AN6"/>
+    <mergeCell ref="AO5:AO6"/>
+    <mergeCell ref="AP5:AP6"/>
+    <mergeCell ref="AQ5:AQ6"/>
+    <mergeCell ref="AR5:AR6"/>
+    <mergeCell ref="AS5:AS6"/>
     <mergeCell ref="AT5:AT6"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="B9:B10"/>
@@ -35862,34 +35725,20 @@
     <mergeCell ref="AM9:AM10"/>
     <mergeCell ref="AN9:AN10"/>
     <mergeCell ref="AO9:AO10"/>
-    <mergeCell ref="AM1:AS1"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="AK5:AM5"/>
-    <mergeCell ref="AN5:AN6"/>
-    <mergeCell ref="AO5:AO6"/>
-    <mergeCell ref="AP5:AP6"/>
-    <mergeCell ref="AQ5:AQ6"/>
-    <mergeCell ref="AR5:AR6"/>
-    <mergeCell ref="AS5:AS6"/>
-    <mergeCell ref="AL12:AL13"/>
-    <mergeCell ref="AM12:AM13"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="AK12:AK13"/>
+    <mergeCell ref="AN12:AN13"/>
+    <mergeCell ref="AO12:AO13"/>
+    <mergeCell ref="AP12:AP13"/>
+    <mergeCell ref="AR12:AR13"/>
+    <mergeCell ref="AS12:AS13"/>
+    <mergeCell ref="AQ12:AQ13"/>
   </mergeCells>
   <conditionalFormatting sqref="F5:AJ6 F9:AJ10 F12:AJ13">
-    <cfRule type="expression" dxfId="5" priority="46" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="46" stopIfTrue="1">
       <formula>IF(WEEKDAY(F$5)=1,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9:AJ10">
-    <cfRule type="expression" dxfId="4" priority="45" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="45" stopIfTrue="1">
       <formula>IF(WEEKDAY(F$5)=1,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -35912,11 +35761,11 @@
   <dimension ref="A1:AC27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="3" ySplit="8" topLeftCell="G9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="8" topLeftCell="D9" activePane="bottomRight" state="frozen"/>
       <selection activeCell="F16" sqref="F16:AI21"/>
       <selection pane="topRight" activeCell="F16" sqref="F16:AI21"/>
       <selection pane="bottomLeft" activeCell="F16" sqref="F16:AI21"/>
-      <selection pane="bottomRight" activeCell="O10" sqref="O10"/>
+      <selection pane="bottomRight" activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -35952,26 +35801,26 @@
       <c r="A1" s="127"/>
       <c r="B1" s="198"/>
       <c r="C1" s="198"/>
-      <c r="D1" s="272" t="str">
+      <c r="D1" s="274" t="str">
         <f>"BẢNG THANH TOÁN LƯƠNG THÁNG"&amp;" "&amp;TEXT($E$4,"mm")&amp;" / "&amp;TEXT($E$4,"yyyy")</f>
         <v>BẢNG THANH TOÁN LƯƠNG THÁNG 12 / 2017</v>
       </c>
-      <c r="E1" s="272"/>
-      <c r="F1" s="272"/>
-      <c r="G1" s="272"/>
-      <c r="H1" s="272"/>
-      <c r="I1" s="272"/>
-      <c r="J1" s="272"/>
-      <c r="K1" s="272"/>
-      <c r="L1" s="272"/>
-      <c r="M1" s="272"/>
-      <c r="N1" s="272"/>
-      <c r="O1" s="273"/>
-      <c r="P1" s="274" t="s">
+      <c r="E1" s="274"/>
+      <c r="F1" s="274"/>
+      <c r="G1" s="274"/>
+      <c r="H1" s="274"/>
+      <c r="I1" s="274"/>
+      <c r="J1" s="274"/>
+      <c r="K1" s="274"/>
+      <c r="L1" s="274"/>
+      <c r="M1" s="274"/>
+      <c r="N1" s="274"/>
+      <c r="O1" s="275"/>
+      <c r="P1" s="276" t="s">
         <v>76</v>
       </c>
-      <c r="Q1" s="275"/>
-      <c r="R1" s="276"/>
+      <c r="Q1" s="277"/>
+      <c r="R1" s="278"/>
       <c r="S1" s="118" t="s">
         <v>49</v>
       </c>
@@ -36076,34 +35925,34 @@
       <c r="X4" s="94"/>
     </row>
     <row r="5" spans="1:29" s="22" customFormat="1" ht="24" customHeight="1">
-      <c r="A5" s="282" t="s">
+      <c r="A5" s="268" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="282" t="s">
+      <c r="B5" s="268" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="233" t="s">
+      <c r="C5" s="235" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="233" t="s">
+      <c r="D5" s="235" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="236" t="s">
+      <c r="E5" s="238" t="s">
         <v>48</v>
       </c>
-      <c r="F5" s="277" t="s">
+      <c r="F5" s="279" t="s">
         <v>23</v>
       </c>
-      <c r="G5" s="278"/>
-      <c r="H5" s="278"/>
-      <c r="I5" s="278"/>
-      <c r="J5" s="278"/>
-      <c r="K5" s="279"/>
-      <c r="L5" s="233" t="s">
+      <c r="G5" s="280"/>
+      <c r="H5" s="280"/>
+      <c r="I5" s="280"/>
+      <c r="J5" s="280"/>
+      <c r="K5" s="281"/>
+      <c r="L5" s="235" t="s">
         <v>5</v>
       </c>
-      <c r="M5" s="233"/>
-      <c r="N5" s="233"/>
+      <c r="M5" s="235"/>
+      <c r="N5" s="235"/>
       <c r="O5" s="270" t="s">
         <v>6</v>
       </c>
@@ -36113,7 +35962,7 @@
       <c r="Q5" s="270" t="s">
         <v>8</v>
       </c>
-      <c r="R5" s="234" t="s">
+      <c r="R5" s="236" t="s">
         <v>9</v>
       </c>
       <c r="S5" s="92"/>
@@ -36129,26 +35978,26 @@
       <c r="AC5" s="4"/>
     </row>
     <row r="6" spans="1:29" s="22" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A6" s="283"/>
-      <c r="B6" s="283"/>
-      <c r="C6" s="233"/>
-      <c r="D6" s="233"/>
-      <c r="E6" s="236"/>
-      <c r="F6" s="277" t="s">
+      <c r="A6" s="269"/>
+      <c r="B6" s="269"/>
+      <c r="C6" s="235"/>
+      <c r="D6" s="235"/>
+      <c r="E6" s="238"/>
+      <c r="F6" s="279" t="s">
         <v>50</v>
       </c>
-      <c r="G6" s="279"/>
-      <c r="H6" s="277" t="s">
+      <c r="G6" s="281"/>
+      <c r="H6" s="279" t="s">
         <v>69</v>
       </c>
-      <c r="I6" s="278"/>
-      <c r="J6" s="280" t="s">
+      <c r="I6" s="280"/>
+      <c r="J6" s="282" t="s">
         <v>24</v>
       </c>
       <c r="K6" s="270" t="s">
         <v>4</v>
       </c>
-      <c r="L6" s="268" t="s">
+      <c r="L6" s="271" t="s">
         <v>11</v>
       </c>
       <c r="M6" s="270" t="s">
@@ -36157,10 +36006,10 @@
       <c r="N6" s="270" t="s">
         <v>30</v>
       </c>
-      <c r="O6" s="271"/>
-      <c r="P6" s="271"/>
-      <c r="Q6" s="271"/>
-      <c r="R6" s="235"/>
+      <c r="O6" s="273"/>
+      <c r="P6" s="273"/>
+      <c r="Q6" s="273"/>
+      <c r="R6" s="237"/>
       <c r="S6" s="92"/>
       <c r="T6" s="23"/>
       <c r="U6" s="23"/>
@@ -36174,11 +36023,11 @@
       <c r="AC6" s="4"/>
     </row>
     <row r="7" spans="1:29" s="22" customFormat="1" ht="35.25" customHeight="1">
-      <c r="A7" s="283"/>
-      <c r="B7" s="283"/>
+      <c r="A7" s="269"/>
+      <c r="B7" s="269"/>
       <c r="C7" s="270"/>
       <c r="D7" s="270"/>
-      <c r="E7" s="236"/>
+      <c r="E7" s="238"/>
       <c r="F7" s="199" t="s">
         <v>33</v>
       </c>
@@ -36191,15 +36040,15 @@
       <c r="I7" s="116" t="s">
         <v>17</v>
       </c>
-      <c r="J7" s="281"/>
-      <c r="K7" s="271"/>
-      <c r="L7" s="269"/>
-      <c r="M7" s="271"/>
-      <c r="N7" s="271"/>
-      <c r="O7" s="271"/>
-      <c r="P7" s="271"/>
-      <c r="Q7" s="271"/>
-      <c r="R7" s="235"/>
+      <c r="J7" s="283"/>
+      <c r="K7" s="273"/>
+      <c r="L7" s="272"/>
+      <c r="M7" s="273"/>
+      <c r="N7" s="273"/>
+      <c r="O7" s="273"/>
+      <c r="P7" s="273"/>
+      <c r="Q7" s="273"/>
+      <c r="R7" s="237"/>
       <c r="S7" s="92"/>
       <c r="T7" s="23"/>
       <c r="U7" s="23"/>
@@ -36815,6 +36664,11 @@
   </protectedRanges>
   <autoFilter ref="A7:AC10"/>
   <mergeCells count="20">
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="E5:E7"/>
     <mergeCell ref="L6:L7"/>
     <mergeCell ref="M6:M7"/>
     <mergeCell ref="N6:N7"/>
@@ -36830,15 +36684,10 @@
     <mergeCell ref="L5:N5"/>
     <mergeCell ref="J6:J7"/>
     <mergeCell ref="K6:K7"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="D5:D7"/>
-    <mergeCell ref="E5:E7"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0.24" top="0.2" bottom="0.32" header="0.2" footer="0.2"/>
-  <pageSetup paperSize="9" scale="70" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="80" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddFooter>&amp;C&amp;P/&amp;N</oddFooter>
   </headerFooter>
@@ -36853,15 +36702,15 @@
   <dimension ref="A1:AC29"/>
   <sheetViews>
     <sheetView zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16:O16"/>
+      <selection activeCell="S6" sqref="S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
-    <col min="1" max="1" width="4.28515625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="5.28515625" style="6" customWidth="1"/>
     <col min="2" max="2" width="8.42578125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="21.140625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" style="15" customWidth="1"/>
+    <col min="3" max="3" width="23.85546875" style="6" customWidth="1"/>
+    <col min="4" max="4" width="12" style="15" customWidth="1"/>
     <col min="5" max="5" width="10.28515625" style="16" customWidth="1"/>
     <col min="6" max="6" width="7.140625" style="15" customWidth="1"/>
     <col min="7" max="7" width="10.5703125" style="16" customWidth="1"/>
@@ -36876,7 +36725,7 @@
     <col min="17" max="17" width="10.85546875" style="6" customWidth="1"/>
     <col min="18" max="18" width="12.28515625" style="7" customWidth="1"/>
     <col min="19" max="19" width="9.5703125" style="6" customWidth="1"/>
-    <col min="20" max="20" width="15.42578125" style="7" customWidth="1"/>
+    <col min="20" max="20" width="11.85546875" style="7" customWidth="1"/>
     <col min="21" max="21" width="7.42578125" style="7" customWidth="1"/>
     <col min="22" max="22" width="7" style="7" customWidth="1"/>
     <col min="23" max="23" width="9.140625" style="7"/>
@@ -36889,30 +36738,30 @@
       <c r="A1" s="127"/>
       <c r="B1" s="204"/>
       <c r="C1" s="204"/>
-      <c r="D1" s="272" t="str">
+      <c r="D1" s="274" t="str">
         <f>"BẢNG THANH TOÁN LƯƠNG THÁNG"&amp;" "&amp;TEXT($E$4,"mm")&amp;" / "&amp;TEXT($E$4,"yyyy")</f>
         <v>BẢNG THANH TOÁN LƯƠNG THÁNG 01 / 2017</v>
       </c>
-      <c r="E1" s="272"/>
-      <c r="F1" s="272"/>
-      <c r="G1" s="272"/>
-      <c r="H1" s="272"/>
-      <c r="I1" s="272"/>
-      <c r="J1" s="272"/>
-      <c r="K1" s="272"/>
-      <c r="L1" s="272"/>
-      <c r="M1" s="272"/>
-      <c r="N1" s="272"/>
-      <c r="O1" s="273"/>
-      <c r="P1" s="274" t="s">
+      <c r="E1" s="274"/>
+      <c r="F1" s="274"/>
+      <c r="G1" s="274"/>
+      <c r="H1" s="274"/>
+      <c r="I1" s="274"/>
+      <c r="J1" s="274"/>
+      <c r="K1" s="274"/>
+      <c r="L1" s="274"/>
+      <c r="M1" s="274"/>
+      <c r="N1" s="274"/>
+      <c r="O1" s="275"/>
+      <c r="P1" s="276" t="s">
         <v>76</v>
       </c>
-      <c r="Q1" s="275"/>
-      <c r="R1" s="276"/>
+      <c r="Q1" s="277"/>
+      <c r="R1" s="278"/>
       <c r="S1" s="118" t="s">
         <v>49</v>
       </c>
-      <c r="T1" s="98" t="s">
+      <c r="T1" s="284" t="s">
         <v>32</v>
       </c>
       <c r="U1" s="72"/>
@@ -37013,34 +36862,34 @@
       <c r="X4" s="94"/>
     </row>
     <row r="5" spans="1:29" s="22" customFormat="1" ht="24" customHeight="1">
-      <c r="A5" s="282" t="s">
+      <c r="A5" s="268" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="282" t="s">
+      <c r="B5" s="268" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="233" t="s">
+      <c r="C5" s="235" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="233" t="s">
+      <c r="D5" s="235" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="236" t="s">
+      <c r="E5" s="238" t="s">
         <v>48</v>
       </c>
-      <c r="F5" s="277" t="s">
+      <c r="F5" s="279" t="s">
         <v>23</v>
       </c>
-      <c r="G5" s="278"/>
-      <c r="H5" s="278"/>
-      <c r="I5" s="278"/>
-      <c r="J5" s="278"/>
-      <c r="K5" s="279"/>
-      <c r="L5" s="233" t="s">
+      <c r="G5" s="280"/>
+      <c r="H5" s="280"/>
+      <c r="I5" s="280"/>
+      <c r="J5" s="280"/>
+      <c r="K5" s="281"/>
+      <c r="L5" s="235" t="s">
         <v>5</v>
       </c>
-      <c r="M5" s="233"/>
-      <c r="N5" s="233"/>
+      <c r="M5" s="235"/>
+      <c r="N5" s="235"/>
       <c r="O5" s="270" t="s">
         <v>6</v>
       </c>
@@ -37050,7 +36899,7 @@
       <c r="Q5" s="270" t="s">
         <v>8</v>
       </c>
-      <c r="R5" s="234" t="s">
+      <c r="R5" s="236" t="s">
         <v>9</v>
       </c>
       <c r="S5" s="92"/>
@@ -37066,26 +36915,26 @@
       <c r="AC5" s="4"/>
     </row>
     <row r="6" spans="1:29" s="22" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A6" s="283"/>
-      <c r="B6" s="283"/>
-      <c r="C6" s="233"/>
-      <c r="D6" s="233"/>
-      <c r="E6" s="236"/>
-      <c r="F6" s="277" t="s">
+      <c r="A6" s="269"/>
+      <c r="B6" s="269"/>
+      <c r="C6" s="235"/>
+      <c r="D6" s="235"/>
+      <c r="E6" s="238"/>
+      <c r="F6" s="279" t="s">
         <v>50</v>
       </c>
-      <c r="G6" s="279"/>
-      <c r="H6" s="277" t="s">
+      <c r="G6" s="281"/>
+      <c r="H6" s="279" t="s">
         <v>69</v>
       </c>
-      <c r="I6" s="278"/>
-      <c r="J6" s="280" t="s">
+      <c r="I6" s="280"/>
+      <c r="J6" s="282" t="s">
         <v>24</v>
       </c>
       <c r="K6" s="270" t="s">
         <v>4</v>
       </c>
-      <c r="L6" s="268" t="s">
+      <c r="L6" s="271" t="s">
         <v>11</v>
       </c>
       <c r="M6" s="270" t="s">
@@ -37094,10 +36943,10 @@
       <c r="N6" s="270" t="s">
         <v>30</v>
       </c>
-      <c r="O6" s="271"/>
-      <c r="P6" s="271"/>
-      <c r="Q6" s="271"/>
-      <c r="R6" s="235"/>
+      <c r="O6" s="273"/>
+      <c r="P6" s="273"/>
+      <c r="Q6" s="273"/>
+      <c r="R6" s="237"/>
       <c r="S6" s="92"/>
       <c r="T6" s="23"/>
       <c r="U6" s="23"/>
@@ -37111,11 +36960,11 @@
       <c r="AC6" s="4"/>
     </row>
     <row r="7" spans="1:29" s="22" customFormat="1" ht="35.25" customHeight="1">
-      <c r="A7" s="283"/>
-      <c r="B7" s="283"/>
+      <c r="A7" s="269"/>
+      <c r="B7" s="269"/>
       <c r="C7" s="270"/>
       <c r="D7" s="270"/>
-      <c r="E7" s="236"/>
+      <c r="E7" s="238"/>
       <c r="F7" s="203" t="s">
         <v>33</v>
       </c>
@@ -37128,15 +36977,15 @@
       <c r="I7" s="116" t="s">
         <v>17</v>
       </c>
-      <c r="J7" s="281"/>
-      <c r="K7" s="271"/>
-      <c r="L7" s="269"/>
-      <c r="M7" s="271"/>
-      <c r="N7" s="271"/>
-      <c r="O7" s="271"/>
-      <c r="P7" s="271"/>
-      <c r="Q7" s="271"/>
-      <c r="R7" s="235"/>
+      <c r="J7" s="283"/>
+      <c r="K7" s="273"/>
+      <c r="L7" s="272"/>
+      <c r="M7" s="273"/>
+      <c r="N7" s="273"/>
+      <c r="O7" s="273"/>
+      <c r="P7" s="273"/>
+      <c r="Q7" s="273"/>
+      <c r="R7" s="237"/>
       <c r="S7" s="92"/>
       <c r="T7" s="23"/>
       <c r="U7" s="23"/>
@@ -37897,11 +37746,6 @@
   </protectedRanges>
   <autoFilter ref="A7:AC9"/>
   <mergeCells count="20">
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="D5:D7"/>
-    <mergeCell ref="E5:E7"/>
     <mergeCell ref="L6:L7"/>
     <mergeCell ref="M6:M7"/>
     <mergeCell ref="N6:N7"/>
@@ -37917,10 +37761,15 @@
     <mergeCell ref="L5:N5"/>
     <mergeCell ref="J6:J7"/>
     <mergeCell ref="K6:K7"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="E5:E7"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0.24" top="0.2" bottom="0.32" header="0.2" footer="0.2"/>
-  <pageSetup paperSize="9" scale="70" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="80" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddFooter>&amp;C&amp;P/&amp;N</oddFooter>
   </headerFooter>
@@ -38003,15 +37852,15 @@
       <c r="AH1" s="107"/>
       <c r="AI1" s="44"/>
       <c r="AJ1" s="44"/>
-      <c r="AK1" s="260" t="s">
+      <c r="AK1" s="256" t="s">
         <v>76</v>
       </c>
-      <c r="AL1" s="261"/>
-      <c r="AM1" s="261"/>
-      <c r="AN1" s="261"/>
-      <c r="AO1" s="261"/>
-      <c r="AP1" s="261"/>
-      <c r="AQ1" s="262"/>
+      <c r="AL1" s="257"/>
+      <c r="AM1" s="257"/>
+      <c r="AN1" s="257"/>
+      <c r="AO1" s="257"/>
+      <c r="AP1" s="257"/>
+      <c r="AQ1" s="258"/>
       <c r="AR1" s="46"/>
     </row>
     <row r="2" spans="1:89" ht="20.25">
@@ -38155,19 +38004,19 @@
       <c r="AR4" s="90"/>
     </row>
     <row r="5" spans="1:89" s="56" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A5" s="257" t="s">
+      <c r="A5" s="266" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="257" t="s">
+      <c r="B5" s="266" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="257" t="s">
+      <c r="C5" s="266" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="259" t="s">
+      <c r="D5" s="264" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="257" t="s">
+      <c r="E5" s="266" t="s">
         <v>27</v>
       </c>
       <c r="F5" s="106">
@@ -38286,30 +38135,30 @@
         <f>AG5+1</f>
         <v>42795</v>
       </c>
-      <c r="AI5" s="263" t="s">
+      <c r="AI5" s="259" t="s">
         <v>14</v>
       </c>
-      <c r="AJ5" s="264"/>
-      <c r="AK5" s="265"/>
-      <c r="AL5" s="266" t="s">
+      <c r="AJ5" s="260"/>
+      <c r="AK5" s="261"/>
+      <c r="AL5" s="262" t="s">
         <v>38</v>
       </c>
-      <c r="AM5" s="266" t="s">
+      <c r="AM5" s="262" t="s">
         <v>34</v>
       </c>
-      <c r="AN5" s="266" t="s">
+      <c r="AN5" s="262" t="s">
         <v>35</v>
       </c>
-      <c r="AO5" s="266" t="s">
+      <c r="AO5" s="262" t="s">
         <v>36</v>
       </c>
-      <c r="AP5" s="266" t="s">
+      <c r="AP5" s="262" t="s">
         <v>37</v>
       </c>
-      <c r="AQ5" s="259" t="s">
+      <c r="AQ5" s="264" t="s">
         <v>0</v>
       </c>
-      <c r="AR5" s="254"/>
+      <c r="AR5" s="267"/>
       <c r="AT5" s="2"/>
       <c r="AU5" s="2"/>
       <c r="AV5" s="2"/>
@@ -38356,11 +38205,11 @@
       <c r="CK5" s="2"/>
     </row>
     <row r="6" spans="1:89" s="56" customFormat="1" ht="39.75" customHeight="1">
-      <c r="A6" s="258"/>
-      <c r="B6" s="258"/>
-      <c r="C6" s="258"/>
-      <c r="D6" s="258"/>
-      <c r="E6" s="258"/>
+      <c r="A6" s="265"/>
+      <c r="B6" s="265"/>
+      <c r="C6" s="265"/>
+      <c r="D6" s="265"/>
+      <c r="E6" s="265"/>
       <c r="F6" s="158" t="str">
         <f>CHOOSE(WEEKDAY(F5),"C.Nhật","T.Hai","T.Ba","T.Tư","T.Năm","T.Sáu","T.Bảy")</f>
         <v>T.Tư</v>
@@ -38486,13 +38335,13 @@
       <c r="AK6" s="160" t="s">
         <v>16</v>
       </c>
-      <c r="AL6" s="267"/>
-      <c r="AM6" s="267"/>
-      <c r="AN6" s="267"/>
-      <c r="AO6" s="267"/>
-      <c r="AP6" s="267"/>
-      <c r="AQ6" s="258"/>
-      <c r="AR6" s="254"/>
+      <c r="AL6" s="263"/>
+      <c r="AM6" s="263"/>
+      <c r="AN6" s="263"/>
+      <c r="AO6" s="263"/>
+      <c r="AP6" s="263"/>
+      <c r="AQ6" s="265"/>
+      <c r="AR6" s="267"/>
       <c r="AT6" s="2"/>
       <c r="AU6" s="2"/>
       <c r="AV6" s="2"/>
@@ -38765,17 +38614,17 @@
       <c r="AR8" s="163"/>
     </row>
     <row r="9" spans="1:89" s="56" customFormat="1" ht="18" customHeight="1">
-      <c r="A9" s="248">
+      <c r="A9" s="244">
         <v>1</v>
       </c>
-      <c r="B9" s="248" t="s">
+      <c r="B9" s="244" t="s">
         <v>72</v>
       </c>
-      <c r="C9" s="250" t="str">
+      <c r="C9" s="246" t="str">
         <f>VLOOKUP(B9,DS,2,0)</f>
         <v>Nguyễn Phước Bảo Việt Hùng</v>
       </c>
-      <c r="D9" s="252" t="str">
+      <c r="D9" s="254" t="str">
         <f>VLOOKUP(B9,DS,3,0)</f>
         <v>Kinh Doanh</v>
       </c>
@@ -38855,29 +38704,29 @@
         <v>8</v>
       </c>
       <c r="AH9" s="131"/>
-      <c r="AI9" s="240">
+      <c r="AI9" s="252">
         <f>((SUM(F9:AH9))/8)-(SUMIF($F$6:$AH$6,"C.Nhật",F9:AH9)/8)</f>
         <v>22</v>
       </c>
-      <c r="AJ9" s="240">
+      <c r="AJ9" s="252">
         <f>SUM(F10:AH10)/8*1.5</f>
         <v>0</v>
       </c>
-      <c r="AK9" s="242">
+      <c r="AK9" s="248">
         <f>SUMIF($F$6:$AH$6,"C.Nhật",$F9:$AH10)/8*2</f>
         <v>0</v>
       </c>
-      <c r="AL9" s="244">
+      <c r="AL9" s="240">
         <f>SUM(AI9:AK10)</f>
         <v>22</v>
       </c>
-      <c r="AM9" s="246">
+      <c r="AM9" s="250">
         <v>0</v>
       </c>
-      <c r="AN9" s="244"/>
-      <c r="AO9" s="244"/>
-      <c r="AP9" s="244"/>
-      <c r="AQ9" s="255"/>
+      <c r="AN9" s="240"/>
+      <c r="AO9" s="240"/>
+      <c r="AP9" s="240"/>
+      <c r="AQ9" s="242"/>
       <c r="AR9" s="202"/>
       <c r="AT9" s="2"/>
       <c r="AU9" s="2"/>
@@ -38925,10 +38774,10 @@
       <c r="CK9" s="2"/>
     </row>
     <row r="10" spans="1:89" s="56" customFormat="1" ht="18" customHeight="1">
-      <c r="A10" s="249"/>
-      <c r="B10" s="249"/>
-      <c r="C10" s="251"/>
-      <c r="D10" s="253"/>
+      <c r="A10" s="245"/>
+      <c r="B10" s="245"/>
+      <c r="C10" s="247"/>
+      <c r="D10" s="255"/>
       <c r="E10" s="58" t="s">
         <v>28</v>
       </c>
@@ -38961,15 +38810,15 @@
       <c r="AF10" s="132"/>
       <c r="AG10" s="132"/>
       <c r="AH10" s="132"/>
-      <c r="AI10" s="241"/>
-      <c r="AJ10" s="241"/>
-      <c r="AK10" s="243"/>
-      <c r="AL10" s="245"/>
-      <c r="AM10" s="247"/>
-      <c r="AN10" s="245"/>
-      <c r="AO10" s="245"/>
-      <c r="AP10" s="245"/>
-      <c r="AQ10" s="256"/>
+      <c r="AI10" s="253"/>
+      <c r="AJ10" s="253"/>
+      <c r="AK10" s="249"/>
+      <c r="AL10" s="241"/>
+      <c r="AM10" s="251"/>
+      <c r="AN10" s="241"/>
+      <c r="AO10" s="241"/>
+      <c r="AP10" s="241"/>
+      <c r="AQ10" s="243"/>
       <c r="AR10" s="202"/>
       <c r="AT10" s="2"/>
       <c r="AU10" s="2"/>
@@ -39017,17 +38866,17 @@
       <c r="CK10" s="2"/>
     </row>
     <row r="11" spans="1:89" s="56" customFormat="1" ht="18" customHeight="1">
-      <c r="A11" s="248">
+      <c r="A11" s="244">
         <v>2</v>
       </c>
-      <c r="B11" s="248" t="s">
+      <c r="B11" s="244" t="s">
         <v>73</v>
       </c>
-      <c r="C11" s="250" t="str">
+      <c r="C11" s="246" t="str">
         <f>VLOOKUP(B11,DS,2,0)</f>
         <v>Mai Thị Hường</v>
       </c>
-      <c r="D11" s="252" t="str">
+      <c r="D11" s="254" t="str">
         <f>VLOOKUP(B11,DS,3,0)</f>
         <v>Kế Toán</v>
       </c>
@@ -39107,29 +38956,29 @@
         <v>8</v>
       </c>
       <c r="AH11" s="131"/>
-      <c r="AI11" s="240">
+      <c r="AI11" s="252">
         <f>((SUM(F11:AH11))/8)-(SUMIF($F$6:$AH$6,"C.Nhật",F11:AH11)/8)</f>
         <v>22</v>
       </c>
-      <c r="AJ11" s="240">
+      <c r="AJ11" s="252">
         <f>SUM(F12:AH12)/8*1.5</f>
         <v>0</v>
       </c>
-      <c r="AK11" s="242">
+      <c r="AK11" s="248">
         <f>SUMIF($F$6:$AH$6,"C.Nhật",$F11:$AH12)/8*2</f>
         <v>0</v>
       </c>
-      <c r="AL11" s="244">
+      <c r="AL11" s="240">
         <f t="shared" ref="AL11" si="2">SUM(AI11:AK12)</f>
         <v>22</v>
       </c>
-      <c r="AM11" s="246">
+      <c r="AM11" s="250">
         <v>0</v>
       </c>
-      <c r="AN11" s="244"/>
-      <c r="AO11" s="244"/>
-      <c r="AP11" s="244"/>
-      <c r="AQ11" s="255"/>
+      <c r="AN11" s="240"/>
+      <c r="AO11" s="240"/>
+      <c r="AP11" s="240"/>
+      <c r="AQ11" s="242"/>
       <c r="AR11" s="213"/>
       <c r="AT11" s="2"/>
       <c r="AU11" s="2"/>
@@ -39177,10 +39026,10 @@
       <c r="CK11" s="2"/>
     </row>
     <row r="12" spans="1:89" s="56" customFormat="1" ht="18" customHeight="1">
-      <c r="A12" s="249"/>
-      <c r="B12" s="249"/>
-      <c r="C12" s="251"/>
-      <c r="D12" s="253"/>
+      <c r="A12" s="245"/>
+      <c r="B12" s="245"/>
+      <c r="C12" s="247"/>
+      <c r="D12" s="255"/>
       <c r="E12" s="58" t="s">
         <v>28</v>
       </c>
@@ -39213,15 +39062,15 @@
       <c r="AF12" s="132"/>
       <c r="AG12" s="132"/>
       <c r="AH12" s="132"/>
-      <c r="AI12" s="241"/>
-      <c r="AJ12" s="241"/>
-      <c r="AK12" s="243"/>
-      <c r="AL12" s="245"/>
-      <c r="AM12" s="247"/>
-      <c r="AN12" s="245"/>
-      <c r="AO12" s="245"/>
-      <c r="AP12" s="245"/>
-      <c r="AQ12" s="256"/>
+      <c r="AI12" s="253"/>
+      <c r="AJ12" s="253"/>
+      <c r="AK12" s="249"/>
+      <c r="AL12" s="241"/>
+      <c r="AM12" s="251"/>
+      <c r="AN12" s="241"/>
+      <c r="AO12" s="241"/>
+      <c r="AP12" s="241"/>
+      <c r="AQ12" s="243"/>
       <c r="AR12" s="213"/>
       <c r="AT12" s="2"/>
       <c r="AU12" s="2"/>
@@ -39319,17 +39168,17 @@
       <c r="AR13" s="163"/>
     </row>
     <row r="14" spans="1:89" s="56" customFormat="1" ht="18" customHeight="1">
-      <c r="A14" s="248">
+      <c r="A14" s="244">
         <v>1</v>
       </c>
-      <c r="B14" s="248" t="s">
+      <c r="B14" s="244" t="s">
         <v>74</v>
       </c>
-      <c r="C14" s="250" t="str">
+      <c r="C14" s="246" t="str">
         <f>VLOOKUP(B14,DS,2,0)</f>
         <v>Thạch Huy Chạch</v>
       </c>
-      <c r="D14" s="252" t="str">
+      <c r="D14" s="254" t="str">
         <f>VLOOKUP(B14,DS,3,0)</f>
         <v>Công nhân</v>
       </c>
@@ -39409,29 +39258,29 @@
         <v>8</v>
       </c>
       <c r="AH14" s="131"/>
-      <c r="AI14" s="240">
+      <c r="AI14" s="252">
         <f>((SUM(F14:AH14))/8)-(SUMIF($F$6:$AH$6,"C.Nhật",F14:AH14)/8)</f>
         <v>22</v>
       </c>
-      <c r="AJ14" s="240">
+      <c r="AJ14" s="252">
         <f>SUM(F15:AH15)/8*1.5</f>
         <v>0</v>
       </c>
-      <c r="AK14" s="242">
+      <c r="AK14" s="248">
         <f>SUMIF($F$6:$AH$6,"C.Nhật",$F14:$AH15)/8*2</f>
         <v>0</v>
       </c>
-      <c r="AL14" s="244">
+      <c r="AL14" s="240">
         <f>SUM(AI14:AK15)</f>
         <v>22</v>
       </c>
-      <c r="AM14" s="246">
+      <c r="AM14" s="250">
         <v>0</v>
       </c>
-      <c r="AN14" s="244"/>
-      <c r="AO14" s="244"/>
-      <c r="AP14" s="244"/>
-      <c r="AQ14" s="255"/>
+      <c r="AN14" s="240"/>
+      <c r="AO14" s="240"/>
+      <c r="AP14" s="240"/>
+      <c r="AQ14" s="242"/>
       <c r="AR14" s="202"/>
       <c r="AS14" s="2"/>
       <c r="AT14" s="2"/>
@@ -39479,10 +39328,10 @@
       <c r="CJ14" s="2"/>
     </row>
     <row r="15" spans="1:89" s="56" customFormat="1" ht="18" customHeight="1">
-      <c r="A15" s="249"/>
-      <c r="B15" s="249"/>
-      <c r="C15" s="251"/>
-      <c r="D15" s="253"/>
+      <c r="A15" s="245"/>
+      <c r="B15" s="245"/>
+      <c r="C15" s="247"/>
+      <c r="D15" s="255"/>
       <c r="E15" s="58" t="s">
         <v>28</v>
       </c>
@@ -39515,15 +39364,15 @@
       <c r="AF15" s="132"/>
       <c r="AG15" s="132"/>
       <c r="AH15" s="132"/>
-      <c r="AI15" s="241"/>
-      <c r="AJ15" s="241"/>
-      <c r="AK15" s="243"/>
-      <c r="AL15" s="245"/>
-      <c r="AM15" s="247"/>
-      <c r="AN15" s="245"/>
-      <c r="AO15" s="245"/>
-      <c r="AP15" s="245"/>
-      <c r="AQ15" s="256"/>
+      <c r="AI15" s="253"/>
+      <c r="AJ15" s="253"/>
+      <c r="AK15" s="249"/>
+      <c r="AL15" s="241"/>
+      <c r="AM15" s="251"/>
+      <c r="AN15" s="241"/>
+      <c r="AO15" s="241"/>
+      <c r="AP15" s="241"/>
+      <c r="AQ15" s="243"/>
       <c r="AR15" s="202"/>
       <c r="AS15" s="2"/>
       <c r="AT15" s="2"/>
@@ -40576,19 +40425,32 @@
     <protectedRange password="CC78" sqref="B14:B15" name="Range1_4_2"/>
   </protectedRanges>
   <mergeCells count="53">
-    <mergeCell ref="AK1:AQ1"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="AI5:AK5"/>
-    <mergeCell ref="AL5:AL6"/>
-    <mergeCell ref="AM5:AM6"/>
-    <mergeCell ref="AN5:AN6"/>
-    <mergeCell ref="AO5:AO6"/>
-    <mergeCell ref="AP5:AP6"/>
-    <mergeCell ref="AQ5:AQ6"/>
+    <mergeCell ref="AN11:AN12"/>
+    <mergeCell ref="AO11:AO12"/>
+    <mergeCell ref="AP11:AP12"/>
+    <mergeCell ref="AQ11:AQ12"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="AI11:AI12"/>
+    <mergeCell ref="AJ11:AJ12"/>
+    <mergeCell ref="AK11:AK12"/>
+    <mergeCell ref="AL11:AL12"/>
+    <mergeCell ref="AM11:AM12"/>
+    <mergeCell ref="AQ14:AQ15"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="AI14:AI15"/>
+    <mergeCell ref="AJ14:AJ15"/>
+    <mergeCell ref="AK14:AK15"/>
+    <mergeCell ref="AL14:AL15"/>
+    <mergeCell ref="AM14:AM15"/>
+    <mergeCell ref="AN14:AN15"/>
+    <mergeCell ref="AO14:AO15"/>
+    <mergeCell ref="AP14:AP15"/>
     <mergeCell ref="AR5:AR6"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="B9:B10"/>
@@ -40603,65 +40465,52 @@
     <mergeCell ref="AK9:AK10"/>
     <mergeCell ref="AL9:AL10"/>
     <mergeCell ref="AM9:AM10"/>
-    <mergeCell ref="AQ14:AQ15"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="AI14:AI15"/>
-    <mergeCell ref="AJ14:AJ15"/>
-    <mergeCell ref="AK14:AK15"/>
-    <mergeCell ref="AL14:AL15"/>
-    <mergeCell ref="AM14:AM15"/>
-    <mergeCell ref="AN14:AN15"/>
-    <mergeCell ref="AO14:AO15"/>
-    <mergeCell ref="AP14:AP15"/>
-    <mergeCell ref="AN11:AN12"/>
-    <mergeCell ref="AO11:AO12"/>
-    <mergeCell ref="AP11:AP12"/>
-    <mergeCell ref="AQ11:AQ12"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="AI11:AI12"/>
-    <mergeCell ref="AJ11:AJ12"/>
-    <mergeCell ref="AK11:AK12"/>
-    <mergeCell ref="AL11:AL12"/>
-    <mergeCell ref="AM11:AM12"/>
+    <mergeCell ref="AK1:AQ1"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="AI5:AK5"/>
+    <mergeCell ref="AL5:AL6"/>
+    <mergeCell ref="AM5:AM6"/>
+    <mergeCell ref="AN5:AN6"/>
+    <mergeCell ref="AO5:AO6"/>
+    <mergeCell ref="AP5:AP6"/>
+    <mergeCell ref="AQ5:AQ6"/>
   </mergeCells>
   <conditionalFormatting sqref="F5:AH6">
-    <cfRule type="expression" dxfId="84" priority="27" stopIfTrue="1">
+    <cfRule type="expression" dxfId="62" priority="27" stopIfTrue="1">
       <formula>IF(WEEKDAY(F$5)=1,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H14:I15">
-    <cfRule type="expression" dxfId="83" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="61" priority="1" stopIfTrue="1">
       <formula>IF(WEEKDAY(H$5)=1,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9:G10 J9:AH10">
-    <cfRule type="expression" dxfId="82" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="60" priority="6" stopIfTrue="1">
       <formula>IF(WEEKDAY(F$5)=1,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11:G12 J11:AH12">
-    <cfRule type="expression" dxfId="81" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="59" priority="5" stopIfTrue="1">
       <formula>IF(WEEKDAY(F$5)=1,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9:I10">
-    <cfRule type="expression" dxfId="80" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="58" priority="4" stopIfTrue="1">
       <formula>IF(WEEKDAY(H$5)=1,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11:I12">
-    <cfRule type="expression" dxfId="79" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="57" priority="3" stopIfTrue="1">
       <formula>IF(WEEKDAY(H$5)=1,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14:G15 J14:AH15">
-    <cfRule type="expression" dxfId="78" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="56" priority="2" stopIfTrue="1">
       <formula>IF(WEEKDAY(F$5)=1,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40684,7 +40533,7 @@
   <dimension ref="A1:AC28"/>
   <sheetViews>
     <sheetView zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="3" ySplit="8" topLeftCell="G9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="8" topLeftCell="G12" activePane="bottomRight" state="frozen"/>
       <selection activeCell="X10" sqref="X10"/>
       <selection pane="topRight" activeCell="X10" sqref="X10"/>
       <selection pane="bottomLeft" activeCell="X10" sqref="X10"/>
@@ -40695,7 +40544,7 @@
   <cols>
     <col min="1" max="1" width="4.28515625" style="6" customWidth="1"/>
     <col min="2" max="2" width="8.42578125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="21.140625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="23.85546875" style="6" customWidth="1"/>
     <col min="4" max="4" width="13.5703125" style="15" customWidth="1"/>
     <col min="5" max="5" width="10.28515625" style="16" customWidth="1"/>
     <col min="6" max="6" width="7.140625" style="15" customWidth="1"/>
@@ -40724,26 +40573,26 @@
       <c r="A1" s="127"/>
       <c r="B1" s="204"/>
       <c r="C1" s="204"/>
-      <c r="D1" s="272" t="str">
+      <c r="D1" s="274" t="str">
         <f>"BẢNG THANH TOÁN LƯƠNG THÁNG"&amp;" "&amp;TEXT($E$4,"mm")&amp;" / "&amp;TEXT($E$4,"yyyy")</f>
         <v>BẢNG THANH TOÁN LƯƠNG THÁNG 02 / 2017</v>
       </c>
-      <c r="E1" s="272"/>
-      <c r="F1" s="272"/>
-      <c r="G1" s="272"/>
-      <c r="H1" s="272"/>
-      <c r="I1" s="272"/>
-      <c r="J1" s="272"/>
-      <c r="K1" s="272"/>
-      <c r="L1" s="272"/>
-      <c r="M1" s="272"/>
-      <c r="N1" s="272"/>
-      <c r="O1" s="273"/>
-      <c r="P1" s="274" t="s">
+      <c r="E1" s="274"/>
+      <c r="F1" s="274"/>
+      <c r="G1" s="274"/>
+      <c r="H1" s="274"/>
+      <c r="I1" s="274"/>
+      <c r="J1" s="274"/>
+      <c r="K1" s="274"/>
+      <c r="L1" s="274"/>
+      <c r="M1" s="274"/>
+      <c r="N1" s="274"/>
+      <c r="O1" s="275"/>
+      <c r="P1" s="276" t="s">
         <v>76</v>
       </c>
-      <c r="Q1" s="275"/>
-      <c r="R1" s="276"/>
+      <c r="Q1" s="277"/>
+      <c r="R1" s="278"/>
       <c r="S1" s="118" t="s">
         <v>49</v>
       </c>
@@ -40848,34 +40697,34 @@
       <c r="X4" s="94"/>
     </row>
     <row r="5" spans="1:29" s="22" customFormat="1" ht="24" customHeight="1">
-      <c r="A5" s="282" t="s">
+      <c r="A5" s="268" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="282" t="s">
+      <c r="B5" s="268" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="233" t="s">
+      <c r="C5" s="235" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="233" t="s">
+      <c r="D5" s="235" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="236" t="s">
+      <c r="E5" s="238" t="s">
         <v>48</v>
       </c>
-      <c r="F5" s="277" t="s">
+      <c r="F5" s="279" t="s">
         <v>23</v>
       </c>
-      <c r="G5" s="278"/>
-      <c r="H5" s="278"/>
-      <c r="I5" s="278"/>
-      <c r="J5" s="278"/>
-      <c r="K5" s="279"/>
-      <c r="L5" s="233" t="s">
+      <c r="G5" s="280"/>
+      <c r="H5" s="280"/>
+      <c r="I5" s="280"/>
+      <c r="J5" s="280"/>
+      <c r="K5" s="281"/>
+      <c r="L5" s="235" t="s">
         <v>5</v>
       </c>
-      <c r="M5" s="233"/>
-      <c r="N5" s="233"/>
+      <c r="M5" s="235"/>
+      <c r="N5" s="235"/>
       <c r="O5" s="270" t="s">
         <v>6</v>
       </c>
@@ -40885,7 +40734,7 @@
       <c r="Q5" s="270" t="s">
         <v>8</v>
       </c>
-      <c r="R5" s="234" t="s">
+      <c r="R5" s="236" t="s">
         <v>9</v>
       </c>
       <c r="S5" s="92"/>
@@ -40901,26 +40750,26 @@
       <c r="AC5" s="4"/>
     </row>
     <row r="6" spans="1:29" s="22" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A6" s="283"/>
-      <c r="B6" s="283"/>
-      <c r="C6" s="233"/>
-      <c r="D6" s="233"/>
-      <c r="E6" s="236"/>
-      <c r="F6" s="277" t="s">
+      <c r="A6" s="269"/>
+      <c r="B6" s="269"/>
+      <c r="C6" s="235"/>
+      <c r="D6" s="235"/>
+      <c r="E6" s="238"/>
+      <c r="F6" s="279" t="s">
         <v>50</v>
       </c>
-      <c r="G6" s="279"/>
-      <c r="H6" s="277" t="s">
+      <c r="G6" s="281"/>
+      <c r="H6" s="279" t="s">
         <v>69</v>
       </c>
-      <c r="I6" s="278"/>
-      <c r="J6" s="280" t="s">
+      <c r="I6" s="280"/>
+      <c r="J6" s="282" t="s">
         <v>24</v>
       </c>
       <c r="K6" s="270" t="s">
         <v>4</v>
       </c>
-      <c r="L6" s="268" t="s">
+      <c r="L6" s="271" t="s">
         <v>11</v>
       </c>
       <c r="M6" s="270" t="s">
@@ -40929,10 +40778,10 @@
       <c r="N6" s="270" t="s">
         <v>30</v>
       </c>
-      <c r="O6" s="271"/>
-      <c r="P6" s="271"/>
-      <c r="Q6" s="271"/>
-      <c r="R6" s="235"/>
+      <c r="O6" s="273"/>
+      <c r="P6" s="273"/>
+      <c r="Q6" s="273"/>
+      <c r="R6" s="237"/>
       <c r="S6" s="92"/>
       <c r="T6" s="23"/>
       <c r="U6" s="23"/>
@@ -40946,11 +40795,11 @@
       <c r="AC6" s="4"/>
     </row>
     <row r="7" spans="1:29" s="22" customFormat="1" ht="35.25" customHeight="1">
-      <c r="A7" s="283"/>
-      <c r="B7" s="283"/>
+      <c r="A7" s="269"/>
+      <c r="B7" s="269"/>
       <c r="C7" s="270"/>
       <c r="D7" s="270"/>
-      <c r="E7" s="236"/>
+      <c r="E7" s="238"/>
       <c r="F7" s="203" t="s">
         <v>33</v>
       </c>
@@ -40963,15 +40812,15 @@
       <c r="I7" s="116" t="s">
         <v>17</v>
       </c>
-      <c r="J7" s="281"/>
-      <c r="K7" s="271"/>
-      <c r="L7" s="269"/>
-      <c r="M7" s="271"/>
-      <c r="N7" s="271"/>
-      <c r="O7" s="271"/>
-      <c r="P7" s="271"/>
-      <c r="Q7" s="271"/>
-      <c r="R7" s="235"/>
+      <c r="J7" s="283"/>
+      <c r="K7" s="273"/>
+      <c r="L7" s="272"/>
+      <c r="M7" s="273"/>
+      <c r="N7" s="273"/>
+      <c r="O7" s="273"/>
+      <c r="P7" s="273"/>
+      <c r="Q7" s="273"/>
+      <c r="R7" s="237"/>
       <c r="S7" s="92"/>
       <c r="T7" s="23"/>
       <c r="U7" s="23"/>
@@ -41662,11 +41511,6 @@
   </protectedRanges>
   <autoFilter ref="A7:AC10"/>
   <mergeCells count="20">
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="D5:D7"/>
-    <mergeCell ref="E5:E7"/>
     <mergeCell ref="L6:L7"/>
     <mergeCell ref="M6:M7"/>
     <mergeCell ref="N6:N7"/>
@@ -41682,10 +41526,15 @@
     <mergeCell ref="L5:N5"/>
     <mergeCell ref="J6:J7"/>
     <mergeCell ref="K6:K7"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="E5:E7"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0.24" top="0.2" bottom="0.32" header="0.2" footer="0.2"/>
-  <pageSetup paperSize="9" scale="70" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="80" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddFooter>&amp;C&amp;P/&amp;N</oddFooter>
   </headerFooter>
@@ -41770,15 +41619,15 @@
       <c r="AJ1" s="107"/>
       <c r="AK1" s="44"/>
       <c r="AL1" s="44"/>
-      <c r="AM1" s="260" t="s">
+      <c r="AM1" s="256" t="s">
         <v>76</v>
       </c>
-      <c r="AN1" s="261"/>
-      <c r="AO1" s="261"/>
-      <c r="AP1" s="261"/>
-      <c r="AQ1" s="261"/>
-      <c r="AR1" s="261"/>
-      <c r="AS1" s="262"/>
+      <c r="AN1" s="257"/>
+      <c r="AO1" s="257"/>
+      <c r="AP1" s="257"/>
+      <c r="AQ1" s="257"/>
+      <c r="AR1" s="257"/>
+      <c r="AS1" s="258"/>
       <c r="AT1" s="46"/>
     </row>
     <row r="2" spans="1:91" ht="20.25">
@@ -41928,19 +41777,19 @@
       <c r="AT4" s="90"/>
     </row>
     <row r="5" spans="1:91" s="56" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A5" s="257" t="s">
+      <c r="A5" s="266" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="257" t="s">
+      <c r="B5" s="266" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="257" t="s">
+      <c r="C5" s="266" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="259" t="s">
+      <c r="D5" s="264" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="257" t="s">
+      <c r="E5" s="266" t="s">
         <v>27</v>
       </c>
       <c r="F5" s="106">
@@ -42067,30 +41916,30 @@
         <f t="shared" si="0"/>
         <v>42825</v>
       </c>
-      <c r="AK5" s="263" t="s">
+      <c r="AK5" s="259" t="s">
         <v>14</v>
       </c>
-      <c r="AL5" s="264"/>
-      <c r="AM5" s="265"/>
-      <c r="AN5" s="266" t="s">
+      <c r="AL5" s="260"/>
+      <c r="AM5" s="261"/>
+      <c r="AN5" s="262" t="s">
         <v>38</v>
       </c>
-      <c r="AO5" s="266" t="s">
+      <c r="AO5" s="262" t="s">
         <v>34</v>
       </c>
-      <c r="AP5" s="266" t="s">
+      <c r="AP5" s="262" t="s">
         <v>35</v>
       </c>
-      <c r="AQ5" s="266" t="s">
+      <c r="AQ5" s="262" t="s">
         <v>36</v>
       </c>
-      <c r="AR5" s="266" t="s">
+      <c r="AR5" s="262" t="s">
         <v>37</v>
       </c>
-      <c r="AS5" s="259" t="s">
+      <c r="AS5" s="264" t="s">
         <v>0</v>
       </c>
-      <c r="AT5" s="254"/>
+      <c r="AT5" s="267"/>
       <c r="AV5" s="2"/>
       <c r="AW5" s="2"/>
       <c r="AX5" s="2"/>
@@ -42137,11 +41986,11 @@
       <c r="CM5" s="2"/>
     </row>
     <row r="6" spans="1:91" s="56" customFormat="1" ht="39.75" customHeight="1">
-      <c r="A6" s="258"/>
-      <c r="B6" s="258"/>
-      <c r="C6" s="258"/>
-      <c r="D6" s="258"/>
-      <c r="E6" s="258"/>
+      <c r="A6" s="265"/>
+      <c r="B6" s="265"/>
+      <c r="C6" s="265"/>
+      <c r="D6" s="265"/>
+      <c r="E6" s="265"/>
       <c r="F6" s="158" t="str">
         <f>CHOOSE(WEEKDAY(F5),"C.Nhật","T.Hai","T.Ba","T.Tư","T.Năm","T.Sáu","T.Bảy")</f>
         <v>T.Tư</v>
@@ -42275,13 +42124,13 @@
       <c r="AM6" s="160" t="s">
         <v>16</v>
       </c>
-      <c r="AN6" s="267"/>
-      <c r="AO6" s="267"/>
-      <c r="AP6" s="267"/>
-      <c r="AQ6" s="267"/>
-      <c r="AR6" s="267"/>
-      <c r="AS6" s="258"/>
-      <c r="AT6" s="254"/>
+      <c r="AN6" s="263"/>
+      <c r="AO6" s="263"/>
+      <c r="AP6" s="263"/>
+      <c r="AQ6" s="263"/>
+      <c r="AR6" s="263"/>
+      <c r="AS6" s="265"/>
+      <c r="AT6" s="267"/>
       <c r="AV6" s="2"/>
       <c r="AW6" s="2"/>
       <c r="AX6" s="2"/>
@@ -42562,17 +42411,17 @@
       <c r="AT8" s="163"/>
     </row>
     <row r="9" spans="1:91" s="56" customFormat="1" ht="18" customHeight="1">
-      <c r="A9" s="248">
+      <c r="A9" s="244">
         <v>1</v>
       </c>
-      <c r="B9" s="248" t="s">
+      <c r="B9" s="244" t="s">
         <v>72</v>
       </c>
-      <c r="C9" s="250" t="str">
+      <c r="C9" s="246" t="str">
         <f>VLOOKUP(B9,DS,2,0)</f>
         <v>Nguyễn Phước Bảo Việt Hùng</v>
       </c>
-      <c r="D9" s="252" t="str">
+      <c r="D9" s="254" t="str">
         <f>VLOOKUP(B9,DS,3,0)</f>
         <v>Kinh Doanh</v>
       </c>
@@ -42664,29 +42513,29 @@
       <c r="AJ9" s="131">
         <v>8</v>
       </c>
-      <c r="AK9" s="240">
+      <c r="AK9" s="252">
         <f>((SUM(F9:AJ9))/8)-(SUMIF($F$6:$AJ$6,"C.Nhật",F9:AJ9)/8)</f>
         <v>27</v>
       </c>
-      <c r="AL9" s="240">
+      <c r="AL9" s="252">
         <f>SUM(F10:AJ10)/8*1.5</f>
         <v>0</v>
       </c>
-      <c r="AM9" s="242">
+      <c r="AM9" s="248">
         <f>SUMIF($F$6:$AJ$6,"C.Nhật",$F9:$AJ10)/8*2</f>
         <v>0</v>
       </c>
-      <c r="AN9" s="244">
+      <c r="AN9" s="240">
         <f>SUM(AK9:AM10)</f>
         <v>27</v>
       </c>
-      <c r="AO9" s="246">
+      <c r="AO9" s="250">
         <v>0</v>
       </c>
-      <c r="AP9" s="244"/>
-      <c r="AQ9" s="244"/>
-      <c r="AR9" s="244"/>
-      <c r="AS9" s="255"/>
+      <c r="AP9" s="240"/>
+      <c r="AQ9" s="240"/>
+      <c r="AR9" s="240"/>
+      <c r="AS9" s="242"/>
       <c r="AT9" s="202"/>
       <c r="AV9" s="2"/>
       <c r="AW9" s="2"/>
@@ -42734,10 +42583,10 @@
       <c r="CM9" s="2"/>
     </row>
     <row r="10" spans="1:91" s="56" customFormat="1" ht="18" customHeight="1">
-      <c r="A10" s="249"/>
-      <c r="B10" s="249"/>
-      <c r="C10" s="251"/>
-      <c r="D10" s="253"/>
+      <c r="A10" s="245"/>
+      <c r="B10" s="245"/>
+      <c r="C10" s="247"/>
+      <c r="D10" s="255"/>
       <c r="E10" s="58" t="s">
         <v>28</v>
       </c>
@@ -42772,15 +42621,15 @@
       <c r="AH10" s="132"/>
       <c r="AI10" s="132"/>
       <c r="AJ10" s="132"/>
-      <c r="AK10" s="241"/>
-      <c r="AL10" s="241"/>
-      <c r="AM10" s="243"/>
-      <c r="AN10" s="245"/>
-      <c r="AO10" s="247"/>
-      <c r="AP10" s="245"/>
-      <c r="AQ10" s="245"/>
-      <c r="AR10" s="245"/>
-      <c r="AS10" s="256"/>
+      <c r="AK10" s="253"/>
+      <c r="AL10" s="253"/>
+      <c r="AM10" s="249"/>
+      <c r="AN10" s="241"/>
+      <c r="AO10" s="251"/>
+      <c r="AP10" s="241"/>
+      <c r="AQ10" s="241"/>
+      <c r="AR10" s="241"/>
+      <c r="AS10" s="243"/>
       <c r="AT10" s="202"/>
       <c r="AV10" s="2"/>
       <c r="AW10" s="2"/>
@@ -42828,17 +42677,17 @@
       <c r="CM10" s="2"/>
     </row>
     <row r="11" spans="1:91" s="56" customFormat="1" ht="18" customHeight="1">
-      <c r="A11" s="248">
+      <c r="A11" s="244">
         <v>2</v>
       </c>
-      <c r="B11" s="248" t="s">
+      <c r="B11" s="244" t="s">
         <v>73</v>
       </c>
-      <c r="C11" s="250" t="str">
+      <c r="C11" s="246" t="str">
         <f>VLOOKUP(B11,DS,2,0)</f>
         <v>Mai Thị Hường</v>
       </c>
-      <c r="D11" s="252" t="str">
+      <c r="D11" s="254" t="str">
         <f>VLOOKUP(B11,DS,3,0)</f>
         <v>Kế Toán</v>
       </c>
@@ -42930,29 +42779,29 @@
       <c r="AJ11" s="131">
         <v>8</v>
       </c>
-      <c r="AK11" s="240">
+      <c r="AK11" s="252">
         <f t="shared" ref="AK11" si="2">((SUM(F11:AJ11))/8)-(SUMIF($F$6:$AJ$6,"C.Nhật",F11:AJ11)/8)</f>
         <v>27</v>
       </c>
-      <c r="AL11" s="240">
+      <c r="AL11" s="252">
         <f t="shared" ref="AL11" si="3">SUM(F12:AJ12)/8*1.5</f>
         <v>0</v>
       </c>
-      <c r="AM11" s="242">
+      <c r="AM11" s="248">
         <f t="shared" ref="AM11:AM15" si="4">SUMIF($F$6:$AJ$6,"C.Nhật",$F11:$AJ12)/8*2</f>
         <v>0</v>
       </c>
-      <c r="AN11" s="244">
+      <c r="AN11" s="240">
         <f t="shared" ref="AN11" si="5">SUM(AK11:AM12)</f>
         <v>27</v>
       </c>
-      <c r="AO11" s="246">
+      <c r="AO11" s="250">
         <v>0</v>
       </c>
-      <c r="AP11" s="244"/>
-      <c r="AQ11" s="244"/>
-      <c r="AR11" s="244"/>
-      <c r="AS11" s="255"/>
+      <c r="AP11" s="240"/>
+      <c r="AQ11" s="240"/>
+      <c r="AR11" s="240"/>
+      <c r="AS11" s="242"/>
       <c r="AT11" s="213"/>
       <c r="AV11" s="2"/>
       <c r="AW11" s="2"/>
@@ -43000,10 +42849,10 @@
       <c r="CM11" s="2"/>
     </row>
     <row r="12" spans="1:91" s="56" customFormat="1" ht="18" customHeight="1">
-      <c r="A12" s="249"/>
-      <c r="B12" s="249"/>
-      <c r="C12" s="251"/>
-      <c r="D12" s="253"/>
+      <c r="A12" s="245"/>
+      <c r="B12" s="245"/>
+      <c r="C12" s="247"/>
+      <c r="D12" s="255"/>
       <c r="E12" s="58" t="s">
         <v>28</v>
       </c>
@@ -43038,15 +42887,15 @@
       <c r="AH12" s="132"/>
       <c r="AI12" s="132"/>
       <c r="AJ12" s="132"/>
-      <c r="AK12" s="241"/>
-      <c r="AL12" s="241"/>
-      <c r="AM12" s="243"/>
-      <c r="AN12" s="245"/>
-      <c r="AO12" s="247"/>
-      <c r="AP12" s="245"/>
-      <c r="AQ12" s="245"/>
-      <c r="AR12" s="245"/>
-      <c r="AS12" s="256"/>
+      <c r="AK12" s="253"/>
+      <c r="AL12" s="253"/>
+      <c r="AM12" s="249"/>
+      <c r="AN12" s="241"/>
+      <c r="AO12" s="251"/>
+      <c r="AP12" s="241"/>
+      <c r="AQ12" s="241"/>
+      <c r="AR12" s="241"/>
+      <c r="AS12" s="243"/>
       <c r="AT12" s="213"/>
       <c r="AV12" s="2"/>
       <c r="AW12" s="2"/>
@@ -43094,17 +42943,17 @@
       <c r="CM12" s="2"/>
     </row>
     <row r="13" spans="1:91" s="56" customFormat="1" ht="18" customHeight="1">
-      <c r="A13" s="248">
+      <c r="A13" s="244">
         <v>2</v>
       </c>
-      <c r="B13" s="248" t="s">
+      <c r="B13" s="244" t="s">
         <v>105</v>
       </c>
-      <c r="C13" s="250" t="str">
+      <c r="C13" s="246" t="str">
         <f>VLOOKUP(B13,DS,2,0)</f>
         <v>Nguyễn Thị Thúy Hằng</v>
       </c>
-      <c r="D13" s="252" t="str">
+      <c r="D13" s="254" t="str">
         <f>VLOOKUP(B13,DS,3,0)</f>
         <v>Trưởng Phòng</v>
       </c>
@@ -43196,29 +43045,29 @@
       <c r="AJ13" s="131">
         <v>8</v>
       </c>
-      <c r="AK13" s="240">
+      <c r="AK13" s="252">
         <f t="shared" ref="AK13" si="6">((SUM(F13:AJ13))/8)-(SUMIF($F$6:$AJ$6,"C.Nhật",F13:AJ13)/8)</f>
         <v>27</v>
       </c>
-      <c r="AL13" s="240">
+      <c r="AL13" s="252">
         <f t="shared" ref="AL13" si="7">SUM(F14:AJ14)/8*1.5</f>
         <v>0</v>
       </c>
-      <c r="AM13" s="242">
+      <c r="AM13" s="248">
         <f>SUMIF($F$6:$AJ$6,"C.Nhật",$F13:$AJ14)/8*2</f>
         <v>0</v>
       </c>
-      <c r="AN13" s="244">
+      <c r="AN13" s="240">
         <f>SUM(AK13:AM14)</f>
         <v>27</v>
       </c>
-      <c r="AO13" s="246">
+      <c r="AO13" s="250">
         <v>0</v>
       </c>
-      <c r="AP13" s="244"/>
-      <c r="AQ13" s="244"/>
-      <c r="AR13" s="244"/>
-      <c r="AS13" s="255"/>
+      <c r="AP13" s="240"/>
+      <c r="AQ13" s="240"/>
+      <c r="AR13" s="240"/>
+      <c r="AS13" s="242"/>
       <c r="AT13" s="225"/>
       <c r="AU13" s="2"/>
       <c r="AV13" s="2"/>
@@ -43266,10 +43115,10 @@
       <c r="CL13" s="2"/>
     </row>
     <row r="14" spans="1:91" s="56" customFormat="1" ht="18" customHeight="1">
-      <c r="A14" s="249"/>
-      <c r="B14" s="249"/>
-      <c r="C14" s="251"/>
-      <c r="D14" s="253"/>
+      <c r="A14" s="245"/>
+      <c r="B14" s="245"/>
+      <c r="C14" s="247"/>
+      <c r="D14" s="255"/>
       <c r="E14" s="58" t="s">
         <v>28</v>
       </c>
@@ -43304,15 +43153,15 @@
       <c r="AH14" s="132"/>
       <c r="AI14" s="132"/>
       <c r="AJ14" s="132"/>
-      <c r="AK14" s="241"/>
-      <c r="AL14" s="241"/>
-      <c r="AM14" s="243"/>
-      <c r="AN14" s="245"/>
-      <c r="AO14" s="247"/>
-      <c r="AP14" s="245"/>
-      <c r="AQ14" s="245"/>
-      <c r="AR14" s="245"/>
-      <c r="AS14" s="256"/>
+      <c r="AK14" s="253"/>
+      <c r="AL14" s="253"/>
+      <c r="AM14" s="249"/>
+      <c r="AN14" s="241"/>
+      <c r="AO14" s="251"/>
+      <c r="AP14" s="241"/>
+      <c r="AQ14" s="241"/>
+      <c r="AR14" s="241"/>
+      <c r="AS14" s="243"/>
       <c r="AT14" s="225"/>
       <c r="AU14" s="2"/>
       <c r="AV14" s="2"/>
@@ -43360,17 +43209,17 @@
       <c r="CL14" s="2"/>
     </row>
     <row r="15" spans="1:91" s="56" customFormat="1" ht="18" customHeight="1">
-      <c r="A15" s="248">
+      <c r="A15" s="244">
         <v>3</v>
       </c>
-      <c r="B15" s="248" t="s">
+      <c r="B15" s="244" t="s">
         <v>113</v>
       </c>
-      <c r="C15" s="250" t="str">
+      <c r="C15" s="246" t="str">
         <f>VLOOKUP(B15,DS,2,0)</f>
         <v>Võ Ngọc Thúy Hằng</v>
       </c>
-      <c r="D15" s="252" t="str">
+      <c r="D15" s="254" t="str">
         <f>VLOOKUP(B15,DS,3,0)</f>
         <v>Văn Phòng</v>
       </c>
@@ -43462,29 +43311,29 @@
       <c r="AJ15" s="131">
         <v>8</v>
       </c>
-      <c r="AK15" s="240">
+      <c r="AK15" s="252">
         <f t="shared" ref="AK15" si="8">((SUM(F15:AJ15))/8)-(SUMIF($F$6:$AJ$6,"C.Nhật",F15:AJ15)/8)</f>
         <v>27</v>
       </c>
-      <c r="AL15" s="240">
+      <c r="AL15" s="252">
         <f t="shared" ref="AL15" si="9">SUM(F16:AJ16)/8*1.5</f>
         <v>0</v>
       </c>
-      <c r="AM15" s="242">
+      <c r="AM15" s="248">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AN15" s="244">
+      <c r="AN15" s="240">
         <f t="shared" ref="AN15" si="10">SUM(AK15:AM16)</f>
         <v>27</v>
       </c>
-      <c r="AO15" s="246">
+      <c r="AO15" s="250">
         <v>0</v>
       </c>
-      <c r="AP15" s="244"/>
-      <c r="AQ15" s="244"/>
-      <c r="AR15" s="244"/>
-      <c r="AS15" s="255"/>
+      <c r="AP15" s="240"/>
+      <c r="AQ15" s="240"/>
+      <c r="AR15" s="240"/>
+      <c r="AS15" s="242"/>
       <c r="AT15" s="209"/>
       <c r="AV15" s="2"/>
       <c r="AW15" s="2"/>
@@ -43532,10 +43381,10 @@
       <c r="CM15" s="2"/>
     </row>
     <row r="16" spans="1:91" s="56" customFormat="1" ht="18" customHeight="1">
-      <c r="A16" s="249"/>
-      <c r="B16" s="249"/>
-      <c r="C16" s="251"/>
-      <c r="D16" s="253"/>
+      <c r="A16" s="245"/>
+      <c r="B16" s="245"/>
+      <c r="C16" s="247"/>
+      <c r="D16" s="255"/>
       <c r="E16" s="58" t="s">
         <v>28</v>
       </c>
@@ -43570,15 +43419,15 @@
       <c r="AH16" s="132"/>
       <c r="AI16" s="132"/>
       <c r="AJ16" s="132"/>
-      <c r="AK16" s="241"/>
-      <c r="AL16" s="241"/>
-      <c r="AM16" s="243"/>
-      <c r="AN16" s="245"/>
-      <c r="AO16" s="247"/>
-      <c r="AP16" s="245"/>
-      <c r="AQ16" s="245"/>
-      <c r="AR16" s="245"/>
-      <c r="AS16" s="256"/>
+      <c r="AK16" s="253"/>
+      <c r="AL16" s="253"/>
+      <c r="AM16" s="249"/>
+      <c r="AN16" s="241"/>
+      <c r="AO16" s="251"/>
+      <c r="AP16" s="241"/>
+      <c r="AQ16" s="241"/>
+      <c r="AR16" s="241"/>
+      <c r="AS16" s="243"/>
       <c r="AT16" s="209"/>
       <c r="AV16" s="2"/>
       <c r="AW16" s="2"/>
@@ -43678,17 +43527,17 @@
       <c r="AT17" s="163"/>
     </row>
     <row r="18" spans="1:91" s="56" customFormat="1" ht="18" customHeight="1">
-      <c r="A18" s="248">
+      <c r="A18" s="244">
         <v>1</v>
       </c>
-      <c r="B18" s="248" t="s">
+      <c r="B18" s="244" t="s">
         <v>74</v>
       </c>
-      <c r="C18" s="250" t="str">
+      <c r="C18" s="246" t="str">
         <f>VLOOKUP(B18,DS,2,0)</f>
         <v>Thạch Huy Chạch</v>
       </c>
-      <c r="D18" s="252" t="str">
+      <c r="D18" s="254" t="str">
         <f>VLOOKUP(B18,DS,3,0)</f>
         <v>Công nhân</v>
       </c>
@@ -43780,29 +43629,29 @@
       <c r="AJ18" s="131">
         <v>8</v>
       </c>
-      <c r="AK18" s="240">
+      <c r="AK18" s="252">
         <f t="shared" ref="AK18" si="11">((SUM(F18:AJ18))/8)-(SUMIF($F$6:$AJ$6,"C.Nhật",F18:AJ18)/8)</f>
         <v>27</v>
       </c>
-      <c r="AL18" s="240">
+      <c r="AL18" s="252">
         <f t="shared" ref="AL18" si="12">SUM(F19:AJ19)/8*1.5</f>
         <v>0</v>
       </c>
-      <c r="AM18" s="242">
+      <c r="AM18" s="248">
         <f>SUMIF($F$6:$AJ$6,"C.Nhật",$F18:$AJ19)/8*2</f>
         <v>0</v>
       </c>
-      <c r="AN18" s="244">
+      <c r="AN18" s="240">
         <f>SUM(AK18:AM19)</f>
         <v>27</v>
       </c>
-      <c r="AO18" s="246">
+      <c r="AO18" s="250">
         <v>0</v>
       </c>
-      <c r="AP18" s="244"/>
-      <c r="AQ18" s="244"/>
-      <c r="AR18" s="244"/>
-      <c r="AS18" s="255"/>
+      <c r="AP18" s="240"/>
+      <c r="AQ18" s="240"/>
+      <c r="AR18" s="240"/>
+      <c r="AS18" s="242"/>
       <c r="AT18" s="223"/>
       <c r="AU18" s="2"/>
       <c r="AV18" s="2"/>
@@ -43850,10 +43699,10 @@
       <c r="CL18" s="2"/>
     </row>
     <row r="19" spans="1:91" s="56" customFormat="1" ht="18" customHeight="1">
-      <c r="A19" s="249"/>
-      <c r="B19" s="249"/>
-      <c r="C19" s="251"/>
-      <c r="D19" s="253"/>
+      <c r="A19" s="245"/>
+      <c r="B19" s="245"/>
+      <c r="C19" s="247"/>
+      <c r="D19" s="255"/>
       <c r="E19" s="58" t="s">
         <v>28</v>
       </c>
@@ -43888,15 +43737,15 @@
       <c r="AH19" s="132"/>
       <c r="AI19" s="132"/>
       <c r="AJ19" s="132"/>
-      <c r="AK19" s="241"/>
-      <c r="AL19" s="241"/>
-      <c r="AM19" s="243"/>
-      <c r="AN19" s="245"/>
-      <c r="AO19" s="247"/>
-      <c r="AP19" s="245"/>
-      <c r="AQ19" s="245"/>
-      <c r="AR19" s="245"/>
-      <c r="AS19" s="256"/>
+      <c r="AK19" s="253"/>
+      <c r="AL19" s="253"/>
+      <c r="AM19" s="249"/>
+      <c r="AN19" s="241"/>
+      <c r="AO19" s="251"/>
+      <c r="AP19" s="241"/>
+      <c r="AQ19" s="241"/>
+      <c r="AR19" s="241"/>
+      <c r="AS19" s="243"/>
       <c r="AT19" s="223"/>
       <c r="AU19" s="2"/>
       <c r="AV19" s="2"/>
@@ -44967,47 +44816,28 @@
     <protectedRange password="CC78" sqref="B18:B19" name="Range1_4_2"/>
   </protectedRanges>
   <mergeCells count="79">
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="AK13:AK14"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="AP11:AP12"/>
-    <mergeCell ref="AQ11:AQ12"/>
-    <mergeCell ref="AR11:AR12"/>
-    <mergeCell ref="AS11:AS12"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="AK9:AK10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="AK11:AK12"/>
-    <mergeCell ref="AM1:AS1"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="AK5:AM5"/>
-    <mergeCell ref="AN5:AN6"/>
-    <mergeCell ref="AO5:AO6"/>
-    <mergeCell ref="AP5:AP6"/>
-    <mergeCell ref="AQ5:AQ6"/>
-    <mergeCell ref="AR5:AR6"/>
-    <mergeCell ref="AS5:AS6"/>
-    <mergeCell ref="AT5:AT6"/>
-    <mergeCell ref="AL9:AL10"/>
-    <mergeCell ref="AS9:AS10"/>
-    <mergeCell ref="AP9:AP10"/>
-    <mergeCell ref="AQ9:AQ10"/>
-    <mergeCell ref="AR9:AR10"/>
-    <mergeCell ref="AM9:AM10"/>
-    <mergeCell ref="AN9:AN10"/>
-    <mergeCell ref="AO9:AO10"/>
+    <mergeCell ref="AL18:AL19"/>
+    <mergeCell ref="AR18:AR19"/>
+    <mergeCell ref="AS18:AS19"/>
+    <mergeCell ref="AM18:AM19"/>
+    <mergeCell ref="AN18:AN19"/>
+    <mergeCell ref="AO18:AO19"/>
+    <mergeCell ref="AP18:AP19"/>
+    <mergeCell ref="AQ18:AQ19"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="AK18:AK19"/>
+    <mergeCell ref="AL15:AL16"/>
+    <mergeCell ref="AO15:AO16"/>
+    <mergeCell ref="AM15:AM16"/>
+    <mergeCell ref="AN15:AN16"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="AK15:AK16"/>
     <mergeCell ref="AS15:AS16"/>
     <mergeCell ref="AL11:AL12"/>
     <mergeCell ref="AM11:AM12"/>
@@ -45024,71 +44854,90 @@
     <mergeCell ref="AQ13:AQ14"/>
     <mergeCell ref="AR13:AR14"/>
     <mergeCell ref="AS13:AS14"/>
-    <mergeCell ref="AL15:AL16"/>
-    <mergeCell ref="AO15:AO16"/>
-    <mergeCell ref="AM15:AM16"/>
-    <mergeCell ref="AN15:AN16"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="AK15:AK16"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="AK18:AK19"/>
-    <mergeCell ref="AL18:AL19"/>
-    <mergeCell ref="AR18:AR19"/>
-    <mergeCell ref="AS18:AS19"/>
-    <mergeCell ref="AM18:AM19"/>
-    <mergeCell ref="AN18:AN19"/>
-    <mergeCell ref="AO18:AO19"/>
-    <mergeCell ref="AP18:AP19"/>
-    <mergeCell ref="AQ18:AQ19"/>
+    <mergeCell ref="AT5:AT6"/>
+    <mergeCell ref="AL9:AL10"/>
+    <mergeCell ref="AS9:AS10"/>
+    <mergeCell ref="AP9:AP10"/>
+    <mergeCell ref="AQ9:AQ10"/>
+    <mergeCell ref="AR9:AR10"/>
+    <mergeCell ref="AM9:AM10"/>
+    <mergeCell ref="AN9:AN10"/>
+    <mergeCell ref="AO9:AO10"/>
+    <mergeCell ref="AM1:AS1"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="AK5:AM5"/>
+    <mergeCell ref="AN5:AN6"/>
+    <mergeCell ref="AO5:AO6"/>
+    <mergeCell ref="AP5:AP6"/>
+    <mergeCell ref="AQ5:AQ6"/>
+    <mergeCell ref="AR5:AR6"/>
+    <mergeCell ref="AS5:AS6"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="AP11:AP12"/>
+    <mergeCell ref="AQ11:AQ12"/>
+    <mergeCell ref="AR11:AR12"/>
+    <mergeCell ref="AS11:AS12"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="AK9:AK10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="AK11:AK12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="AK13:AK14"/>
   </mergeCells>
   <conditionalFormatting sqref="F5:AJ6">
-    <cfRule type="expression" dxfId="77" priority="47" stopIfTrue="1">
+    <cfRule type="expression" dxfId="55" priority="47" stopIfTrue="1">
       <formula>IF(WEEKDAY(F$5)=1,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11:AJ12">
-    <cfRule type="expression" dxfId="76" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="54" priority="6" stopIfTrue="1">
       <formula>IF(WEEKDAY(F$5)=1,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11:AJ12">
-    <cfRule type="expression" dxfId="75" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="53" priority="5" stopIfTrue="1">
       <formula>IF(WEEKDAY(F$5)=1,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F18:AJ19">
-    <cfRule type="expression" dxfId="74" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="52" priority="4" stopIfTrue="1">
       <formula>IF(WEEKDAY(F$5)=1,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F18:AJ19">
-    <cfRule type="expression" dxfId="73" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="51" priority="3" stopIfTrue="1">
       <formula>IF(WEEKDAY(F$5)=1,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9:AJ10 F15:AJ16">
-    <cfRule type="expression" dxfId="72" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="50" priority="10" stopIfTrue="1">
       <formula>IF(WEEKDAY(F$5)=1,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9:AJ10 F15:AJ16">
-    <cfRule type="expression" dxfId="71" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="49" priority="9" stopIfTrue="1">
       <formula>IF(WEEKDAY(F$5)=1,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F13:AJ14">
-    <cfRule type="expression" dxfId="70" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="48" priority="2" stopIfTrue="1">
       <formula>IF(WEEKDAY(F$5)=1,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F13:AJ14">
-    <cfRule type="expression" dxfId="69" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="47" priority="1" stopIfTrue="1">
       <formula>IF(WEEKDAY(F$5)=1,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -45122,7 +44971,7 @@
   <cols>
     <col min="1" max="1" width="4.28515625" style="6" customWidth="1"/>
     <col min="2" max="2" width="8.42578125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="21.140625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="23.7109375" style="6" customWidth="1"/>
     <col min="4" max="4" width="13.5703125" style="15" customWidth="1"/>
     <col min="5" max="5" width="10.28515625" style="16" customWidth="1"/>
     <col min="6" max="6" width="7.140625" style="15" customWidth="1"/>
@@ -45151,26 +45000,26 @@
       <c r="A1" s="127"/>
       <c r="B1" s="204"/>
       <c r="C1" s="204"/>
-      <c r="D1" s="272" t="str">
+      <c r="D1" s="274" t="str">
         <f>"BẢNG THANH TOÁN LƯƠNG THÁNG"&amp;" "&amp;TEXT($E$4,"mm")&amp;" / "&amp;TEXT($E$4,"yyyy")</f>
         <v>BẢNG THANH TOÁN LƯƠNG THÁNG 03 / 2017</v>
       </c>
-      <c r="E1" s="272"/>
-      <c r="F1" s="272"/>
-      <c r="G1" s="272"/>
-      <c r="H1" s="272"/>
-      <c r="I1" s="272"/>
-      <c r="J1" s="272"/>
-      <c r="K1" s="272"/>
-      <c r="L1" s="272"/>
-      <c r="M1" s="272"/>
-      <c r="N1" s="272"/>
-      <c r="O1" s="273"/>
-      <c r="P1" s="274" t="s">
+      <c r="E1" s="274"/>
+      <c r="F1" s="274"/>
+      <c r="G1" s="274"/>
+      <c r="H1" s="274"/>
+      <c r="I1" s="274"/>
+      <c r="J1" s="274"/>
+      <c r="K1" s="274"/>
+      <c r="L1" s="274"/>
+      <c r="M1" s="274"/>
+      <c r="N1" s="274"/>
+      <c r="O1" s="275"/>
+      <c r="P1" s="276" t="s">
         <v>76</v>
       </c>
-      <c r="Q1" s="275"/>
-      <c r="R1" s="276"/>
+      <c r="Q1" s="277"/>
+      <c r="R1" s="278"/>
       <c r="S1" s="118" t="s">
         <v>49</v>
       </c>
@@ -45275,34 +45124,34 @@
       <c r="X4" s="94"/>
     </row>
     <row r="5" spans="1:29" s="22" customFormat="1" ht="24" customHeight="1">
-      <c r="A5" s="282" t="s">
+      <c r="A5" s="268" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="282" t="s">
+      <c r="B5" s="268" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="233" t="s">
+      <c r="C5" s="235" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="233" t="s">
+      <c r="D5" s="235" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="236" t="s">
+      <c r="E5" s="238" t="s">
         <v>48</v>
       </c>
-      <c r="F5" s="277" t="s">
+      <c r="F5" s="279" t="s">
         <v>23</v>
       </c>
-      <c r="G5" s="278"/>
-      <c r="H5" s="278"/>
-      <c r="I5" s="278"/>
-      <c r="J5" s="278"/>
-      <c r="K5" s="279"/>
-      <c r="L5" s="233" t="s">
+      <c r="G5" s="280"/>
+      <c r="H5" s="280"/>
+      <c r="I5" s="280"/>
+      <c r="J5" s="280"/>
+      <c r="K5" s="281"/>
+      <c r="L5" s="235" t="s">
         <v>5</v>
       </c>
-      <c r="M5" s="233"/>
-      <c r="N5" s="233"/>
+      <c r="M5" s="235"/>
+      <c r="N5" s="235"/>
       <c r="O5" s="270" t="s">
         <v>6</v>
       </c>
@@ -45312,7 +45161,7 @@
       <c r="Q5" s="270" t="s">
         <v>8</v>
       </c>
-      <c r="R5" s="234" t="s">
+      <c r="R5" s="236" t="s">
         <v>9</v>
       </c>
       <c r="S5" s="92"/>
@@ -45328,26 +45177,26 @@
       <c r="AC5" s="4"/>
     </row>
     <row r="6" spans="1:29" s="22" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A6" s="283"/>
-      <c r="B6" s="283"/>
-      <c r="C6" s="233"/>
-      <c r="D6" s="233"/>
-      <c r="E6" s="236"/>
-      <c r="F6" s="277" t="s">
+      <c r="A6" s="269"/>
+      <c r="B6" s="269"/>
+      <c r="C6" s="235"/>
+      <c r="D6" s="235"/>
+      <c r="E6" s="238"/>
+      <c r="F6" s="279" t="s">
         <v>50</v>
       </c>
-      <c r="G6" s="279"/>
-      <c r="H6" s="277" t="s">
+      <c r="G6" s="281"/>
+      <c r="H6" s="279" t="s">
         <v>69</v>
       </c>
-      <c r="I6" s="278"/>
-      <c r="J6" s="280" t="s">
+      <c r="I6" s="280"/>
+      <c r="J6" s="282" t="s">
         <v>24</v>
       </c>
       <c r="K6" s="270" t="s">
         <v>4</v>
       </c>
-      <c r="L6" s="268" t="s">
+      <c r="L6" s="271" t="s">
         <v>11</v>
       </c>
       <c r="M6" s="270" t="s">
@@ -45356,10 +45205,10 @@
       <c r="N6" s="270" t="s">
         <v>30</v>
       </c>
-      <c r="O6" s="271"/>
-      <c r="P6" s="271"/>
-      <c r="Q6" s="271"/>
-      <c r="R6" s="235"/>
+      <c r="O6" s="273"/>
+      <c r="P6" s="273"/>
+      <c r="Q6" s="273"/>
+      <c r="R6" s="237"/>
       <c r="S6" s="92"/>
       <c r="T6" s="23"/>
       <c r="U6" s="23"/>
@@ -45373,11 +45222,11 @@
       <c r="AC6" s="4"/>
     </row>
     <row r="7" spans="1:29" s="22" customFormat="1" ht="35.25" customHeight="1">
-      <c r="A7" s="283"/>
-      <c r="B7" s="283"/>
+      <c r="A7" s="269"/>
+      <c r="B7" s="269"/>
       <c r="C7" s="270"/>
       <c r="D7" s="270"/>
-      <c r="E7" s="236"/>
+      <c r="E7" s="238"/>
       <c r="F7" s="203" t="s">
         <v>33</v>
       </c>
@@ -45390,15 +45239,15 @@
       <c r="I7" s="116" t="s">
         <v>17</v>
       </c>
-      <c r="J7" s="281"/>
-      <c r="K7" s="271"/>
-      <c r="L7" s="269"/>
-      <c r="M7" s="271"/>
-      <c r="N7" s="271"/>
-      <c r="O7" s="271"/>
-      <c r="P7" s="271"/>
-      <c r="Q7" s="271"/>
-      <c r="R7" s="235"/>
+      <c r="J7" s="283"/>
+      <c r="K7" s="273"/>
+      <c r="L7" s="272"/>
+      <c r="M7" s="273"/>
+      <c r="N7" s="273"/>
+      <c r="O7" s="273"/>
+      <c r="P7" s="273"/>
+      <c r="Q7" s="273"/>
+      <c r="R7" s="237"/>
       <c r="S7" s="92"/>
       <c r="T7" s="23"/>
       <c r="U7" s="23"/>
@@ -46246,11 +46095,6 @@
   </protectedRanges>
   <autoFilter ref="A7:AC10"/>
   <mergeCells count="20">
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="D5:D7"/>
-    <mergeCell ref="E5:E7"/>
     <mergeCell ref="L6:L7"/>
     <mergeCell ref="M6:M7"/>
     <mergeCell ref="N6:N7"/>
@@ -46266,10 +46110,15 @@
     <mergeCell ref="L5:N5"/>
     <mergeCell ref="J6:J7"/>
     <mergeCell ref="K6:K7"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="E5:E7"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0.24" top="0.2" bottom="0.32" header="0.2" footer="0.2"/>
-  <pageSetup paperSize="9" scale="70" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="80" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddFooter>&amp;C&amp;P/&amp;N</oddFooter>
   </headerFooter>
@@ -46353,15 +46202,15 @@
       <c r="AI1" s="107"/>
       <c r="AJ1" s="44"/>
       <c r="AK1" s="44"/>
-      <c r="AL1" s="260" t="s">
+      <c r="AL1" s="256" t="s">
         <v>76</v>
       </c>
-      <c r="AM1" s="261"/>
-      <c r="AN1" s="261"/>
-      <c r="AO1" s="261"/>
-      <c r="AP1" s="261"/>
-      <c r="AQ1" s="261"/>
-      <c r="AR1" s="262"/>
+      <c r="AM1" s="257"/>
+      <c r="AN1" s="257"/>
+      <c r="AO1" s="257"/>
+      <c r="AP1" s="257"/>
+      <c r="AQ1" s="257"/>
+      <c r="AR1" s="258"/>
       <c r="AS1" s="46"/>
     </row>
     <row r="2" spans="1:90" ht="20.25">
@@ -46508,19 +46357,19 @@
       <c r="AS4" s="90"/>
     </row>
     <row r="5" spans="1:90" s="56" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A5" s="257" t="s">
+      <c r="A5" s="266" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="257" t="s">
+      <c r="B5" s="266" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="257" t="s">
+      <c r="C5" s="266" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="259" t="s">
+      <c r="D5" s="264" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="257" t="s">
+      <c r="E5" s="266" t="s">
         <v>27</v>
       </c>
       <c r="F5" s="106">
@@ -46643,30 +46492,30 @@
         <f t="shared" si="0"/>
         <v>42855</v>
       </c>
-      <c r="AJ5" s="263" t="s">
+      <c r="AJ5" s="259" t="s">
         <v>14</v>
       </c>
-      <c r="AK5" s="264"/>
-      <c r="AL5" s="265"/>
-      <c r="AM5" s="266" t="s">
+      <c r="AK5" s="260"/>
+      <c r="AL5" s="261"/>
+      <c r="AM5" s="262" t="s">
         <v>38</v>
       </c>
-      <c r="AN5" s="266" t="s">
+      <c r="AN5" s="262" t="s">
         <v>34</v>
       </c>
-      <c r="AO5" s="266" t="s">
+      <c r="AO5" s="262" t="s">
         <v>35</v>
       </c>
-      <c r="AP5" s="266" t="s">
+      <c r="AP5" s="262" t="s">
         <v>36</v>
       </c>
-      <c r="AQ5" s="266" t="s">
+      <c r="AQ5" s="262" t="s">
         <v>37</v>
       </c>
-      <c r="AR5" s="259" t="s">
+      <c r="AR5" s="264" t="s">
         <v>0</v>
       </c>
-      <c r="AS5" s="254"/>
+      <c r="AS5" s="267"/>
       <c r="AU5" s="2"/>
       <c r="AV5" s="2"/>
       <c r="AW5" s="2"/>
@@ -46713,11 +46562,11 @@
       <c r="CL5" s="2"/>
     </row>
     <row r="6" spans="1:90" s="56" customFormat="1" ht="39.75" customHeight="1">
-      <c r="A6" s="258"/>
-      <c r="B6" s="258"/>
-      <c r="C6" s="258"/>
-      <c r="D6" s="258"/>
-      <c r="E6" s="258"/>
+      <c r="A6" s="265"/>
+      <c r="B6" s="265"/>
+      <c r="C6" s="265"/>
+      <c r="D6" s="265"/>
+      <c r="E6" s="265"/>
       <c r="F6" s="158" t="str">
         <f>CHOOSE(WEEKDAY(F5),"C.Nhật","T.Hai","T.Ba","T.Tư","T.Năm","T.Sáu","T.Bảy")</f>
         <v>T.Bảy</v>
@@ -46847,13 +46696,13 @@
       <c r="AL6" s="160" t="s">
         <v>16</v>
       </c>
-      <c r="AM6" s="267"/>
-      <c r="AN6" s="267"/>
-      <c r="AO6" s="267"/>
-      <c r="AP6" s="267"/>
-      <c r="AQ6" s="267"/>
-      <c r="AR6" s="258"/>
-      <c r="AS6" s="254"/>
+      <c r="AM6" s="263"/>
+      <c r="AN6" s="263"/>
+      <c r="AO6" s="263"/>
+      <c r="AP6" s="263"/>
+      <c r="AQ6" s="263"/>
+      <c r="AR6" s="265"/>
+      <c r="AS6" s="267"/>
       <c r="AU6" s="2"/>
       <c r="AV6" s="2"/>
       <c r="AW6" s="2"/>
@@ -47130,17 +46979,17 @@
       <c r="AS8" s="163"/>
     </row>
     <row r="9" spans="1:90" s="56" customFormat="1" ht="18" customHeight="1">
-      <c r="A9" s="248">
+      <c r="A9" s="244">
         <v>2</v>
       </c>
-      <c r="B9" s="248" t="s">
+      <c r="B9" s="244" t="s">
         <v>73</v>
       </c>
-      <c r="C9" s="250" t="str">
+      <c r="C9" s="246" t="str">
         <f>VLOOKUP(B9,DS,2,0)</f>
         <v>Mai Thị Hường</v>
       </c>
-      <c r="D9" s="252" t="str">
+      <c r="D9" s="254" t="str">
         <f>VLOOKUP(B9,DS,3,0)</f>
         <v>Kế Toán</v>
       </c>
@@ -47225,29 +47074,29 @@
       </c>
       <c r="AH9" s="131"/>
       <c r="AI9" s="131"/>
-      <c r="AJ9" s="240">
+      <c r="AJ9" s="252">
         <f>((SUM(F9:AI9))/8)-(SUMIF($F$6:$AI$6,"C.Nhật",F9:AI9)/8)</f>
         <v>24</v>
       </c>
-      <c r="AK9" s="240">
+      <c r="AK9" s="252">
         <f>SUM(F10:AI10)/8*1.5</f>
         <v>0</v>
       </c>
-      <c r="AL9" s="242">
+      <c r="AL9" s="248">
         <f>SUMIF($F$6:$AI$6,"C.Nhật",$F9:$AI10)/8*2</f>
         <v>0</v>
       </c>
-      <c r="AM9" s="244">
+      <c r="AM9" s="240">
         <f>SUM(AJ9:AL10)</f>
         <v>24</v>
       </c>
-      <c r="AN9" s="246">
+      <c r="AN9" s="250">
         <v>0</v>
       </c>
-      <c r="AO9" s="244"/>
-      <c r="AP9" s="244"/>
-      <c r="AQ9" s="244"/>
-      <c r="AR9" s="255"/>
+      <c r="AO9" s="240"/>
+      <c r="AP9" s="240"/>
+      <c r="AQ9" s="240"/>
+      <c r="AR9" s="242"/>
       <c r="AS9" s="213"/>
       <c r="AU9" s="2"/>
       <c r="AV9" s="2"/>
@@ -47295,10 +47144,10 @@
       <c r="CL9" s="2"/>
     </row>
     <row r="10" spans="1:90" s="56" customFormat="1" ht="18" customHeight="1">
-      <c r="A10" s="249"/>
-      <c r="B10" s="249"/>
-      <c r="C10" s="251"/>
-      <c r="D10" s="253"/>
+      <c r="A10" s="245"/>
+      <c r="B10" s="245"/>
+      <c r="C10" s="247"/>
+      <c r="D10" s="255"/>
       <c r="E10" s="58" t="s">
         <v>28</v>
       </c>
@@ -47332,15 +47181,15 @@
       <c r="AG10" s="132"/>
       <c r="AH10" s="132"/>
       <c r="AI10" s="132"/>
-      <c r="AJ10" s="241"/>
-      <c r="AK10" s="241"/>
-      <c r="AL10" s="243"/>
-      <c r="AM10" s="245"/>
-      <c r="AN10" s="247"/>
-      <c r="AO10" s="245"/>
-      <c r="AP10" s="245"/>
-      <c r="AQ10" s="245"/>
-      <c r="AR10" s="256"/>
+      <c r="AJ10" s="253"/>
+      <c r="AK10" s="253"/>
+      <c r="AL10" s="249"/>
+      <c r="AM10" s="241"/>
+      <c r="AN10" s="251"/>
+      <c r="AO10" s="241"/>
+      <c r="AP10" s="241"/>
+      <c r="AQ10" s="241"/>
+      <c r="AR10" s="243"/>
       <c r="AS10" s="213"/>
       <c r="AU10" s="2"/>
       <c r="AV10" s="2"/>
@@ -47388,17 +47237,17 @@
       <c r="CL10" s="2"/>
     </row>
     <row r="11" spans="1:90" s="56" customFormat="1" ht="18" customHeight="1">
-      <c r="A11" s="248">
+      <c r="A11" s="244">
         <v>2</v>
       </c>
-      <c r="B11" s="248" t="s">
+      <c r="B11" s="244" t="s">
         <v>113</v>
       </c>
-      <c r="C11" s="250" t="str">
+      <c r="C11" s="246" t="str">
         <f>VLOOKUP(B11,DS,2,0)</f>
         <v>Võ Ngọc Thúy Hằng</v>
       </c>
-      <c r="D11" s="252" t="str">
+      <c r="D11" s="254" t="str">
         <f>VLOOKUP(B11,DS,3,0)</f>
         <v>Văn Phòng</v>
       </c>
@@ -47483,29 +47332,29 @@
       </c>
       <c r="AH11" s="131"/>
       <c r="AI11" s="131"/>
-      <c r="AJ11" s="240">
+      <c r="AJ11" s="252">
         <f>((SUM(F11:AI11))/8)-(SUMIF($F$6:$AI$6,"C.Nhật",F11:AI11)/8)</f>
         <v>24</v>
       </c>
-      <c r="AK11" s="240">
+      <c r="AK11" s="252">
         <f>SUM(F12:AI12)/8*1.5</f>
         <v>0</v>
       </c>
-      <c r="AL11" s="242">
+      <c r="AL11" s="248">
         <f>SUMIF($F$6:$AI$6,"C.Nhật",$F11:$AI12)/8*2</f>
         <v>0</v>
       </c>
-      <c r="AM11" s="244">
+      <c r="AM11" s="240">
         <f>SUM(AJ11:AL12)</f>
         <v>24</v>
       </c>
-      <c r="AN11" s="246">
+      <c r="AN11" s="250">
         <v>0</v>
       </c>
-      <c r="AO11" s="244"/>
-      <c r="AP11" s="244"/>
-      <c r="AQ11" s="244"/>
-      <c r="AR11" s="255"/>
+      <c r="AO11" s="240"/>
+      <c r="AP11" s="240"/>
+      <c r="AQ11" s="240"/>
+      <c r="AR11" s="242"/>
       <c r="AS11" s="225"/>
       <c r="AT11" s="2"/>
       <c r="AU11" s="2"/>
@@ -47553,10 +47402,10 @@
       <c r="CK11" s="2"/>
     </row>
     <row r="12" spans="1:90" s="56" customFormat="1" ht="18" customHeight="1">
-      <c r="A12" s="249"/>
-      <c r="B12" s="249"/>
-      <c r="C12" s="251"/>
-      <c r="D12" s="253"/>
+      <c r="A12" s="245"/>
+      <c r="B12" s="245"/>
+      <c r="C12" s="247"/>
+      <c r="D12" s="255"/>
       <c r="E12" s="58" t="s">
         <v>28</v>
       </c>
@@ -47590,15 +47439,15 @@
       <c r="AG12" s="132"/>
       <c r="AH12" s="132"/>
       <c r="AI12" s="132"/>
-      <c r="AJ12" s="241"/>
-      <c r="AK12" s="241"/>
-      <c r="AL12" s="243"/>
-      <c r="AM12" s="245"/>
-      <c r="AN12" s="247"/>
-      <c r="AO12" s="245"/>
-      <c r="AP12" s="245"/>
-      <c r="AQ12" s="245"/>
-      <c r="AR12" s="256"/>
+      <c r="AJ12" s="253"/>
+      <c r="AK12" s="253"/>
+      <c r="AL12" s="249"/>
+      <c r="AM12" s="241"/>
+      <c r="AN12" s="251"/>
+      <c r="AO12" s="241"/>
+      <c r="AP12" s="241"/>
+      <c r="AQ12" s="241"/>
+      <c r="AR12" s="243"/>
       <c r="AS12" s="225"/>
       <c r="AT12" s="2"/>
       <c r="AU12" s="2"/>
@@ -47697,17 +47546,17 @@
       <c r="AS13" s="163"/>
     </row>
     <row r="14" spans="1:90" s="56" customFormat="1" ht="18" customHeight="1">
-      <c r="A14" s="248">
+      <c r="A14" s="244">
         <v>1</v>
       </c>
-      <c r="B14" s="248" t="s">
+      <c r="B14" s="244" t="s">
         <v>74</v>
       </c>
-      <c r="C14" s="250" t="str">
+      <c r="C14" s="246" t="str">
         <f>VLOOKUP(B14,DS,2,0)</f>
         <v>Thạch Huy Chạch</v>
       </c>
-      <c r="D14" s="252" t="str">
+      <c r="D14" s="254" t="str">
         <f>VLOOKUP(B14,DS,3,0)</f>
         <v>Công nhân</v>
       </c>
@@ -47792,29 +47641,29 @@
       </c>
       <c r="AH14" s="131"/>
       <c r="AI14" s="131"/>
-      <c r="AJ14" s="240">
+      <c r="AJ14" s="252">
         <f>((SUM(F14:AI14))/8)-(SUMIF($F$6:$AI$6,"C.Nhật",F14:AI14)/8)</f>
         <v>24</v>
       </c>
-      <c r="AK14" s="240">
+      <c r="AK14" s="252">
         <f>SUM(F15:AI15)/8*1.5</f>
         <v>0</v>
       </c>
-      <c r="AL14" s="242">
+      <c r="AL14" s="248">
         <f>SUMIF($F$6:$AI$6,"C.Nhật",$F14:$AI15)/8*2</f>
         <v>0</v>
       </c>
-      <c r="AM14" s="244">
+      <c r="AM14" s="240">
         <f>SUM(AJ14:AL15)</f>
         <v>24</v>
       </c>
-      <c r="AN14" s="246">
+      <c r="AN14" s="250">
         <v>0</v>
       </c>
-      <c r="AO14" s="244"/>
-      <c r="AP14" s="244"/>
-      <c r="AQ14" s="244"/>
-      <c r="AR14" s="255"/>
+      <c r="AO14" s="240"/>
+      <c r="AP14" s="240"/>
+      <c r="AQ14" s="240"/>
+      <c r="AR14" s="242"/>
       <c r="AS14" s="223"/>
       <c r="AT14" s="2"/>
       <c r="AU14" s="2"/>
@@ -47862,10 +47711,10 @@
       <c r="CK14" s="2"/>
     </row>
     <row r="15" spans="1:90" s="56" customFormat="1" ht="18" customHeight="1">
-      <c r="A15" s="249"/>
-      <c r="B15" s="249"/>
-      <c r="C15" s="251"/>
-      <c r="D15" s="253"/>
+      <c r="A15" s="245"/>
+      <c r="B15" s="245"/>
+      <c r="C15" s="247"/>
+      <c r="D15" s="255"/>
       <c r="E15" s="58" t="s">
         <v>28</v>
       </c>
@@ -47899,15 +47748,15 @@
       <c r="AG15" s="132"/>
       <c r="AH15" s="132"/>
       <c r="AI15" s="132"/>
-      <c r="AJ15" s="241"/>
-      <c r="AK15" s="241"/>
-      <c r="AL15" s="243"/>
-      <c r="AM15" s="245"/>
-      <c r="AN15" s="247"/>
-      <c r="AO15" s="245"/>
-      <c r="AP15" s="245"/>
-      <c r="AQ15" s="245"/>
-      <c r="AR15" s="256"/>
+      <c r="AJ15" s="253"/>
+      <c r="AK15" s="253"/>
+      <c r="AL15" s="249"/>
+      <c r="AM15" s="241"/>
+      <c r="AN15" s="251"/>
+      <c r="AO15" s="241"/>
+      <c r="AP15" s="241"/>
+      <c r="AQ15" s="241"/>
+      <c r="AR15" s="243"/>
       <c r="AS15" s="223"/>
       <c r="AT15" s="2"/>
       <c r="AU15" s="2"/>
@@ -48969,26 +48818,19 @@
     <protectedRange password="CC78" sqref="B14:B15" name="Range1_4_2"/>
   </protectedRanges>
   <mergeCells count="53">
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="AJ11:AJ12"/>
-    <mergeCell ref="AK11:AK12"/>
-    <mergeCell ref="AS5:AS6"/>
-    <mergeCell ref="AP9:AP10"/>
-    <mergeCell ref="AQ9:AQ10"/>
-    <mergeCell ref="AR9:AR10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="AK9:AK10"/>
-    <mergeCell ref="AL9:AL10"/>
-    <mergeCell ref="AM9:AM10"/>
-    <mergeCell ref="AN9:AN10"/>
-    <mergeCell ref="AO9:AO10"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="AJ9:AJ10"/>
-    <mergeCell ref="AR11:AR12"/>
-    <mergeCell ref="AQ11:AQ12"/>
+    <mergeCell ref="AR14:AR15"/>
+    <mergeCell ref="AK14:AK15"/>
+    <mergeCell ref="AL14:AL15"/>
+    <mergeCell ref="AM14:AM15"/>
+    <mergeCell ref="AN14:AN15"/>
+    <mergeCell ref="AO14:AO15"/>
+    <mergeCell ref="AP14:AP15"/>
+    <mergeCell ref="AQ14:AQ15"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="AJ14:AJ15"/>
     <mergeCell ref="AL1:AR1"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="B5:B6"/>
@@ -49002,39 +48844,46 @@
     <mergeCell ref="AP5:AP6"/>
     <mergeCell ref="AQ5:AQ6"/>
     <mergeCell ref="AR5:AR6"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="AK9:AK10"/>
+    <mergeCell ref="AL9:AL10"/>
+    <mergeCell ref="AM9:AM10"/>
+    <mergeCell ref="AN9:AN10"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="AJ9:AJ10"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="C11:C12"/>
     <mergeCell ref="AL11:AL12"/>
     <mergeCell ref="AM11:AM12"/>
     <mergeCell ref="AN11:AN12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="AJ11:AJ12"/>
+    <mergeCell ref="AK11:AK12"/>
+    <mergeCell ref="AS5:AS6"/>
+    <mergeCell ref="AP9:AP10"/>
+    <mergeCell ref="AQ9:AQ10"/>
+    <mergeCell ref="AR9:AR10"/>
+    <mergeCell ref="AO9:AO10"/>
+    <mergeCell ref="AR11:AR12"/>
+    <mergeCell ref="AQ11:AQ12"/>
     <mergeCell ref="AO11:AO12"/>
     <mergeCell ref="AP11:AP12"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="AJ14:AJ15"/>
-    <mergeCell ref="AR14:AR15"/>
-    <mergeCell ref="AK14:AK15"/>
-    <mergeCell ref="AL14:AL15"/>
-    <mergeCell ref="AM14:AM15"/>
-    <mergeCell ref="AN14:AN15"/>
-    <mergeCell ref="AO14:AO15"/>
-    <mergeCell ref="AP14:AP15"/>
-    <mergeCell ref="AQ14:AQ15"/>
   </mergeCells>
   <conditionalFormatting sqref="F5:AI6 F9:AI10">
-    <cfRule type="expression" dxfId="68" priority="25" stopIfTrue="1">
+    <cfRule type="expression" dxfId="46" priority="25" stopIfTrue="1">
       <formula>IF(WEEKDAY(F$5)=1,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14:AI15">
-    <cfRule type="expression" dxfId="67" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="45" priority="2" stopIfTrue="1">
       <formula>IF(WEEKDAY(F$5)=1,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11:AI12">
-    <cfRule type="expression" dxfId="66" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="44" priority="1" stopIfTrue="1">
       <formula>IF(WEEKDAY(F$5)=1,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -49097,26 +48946,26 @@
       <c r="A1" s="127"/>
       <c r="B1" s="204"/>
       <c r="C1" s="204"/>
-      <c r="D1" s="272" t="str">
+      <c r="D1" s="274" t="str">
         <f>"BẢNG THANH TOÁN LƯƠNG THÁNG"&amp;" "&amp;TEXT($E$4,"mm")&amp;" / "&amp;TEXT($E$4,"yyyy")</f>
         <v>BẢNG THANH TOÁN LƯƠNG THÁNG 04 / 2017</v>
       </c>
-      <c r="E1" s="272"/>
-      <c r="F1" s="272"/>
-      <c r="G1" s="272"/>
-      <c r="H1" s="272"/>
-      <c r="I1" s="272"/>
-      <c r="J1" s="272"/>
-      <c r="K1" s="272"/>
-      <c r="L1" s="272"/>
-      <c r="M1" s="272"/>
-      <c r="N1" s="272"/>
-      <c r="O1" s="273"/>
-      <c r="P1" s="274" t="s">
+      <c r="E1" s="274"/>
+      <c r="F1" s="274"/>
+      <c r="G1" s="274"/>
+      <c r="H1" s="274"/>
+      <c r="I1" s="274"/>
+      <c r="J1" s="274"/>
+      <c r="K1" s="274"/>
+      <c r="L1" s="274"/>
+      <c r="M1" s="274"/>
+      <c r="N1" s="274"/>
+      <c r="O1" s="275"/>
+      <c r="P1" s="276" t="s">
         <v>76</v>
       </c>
-      <c r="Q1" s="275"/>
-      <c r="R1" s="276"/>
+      <c r="Q1" s="277"/>
+      <c r="R1" s="278"/>
       <c r="S1" s="118" t="s">
         <v>49</v>
       </c>
@@ -49221,34 +49070,34 @@
       <c r="X4" s="94"/>
     </row>
     <row r="5" spans="1:29" s="22" customFormat="1" ht="24" customHeight="1">
-      <c r="A5" s="282" t="s">
+      <c r="A5" s="268" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="282" t="s">
+      <c r="B5" s="268" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="233" t="s">
+      <c r="C5" s="235" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="233" t="s">
+      <c r="D5" s="235" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="236" t="s">
+      <c r="E5" s="238" t="s">
         <v>48</v>
       </c>
-      <c r="F5" s="277" t="s">
+      <c r="F5" s="279" t="s">
         <v>23</v>
       </c>
-      <c r="G5" s="278"/>
-      <c r="H5" s="278"/>
-      <c r="I5" s="278"/>
-      <c r="J5" s="278"/>
-      <c r="K5" s="279"/>
-      <c r="L5" s="233" t="s">
+      <c r="G5" s="280"/>
+      <c r="H5" s="280"/>
+      <c r="I5" s="280"/>
+      <c r="J5" s="280"/>
+      <c r="K5" s="281"/>
+      <c r="L5" s="235" t="s">
         <v>5</v>
       </c>
-      <c r="M5" s="233"/>
-      <c r="N5" s="233"/>
+      <c r="M5" s="235"/>
+      <c r="N5" s="235"/>
       <c r="O5" s="270" t="s">
         <v>6</v>
       </c>
@@ -49258,7 +49107,7 @@
       <c r="Q5" s="270" t="s">
         <v>8</v>
       </c>
-      <c r="R5" s="234" t="s">
+      <c r="R5" s="236" t="s">
         <v>9</v>
       </c>
       <c r="S5" s="92"/>
@@ -49274,26 +49123,26 @@
       <c r="AC5" s="4"/>
     </row>
     <row r="6" spans="1:29" s="22" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A6" s="283"/>
-      <c r="B6" s="283"/>
-      <c r="C6" s="233"/>
-      <c r="D6" s="233"/>
-      <c r="E6" s="236"/>
-      <c r="F6" s="277" t="s">
+      <c r="A6" s="269"/>
+      <c r="B6" s="269"/>
+      <c r="C6" s="235"/>
+      <c r="D6" s="235"/>
+      <c r="E6" s="238"/>
+      <c r="F6" s="279" t="s">
         <v>50</v>
       </c>
-      <c r="G6" s="279"/>
-      <c r="H6" s="277" t="s">
+      <c r="G6" s="281"/>
+      <c r="H6" s="279" t="s">
         <v>69</v>
       </c>
-      <c r="I6" s="278"/>
-      <c r="J6" s="280" t="s">
+      <c r="I6" s="280"/>
+      <c r="J6" s="282" t="s">
         <v>24</v>
       </c>
       <c r="K6" s="270" t="s">
         <v>4</v>
       </c>
-      <c r="L6" s="268" t="s">
+      <c r="L6" s="271" t="s">
         <v>11</v>
       </c>
       <c r="M6" s="270" t="s">
@@ -49302,10 +49151,10 @@
       <c r="N6" s="270" t="s">
         <v>30</v>
       </c>
-      <c r="O6" s="271"/>
-      <c r="P6" s="271"/>
-      <c r="Q6" s="271"/>
-      <c r="R6" s="235"/>
+      <c r="O6" s="273"/>
+      <c r="P6" s="273"/>
+      <c r="Q6" s="273"/>
+      <c r="R6" s="237"/>
       <c r="S6" s="92"/>
       <c r="T6" s="23"/>
       <c r="U6" s="23"/>
@@ -49319,11 +49168,11 @@
       <c r="AC6" s="4"/>
     </row>
     <row r="7" spans="1:29" s="22" customFormat="1" ht="35.25" customHeight="1">
-      <c r="A7" s="283"/>
-      <c r="B7" s="283"/>
+      <c r="A7" s="269"/>
+      <c r="B7" s="269"/>
       <c r="C7" s="270"/>
       <c r="D7" s="270"/>
-      <c r="E7" s="236"/>
+      <c r="E7" s="238"/>
       <c r="F7" s="203" t="s">
         <v>33</v>
       </c>
@@ -49336,15 +49185,15 @@
       <c r="I7" s="116" t="s">
         <v>17</v>
       </c>
-      <c r="J7" s="281"/>
-      <c r="K7" s="271"/>
-      <c r="L7" s="269"/>
-      <c r="M7" s="271"/>
-      <c r="N7" s="271"/>
-      <c r="O7" s="271"/>
-      <c r="P7" s="271"/>
-      <c r="Q7" s="271"/>
-      <c r="R7" s="235"/>
+      <c r="J7" s="283"/>
+      <c r="K7" s="273"/>
+      <c r="L7" s="272"/>
+      <c r="M7" s="273"/>
+      <c r="N7" s="273"/>
+      <c r="O7" s="273"/>
+      <c r="P7" s="273"/>
+      <c r="Q7" s="273"/>
+      <c r="R7" s="237"/>
       <c r="S7" s="92"/>
       <c r="T7" s="23"/>
       <c r="U7" s="23"/>
@@ -50038,11 +49887,6 @@
   </protectedRanges>
   <autoFilter ref="A7:AC9"/>
   <mergeCells count="20">
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="D5:D7"/>
-    <mergeCell ref="E5:E7"/>
     <mergeCell ref="L6:L7"/>
     <mergeCell ref="M6:M7"/>
     <mergeCell ref="N6:N7"/>
@@ -50058,10 +49902,15 @@
     <mergeCell ref="L5:N5"/>
     <mergeCell ref="J6:J7"/>
     <mergeCell ref="K6:K7"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="E5:E7"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0.24" top="0.2" bottom="0.32" header="0.2" footer="0.2"/>
-  <pageSetup paperSize="9" scale="70" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="80" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddFooter>&amp;C&amp;P/&amp;N</oddFooter>
   </headerFooter>
